--- a/Supplimentary-data/Supplementary data 1.xlsx
+++ b/Supplimentary-data/Supplementary data 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliacoggon/Github/Euro-Swine-Risk/Supplimentary-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ED98D06F-6E61-FB4D-8FFD-B5199F55DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{01955C22-6EF3-374D-857C-95647AA5CB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-980" yWindow="-23500" windowWidth="36960" windowHeight="17440" xr2:uid="{1BCBB8A6-08B1-F941-B25A-ACFDA29D6B13}"/>
+    <workbookView xWindow="20" yWindow="-23500" windowWidth="42540" windowHeight="22640" xr2:uid="{1BCBB8A6-08B1-F941-B25A-ACFDA29D6B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary data 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="115">
   <si>
     <t>A/SWINE/FRANCE/FINISTERE/2899/1982</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Strain</t>
+  </si>
+  <si>
+    <t>Swine Sera</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -816,55 +819,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -910,28 +864,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1321,133 +1264,144 @@
   <dimension ref="A1:AK64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="37" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="5.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="5.83203125" style="1" customWidth="1"/>
+    <col min="14" max="18" width="6.33203125" style="1" customWidth="1"/>
+    <col min="19" max="25" width="7.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15.83203125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="19" style="1" customWidth="1"/>
+    <col min="29" max="29" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="48" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="243" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:37" s="6" customFormat="1" ht="243" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
         <v>111</v>
       </c>
@@ -1463,34 +1417,34 @@
       <c r="I2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="4" t="s">
@@ -1505,10 +1459,10 @@
       <c r="W2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="4" t="s">
@@ -1520,6921 +1474,6921 @@
       <c r="AB2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="3">
         <v>3.1570841341925302</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="3">
         <v>1.9225109081413501</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="3">
         <v>1.4253608304106</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="3">
         <v>2.3584421935152902</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="3">
         <v>0.97618176716418503</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="3">
         <v>0.69822125444827898</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="3">
         <v>5.3546538335735701</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="3">
         <v>2.9533834519798701</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="3">
         <v>2.3923950344386302</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="3">
         <v>5.2860263286382496</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="3">
         <v>5.4405681109240298</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="3">
         <v>6.4492267509004799</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="3">
         <v>5.8672700530194</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="3">
         <v>6.7911440336549704</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="3">
         <v>5.7292830855028303</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="3">
         <v>6.16804726000362</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="3">
         <v>6.16804726000362</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="3">
         <v>6.3772137442842602</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="3">
         <v>6.3772137442842602</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="3">
         <v>7.3739464066126299</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Y5" s="3">
         <v>8.8868023776561493</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="3">
         <v>5.0352725737041499</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="3">
         <v>4.9078911955160596</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="3">
         <v>4.73716253891501</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AC5" s="3">
         <v>4.5432755967227996</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="3">
         <v>3.60148075365858</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AE5" s="3">
         <v>2.7805268811188601</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AF5" s="3">
         <v>4.5747135812755202</v>
       </c>
-      <c r="AG5" s="15">
+      <c r="AG5" s="3">
         <v>3.2356652349720201</v>
       </c>
-      <c r="AH5" s="15">
+      <c r="AH5" s="3">
         <v>5.5607498802616098</v>
       </c>
-      <c r="AI5" s="15">
+      <c r="AI5" s="3">
         <v>3.2576570860873701</v>
       </c>
-      <c r="AJ5" s="15">
+      <c r="AJ5" s="3">
         <v>6.5385150962370604</v>
       </c>
-      <c r="AK5" s="15">
+      <c r="AK5" s="3">
         <v>6.86680089726819</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="3">
         <v>7.2750335224553702</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="3">
         <v>6.49943850881602</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="3">
         <v>5.8769547043526504</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="3">
         <v>5.80002030324441</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="3">
         <v>5.5623939943517096</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="3">
         <v>5.5628201291244403</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="3">
         <v>8.4568046688277896</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="3">
         <v>6.4433870420342503</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="3">
         <v>7.0180858565710498</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="3">
         <v>9.3476234932549005</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="3">
         <v>9.3077338668563403</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="3">
         <v>9.8430228445755503</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="3">
         <v>9.8182375798290007</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="3">
         <v>10.7398595310903</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="3">
         <v>10.6379501404663</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="3">
         <v>10.969562849911799</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="3">
         <v>10.969562849911799</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="3">
         <v>11.276863115222699</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="3">
         <v>11.276863115222699</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="3">
         <v>11.994555801750501</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="3">
         <v>13.492302601758899</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="3">
         <v>8.5888662481003006</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="3">
         <v>8.75894115880571</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AB6" s="3">
         <v>8.44957329505052</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AC6" s="3">
         <v>9.0705785493739608</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AD6" s="3">
         <v>8.0805243851997606</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AE6" s="3">
         <v>7.1956779005463298</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AF6" s="3">
         <v>9.3382052596136198</v>
       </c>
-      <c r="AG6" s="16">
+      <c r="AG6" s="3">
         <v>7.5467109289785697</v>
       </c>
-      <c r="AH6" s="16">
+      <c r="AH6" s="3">
         <v>10.384890452736199</v>
       </c>
-      <c r="AI6" s="16">
+      <c r="AI6" s="3">
         <v>7.6453555292397999</v>
       </c>
-      <c r="AJ6" s="16">
+      <c r="AJ6" s="3">
         <v>9.4798739695153795</v>
       </c>
-      <c r="AK6" s="16">
+      <c r="AK6" s="3">
         <v>9.0100625948410205</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="3">
         <v>2.51636338225194</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="3">
         <v>1.5865594082224801</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="3">
         <v>0.99234975603352904</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="3">
         <v>1.25651110532921</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="3">
         <v>1.01750792198538</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="3">
         <v>1.1818952475714199</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="3">
         <v>5.2405583730502396</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="3">
         <v>3.33881648561582</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="3">
         <v>2.6000770311999899</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="3">
         <v>4.5897313999170999</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="3">
         <v>4.65374860193677</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="3">
         <v>5.88197603217127</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="3">
         <v>5.1480758068400698</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="3">
         <v>6.105957259208</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="3">
         <v>5.8844739266181598</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="3">
         <v>6.0491515763553299</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="3">
         <v>6.0491515763553299</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="3">
         <v>6.5090993798249297</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="3">
         <v>6.5090993798249297</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="3">
         <v>7.0605515590400598</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="3">
         <v>8.5560102016435096</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="3">
         <v>4.3285575978432602</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA7" s="3">
         <v>4.1555067680894497</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AB7" s="3">
         <v>4.0396152925875803</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="3">
         <v>5.1751312819985698</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AD7" s="3">
         <v>4.3625021131247097</v>
       </c>
-      <c r="AE7" s="16">
+      <c r="AE7" s="3">
         <v>3.47479154413824</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7" s="3">
         <v>5.22502855926321</v>
       </c>
-      <c r="AG7" s="16">
+      <c r="AG7" s="3">
         <v>3.86143731498038</v>
       </c>
-      <c r="AH7" s="16">
+      <c r="AH7" s="3">
         <v>6.0311972830487299</v>
       </c>
-      <c r="AI7" s="16">
+      <c r="AI7" s="3">
         <v>3.51788933318432</v>
       </c>
-      <c r="AJ7" s="16">
+      <c r="AJ7" s="3">
         <v>6.0826341170169602</v>
       </c>
-      <c r="AK7" s="16">
+      <c r="AK7" s="3">
         <v>6.5478201184465403</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="3">
         <v>4.00292750608416</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="3">
         <v>3.0252556326968199</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="3">
         <v>2.61129425656291</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="3">
         <v>3.8310765558017699</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="3">
         <v>2.4101528978252502</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="3">
         <v>1.9450600779912499</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="3">
         <v>6.4758777210600798</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="3">
         <v>3.8418494594096</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="3">
         <v>3.2154219054428599</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="3">
         <v>6.2749670377705904</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="3">
         <v>6.4823986831939102</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="3">
         <v>7.7225376318513002</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="3">
         <v>6.6763595577141199</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="3">
         <v>7.4890804312585404</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="3">
         <v>5.7949033417649902</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="3">
         <v>6.4001862096048496</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="3">
         <v>6.4001862096048496</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="3">
         <v>6.4479166673061297</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="3">
         <v>6.4479166673061297</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="3">
         <v>7.8720152388564797</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="3">
         <v>9.2758027765683995</v>
       </c>
-      <c r="Z8" s="16">
+      <c r="Z8" s="3">
         <v>6.3632810208807902</v>
       </c>
-      <c r="AA8" s="16">
+      <c r="AA8" s="3">
         <v>6.0956484478292801</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AB8" s="3">
         <v>6.0266193378731101</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC8" s="3">
         <v>4.4286594871052403</v>
       </c>
-      <c r="AD8" s="16">
+      <c r="AD8" s="3">
         <v>2.5585612254665602</v>
       </c>
-      <c r="AE8" s="16">
+      <c r="AE8" s="3">
         <v>1.83932144586143</v>
       </c>
-      <c r="AF8" s="16">
+      <c r="AF8" s="3">
         <v>3.9147076837977401</v>
       </c>
-      <c r="AG8" s="16">
+      <c r="AG8" s="3">
         <v>2.2651435255655201</v>
       </c>
-      <c r="AH8" s="16">
+      <c r="AH8" s="3">
         <v>4.9727219353232401</v>
       </c>
-      <c r="AI8" s="16">
+      <c r="AI8" s="3">
         <v>2.8417146219656102</v>
       </c>
-      <c r="AJ8" s="16">
+      <c r="AJ8" s="3">
         <v>6.6203077895132303</v>
       </c>
-      <c r="AK8" s="16">
+      <c r="AK8" s="3">
         <v>6.7193583595790898</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="3">
         <v>4.0962909905702798</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="3">
         <v>3.1396384464467402</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="3">
         <v>2.5437858840187499</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="3">
         <v>2.6917017688927798</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="3">
         <v>2.2111517229434701</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="3">
         <v>2.2389941691922699</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="3">
         <v>5.9124087583152001</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="3">
         <v>3.7319478548110898</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="3">
         <v>3.75490506888347</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="3">
         <v>6.1798362438916499</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="3">
         <v>6.2203090285936504</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="3">
         <v>7.0376449940964898</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="3">
         <v>6.7370421625697601</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="3">
         <v>7.6884031233802297</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="3">
         <v>7.3006559881340101</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="3">
         <v>7.6140918435785201</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="3">
         <v>7.6140918435785201</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="3">
         <v>7.9365245662502897</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="3">
         <v>7.9365245662502897</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="3">
         <v>8.6625549589596602</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="3">
         <v>10.177549050078399</v>
       </c>
-      <c r="Z9" s="16">
+      <c r="Z9" s="3">
         <v>5.6314248558678903</v>
       </c>
-      <c r="AA9" s="16">
+      <c r="AA9" s="3">
         <v>5.6575719383740797</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="3">
         <v>5.4112335320905602</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="3">
         <v>6.0597670477459804</v>
       </c>
-      <c r="AD9" s="16">
+      <c r="AD9" s="3">
         <v>5.19525766355593</v>
       </c>
-      <c r="AE9" s="16">
+      <c r="AE9" s="3">
         <v>4.2964935899028802</v>
       </c>
-      <c r="AF9" s="16">
+      <c r="AF9" s="3">
         <v>6.2602056642585104</v>
       </c>
-      <c r="AG9" s="16">
+      <c r="AG9" s="3">
         <v>4.7035138024766896</v>
       </c>
-      <c r="AH9" s="16">
+      <c r="AH9" s="3">
         <v>7.2331950131500404</v>
       </c>
-      <c r="AI9" s="16">
+      <c r="AI9" s="3">
         <v>4.6460581123106701</v>
       </c>
-      <c r="AJ9" s="16">
+      <c r="AJ9" s="3">
         <v>7.1465308498912599</v>
       </c>
-      <c r="AK9" s="16">
+      <c r="AK9" s="3">
         <v>7.23103702421938</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="3">
         <v>5.5101326821930297</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="3">
         <v>5.1961310004679602</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="3">
         <v>5.0188224993709296</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="3">
         <v>3.8234582227371599</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="3">
         <v>4.9557650944296698</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="3">
         <v>5.3459042960504197</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="3">
         <v>6.0241688443686501</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="3">
         <v>5.7742165228724396</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="3">
         <v>5.9072634495188501</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="3">
         <v>6.1370005797703104</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="3">
         <v>5.9356647513274998</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="3">
         <v>5.9722447666407996</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="3">
         <v>6.8138886104425804</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="3">
         <v>7.7163961763953104</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="3">
         <v>9.0503802251165606</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="3">
         <v>8.8987747200662195</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="3">
         <v>8.8987747200662195</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="3">
         <v>9.5441256669052397</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="3">
         <v>9.5441256669052397</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="3">
         <v>9.1584273165079306</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="3">
         <v>10.5870421760785</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="3">
         <v>4.9165133086772403</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AA10" s="3">
         <v>5.3257858927438102</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AB10" s="3">
         <v>4.9718818403243601</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AC10" s="3">
         <v>8.5598621165034494</v>
       </c>
-      <c r="AD10" s="16">
+      <c r="AD10" s="3">
         <v>8.6304997016804101</v>
       </c>
-      <c r="AE10" s="16">
+      <c r="AE10" s="3">
         <v>7.7676153048438596</v>
       </c>
-      <c r="AF10" s="16">
+      <c r="AF10" s="3">
         <v>9.2235204075002102</v>
       </c>
-      <c r="AG10" s="16">
+      <c r="AG10" s="3">
         <v>8.1264063567814109</v>
       </c>
-      <c r="AH10" s="16">
+      <c r="AH10" s="3">
         <v>9.9171064836896594</v>
       </c>
-      <c r="AI10" s="16">
+      <c r="AI10" s="3">
         <v>7.5737984112665302</v>
       </c>
-      <c r="AJ10" s="16">
+      <c r="AJ10" s="3">
         <v>8.5225459006267794</v>
       </c>
-      <c r="AK10" s="16">
+      <c r="AK10" s="3">
         <v>9.0355595315557906</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="3">
         <v>3.7470527925469499</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="3">
         <v>3.39090587405973</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="3">
         <v>2.90517134870497</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="3">
         <v>4.1136099124368704</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="3">
         <v>3.1575566505389201</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="3">
         <v>2.6898479756774099</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="3">
         <v>7.5194901582681499</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="3">
         <v>5.0760097590327797</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="3">
         <v>4.00481999778461</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="3">
         <v>6.2325637540988303</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="3">
         <v>6.3876779155934598</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="3">
         <v>8.3280919560078797</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="3">
         <v>6.3053325855853402</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="3">
         <v>6.9976140174023502</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="3">
         <v>5.8724428648831903</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="3">
         <v>6.1908484782720796</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="3">
         <v>6.1908484782720796</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="3">
         <v>6.5150462718069004</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="3">
         <v>6.5150462718069004</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="3">
         <v>7.7536784415816298</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="3">
         <v>8.9765432229115092</v>
       </c>
-      <c r="Z11" s="16">
+      <c r="Z11" s="3">
         <v>6.8170927774946799</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AA11" s="3">
         <v>6.2767999903950704</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AB11" s="3">
         <v>6.4313646437950798</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AC11" s="3">
         <v>5.2068791380492101</v>
       </c>
-      <c r="AD11" s="16">
+      <c r="AD11" s="3">
         <v>2.3266071607954002</v>
       </c>
-      <c r="AE11" s="16">
+      <c r="AE11" s="3">
         <v>1.39387158291683</v>
       </c>
-      <c r="AF11" s="16">
+      <c r="AF11" s="3">
         <v>4.0046323443487397</v>
       </c>
-      <c r="AG11" s="16">
+      <c r="AG11" s="3">
         <v>1.52034781631384</v>
       </c>
-      <c r="AH11" s="16">
+      <c r="AH11" s="3">
         <v>4.7381814278928598</v>
       </c>
-      <c r="AI11" s="16">
+      <c r="AI11" s="3">
         <v>1.9912967456619699</v>
       </c>
-      <c r="AJ11" s="16">
+      <c r="AJ11" s="3">
         <v>5.4226916519444304</v>
       </c>
-      <c r="AK11" s="16">
+      <c r="AK11" s="3">
         <v>5.3955746448251301</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="13" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="3">
         <v>5.6064712164726398</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="3">
         <v>5.6075313186894702</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="3">
         <v>5.0203334839773497</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="3">
         <v>4.3000190936003904</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="3">
         <v>5.2024506470165397</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="3">
         <v>5.3410074343816198</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="3">
         <v>8.2792187464978202</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="3">
         <v>6.9227208418634101</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="3">
         <v>6.7249697148366501</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="3">
         <v>7.3584349052106299</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="3">
         <v>7.1296578706979998</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="3">
         <v>8.4905746319987703</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="3">
         <v>7.5246639651268001</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="3">
         <v>8.3382860511330197</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="3">
         <v>9.8690179780318594</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="3">
         <v>9.6484449464407191</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="3">
         <v>9.6484449464407191</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="3">
         <v>10.460155486873401</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="3">
         <v>10.460155486873401</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="3">
         <v>10.362772398170501</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="3">
         <v>11.6602356667285</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="3">
         <v>7.0043360151909404</v>
       </c>
-      <c r="AA12" s="17">
+      <c r="AA12" s="3">
         <v>6.8965620491247801</v>
       </c>
-      <c r="AB12" s="17">
+      <c r="AB12" s="3">
         <v>6.8634736534567198</v>
       </c>
-      <c r="AC12" s="17">
+      <c r="AC12" s="3">
         <v>9.36076795672267</v>
       </c>
-      <c r="AD12" s="17">
+      <c r="AD12" s="3">
         <v>8.1612680668223092</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AE12" s="3">
         <v>7.1243104427927397</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AF12" s="3">
         <v>9.31855111727047</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AG12" s="3">
         <v>7.3816217806462197</v>
       </c>
-      <c r="AH12" s="17">
+      <c r="AH12" s="3">
         <v>9.9990906709457992</v>
       </c>
-      <c r="AI12" s="17">
+      <c r="AI12" s="3">
         <v>6.91517237542792</v>
       </c>
-      <c r="AJ12" s="17">
+      <c r="AJ12" s="3">
         <v>7.2525582004978197</v>
       </c>
-      <c r="AK12" s="17">
+      <c r="AK12" s="3">
         <v>7.0771830584005002</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="3">
         <v>3.7051625551232599</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="3">
         <v>2.0924539552169601</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="3">
         <v>2.4026639677806099</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="3">
         <v>2.6853455434476698</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="3">
         <v>1.61235459256168</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="3">
         <v>1.9408927127720399</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="3">
         <v>3.0845215493714599</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="3">
         <v>1.0880887876080301</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="3">
         <v>1.3083585605953401</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="3">
         <v>4.6569899654496396</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="3">
         <v>4.9203481720997901</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="3">
         <v>4.5873005805393703</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="3">
         <v>5.7415249831969399</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="3">
         <v>6.71779004527649</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="3">
         <v>5.0410063772820903</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="3">
         <v>5.7091784304987501</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="3">
         <v>5.7091784304987501</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="3">
         <v>5.5974630574045898</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="3">
         <v>5.5974630574045898</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="3">
         <v>6.5500010624798604</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Y13" s="3">
         <v>8.2295785794132197</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="3">
         <v>3.58837865674248</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AA13" s="3">
         <v>3.9732905289595402</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AB13" s="3">
         <v>3.41142703265646</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AC13" s="3">
         <v>3.5672947634576602</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AD13" s="3">
         <v>4.5677885516695502</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AE13" s="3">
         <v>4.1423445640761702</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AF13" s="3">
         <v>4.6932427833892598</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AG13" s="3">
         <v>4.6167849781895498</v>
       </c>
-      <c r="AH13" s="18">
+      <c r="AH13" s="3">
         <v>5.6990296217794301</v>
       </c>
-      <c r="AI13" s="18">
+      <c r="AI13" s="3">
         <v>4.5497213826148597</v>
       </c>
-      <c r="AJ13" s="18">
+      <c r="AJ13" s="3">
         <v>7.8864246827423399</v>
       </c>
-      <c r="AK13" s="18">
+      <c r="AK13" s="3">
         <v>8.6201457085161408</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="3">
         <v>4.4415935620826996</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="3">
         <v>2.9590504282246899</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="3">
         <v>2.7072525074864302</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="3">
         <v>3.4859656224062099</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="3">
         <v>1.92145792902001</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="3">
         <v>1.79175662610159</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="3">
         <v>5.0352796082977802</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="3">
         <v>2.3025344511875701</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="3">
         <v>2.68298113323163</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="3">
         <v>6.2645450076196498</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="3">
         <v>6.4794816833727102</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="3">
         <v>6.7612835721906501</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="3">
         <v>7.0319192206712398</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="3">
         <v>7.9714369684393196</v>
       </c>
-      <c r="S14" s="18">
+      <c r="S14" s="3">
         <v>6.1858876418998996</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="3">
         <v>6.9331501123228403</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="3">
         <v>6.9331501123228403</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="3">
         <v>6.8106575341097599</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="3">
         <v>6.8106575341097599</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="3">
         <v>8.1249798388119494</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="Y14" s="3">
         <v>9.7123237658452002</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="3">
         <v>5.6239781328276797</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AA14" s="3">
         <v>5.7636386415660503</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AB14" s="3">
         <v>5.3918164867952196</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AC14" s="3">
         <v>4.26388269241302</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD14" s="3">
         <v>4.0351533521940599</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AE14" s="3">
         <v>3.4776511090373199</v>
       </c>
-      <c r="AF14" s="18">
+      <c r="AF14" s="3">
         <v>4.8146883917828802</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AG14" s="3">
         <v>3.9753158747356299</v>
       </c>
-      <c r="AH14" s="18">
+      <c r="AH14" s="3">
         <v>6.0133047281840497</v>
       </c>
-      <c r="AI14" s="18">
+      <c r="AI14" s="3">
         <v>4.3105660419109997</v>
       </c>
-      <c r="AJ14" s="18">
+      <c r="AJ14" s="3">
         <v>7.9141290184434698</v>
       </c>
-      <c r="AK14" s="18">
+      <c r="AK14" s="3">
         <v>8.1747591034731695</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="3">
         <v>5.7379972067762699</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="3">
         <v>6.7779834866925697</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="3">
         <v>6.8194935521668603</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="3">
         <v>5.6844136347751899</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="3">
         <v>7.3946127757504598</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="3">
         <v>7.69302877409093</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="3">
         <v>8.6633047720303402</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="3">
         <v>8.9503417436275807</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="3">
         <v>7.9125641948198098</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="3">
         <v>5.0694038752924504</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="3">
         <v>4.5532516633435103</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="3">
         <v>6.6604402981655397</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="3">
         <v>4.7626102067425196</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="3">
         <v>5.0310661248922797</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="3">
         <v>9.0694018393417402</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="3">
         <v>7.99993911878971</v>
       </c>
-      <c r="U15" s="18">
+      <c r="U15" s="3">
         <v>7.99993911878971</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="3">
         <v>9.3640045300075805</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="3">
         <v>9.3640045300075805</v>
       </c>
-      <c r="X15" s="18">
+      <c r="X15" s="3">
         <v>7.6510781491709698</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="Y15" s="3">
         <v>8.3390453985148607</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="Z15" s="3">
         <v>5.5528165328369203</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AA15" s="3">
         <v>5.0374954771061802</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AB15" s="3">
         <v>5.5309688702360003</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AC15" s="3">
         <v>10.330449001437</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="3">
         <v>9.8606974689061193</v>
       </c>
-      <c r="AE15" s="18">
+      <c r="AE15" s="3">
         <v>9.1057394464611097</v>
       </c>
-      <c r="AF15" s="18">
+      <c r="AF15" s="3">
         <v>10.206057218603201</v>
       </c>
-      <c r="AG15" s="18">
+      <c r="AG15" s="3">
         <v>9.2191085594870401</v>
       </c>
-      <c r="AH15" s="18">
+      <c r="AH15" s="3">
         <v>10.1881900118616</v>
       </c>
-      <c r="AI15" s="18">
+      <c r="AI15" s="3">
         <v>8.1622179359856002</v>
       </c>
-      <c r="AJ15" s="18">
+      <c r="AJ15" s="3">
         <v>6.7114509924600902</v>
       </c>
-      <c r="AK15" s="18">
+      <c r="AK15" s="3">
         <v>7.8768591091514804</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="3">
         <v>7.6955924058547902</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="3">
         <v>8.7483708477367905</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="3">
         <v>8.8365217875656406</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="3">
         <v>7.6947569691980302</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="3">
         <v>9.3930148758829208</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="3">
         <v>9.7054127127291299</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="3">
         <v>10.1868435895634</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="3">
         <v>10.8014412778434</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="3">
         <v>9.8047089843558197</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="3">
         <v>6.6596395221998401</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="3">
         <v>6.1541466560714104</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="3">
         <v>7.8835998367073703</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="3">
         <v>6.3007075657365101</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="3">
         <v>6.3384079648442198</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="3">
         <v>10.6540619877075</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="3">
         <v>9.4741217672604794</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="3">
         <v>9.4741217672604794</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="3">
         <v>10.8662053696877</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="3">
         <v>10.8662053696877</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="3">
         <v>8.8352162886619592</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="Y16" s="3">
         <v>9.2610541446528192</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="Z16" s="3">
         <v>7.10347721655579</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AA16" s="3">
         <v>6.6773847004855202</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AB16" s="3">
         <v>7.1499203101214901</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AC16" s="3">
         <v>12.1201448606034</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AD16" s="3">
         <v>11.8008844621727</v>
       </c>
-      <c r="AE16" s="18">
+      <c r="AE16" s="3">
         <v>11.0866452833033</v>
       </c>
-      <c r="AF16" s="18">
+      <c r="AF16" s="3">
         <v>12.0403263772071</v>
       </c>
-      <c r="AG16" s="18">
+      <c r="AG16" s="3">
         <v>11.182127295393</v>
       </c>
-      <c r="AH16" s="18">
+      <c r="AH16" s="3">
         <v>11.922181011073301</v>
       </c>
-      <c r="AI16" s="18">
+      <c r="AI16" s="3">
         <v>10.0994508852663</v>
       </c>
-      <c r="AJ16" s="18">
+      <c r="AJ16" s="3">
         <v>8.2793936052966206</v>
       </c>
-      <c r="AK16" s="18">
+      <c r="AK16" s="3">
         <v>9.4741226218653694</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="3">
         <v>5.0293737710561004</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="3">
         <v>5.9250984264688498</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="3">
         <v>6.3510357179297401</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="3">
         <v>5.5375351217496398</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="3">
         <v>6.8422173810185702</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="3">
         <v>7.1482910304026701</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="3">
         <v>7.0079747091675699</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="3">
         <v>7.8601979741299299</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="3">
         <v>6.5911005120891097</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="3">
         <v>2.8304058648301198</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="3">
         <v>2.4761696143862202</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="3">
         <v>4.3915590910271902</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="3">
         <v>2.8915451234179499</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="3">
         <v>3.0206587134209002</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="3">
         <v>6.5346190884698601</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="3">
         <v>5.3949502160444496</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="3">
         <v>5.3949502160444496</v>
       </c>
-      <c r="V17" s="18">
+      <c r="V17" s="3">
         <v>6.6427436930366701</v>
       </c>
-      <c r="W17" s="18">
+      <c r="W17" s="3">
         <v>6.6427436930366701</v>
       </c>
-      <c r="X17" s="18">
+      <c r="X17" s="3">
         <v>4.5082226615696399</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="Y17" s="3">
         <v>5.1758224661668102</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="Z17" s="3">
         <v>3.71653219337378</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AA17" s="3">
         <v>3.0699474164726799</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AB17" s="3">
         <v>3.7121258306386302</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AC17" s="3">
         <v>8.3579075256590993</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AD17" s="3">
         <v>8.6765219468727999</v>
       </c>
-      <c r="AE17" s="18">
+      <c r="AE17" s="3">
         <v>8.2511762028856293</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AF17" s="3">
         <v>8.4148171839488306</v>
       </c>
-      <c r="AG17" s="18">
+      <c r="AG17" s="3">
         <v>8.3567794557605293</v>
       </c>
-      <c r="AH17" s="18">
+      <c r="AH17" s="3">
         <v>8.1851747899893894</v>
       </c>
-      <c r="AI17" s="18">
+      <c r="AI17" s="3">
         <v>7.3376321626496797</v>
       </c>
-      <c r="AJ17" s="18">
+      <c r="AJ17" s="3">
         <v>6.9746255486713498</v>
       </c>
-      <c r="AK17" s="18">
+      <c r="AK17" s="3">
         <v>8.6552865087597599</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="3">
         <v>5.9873777725327999</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="3">
         <v>7.3108459012577001</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="3">
         <v>7.5479328050365604</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="3">
         <v>7.8508088371871301</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="3">
         <v>8.3168919352481794</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="3">
         <v>8.2244144732210493</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="3">
         <v>10.563610855192501</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="3">
         <v>9.9929666536166906</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="3">
         <v>8.0391231486043999</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="3">
         <v>5.6624114203848901</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="3">
         <v>5.6758041847685599</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="3">
         <v>9.0800482536743594</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="3">
         <v>4.4676540146429398</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="3">
         <v>3.7330463233821098</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="3">
         <v>5.8782321015634897</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="3">
         <v>4.4325983054043299</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="3">
         <v>4.4325983054043299</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="3">
         <v>5.8954376103298598</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="3">
         <v>5.8954376103298598</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="3">
         <v>4.8484974713511804</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="Y18" s="3">
         <v>4.2533828109345304</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="Z18" s="3">
         <v>7.9672996794556497</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AA18" s="3">
         <v>6.7144688728530104</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AB18" s="3">
         <v>7.6165546669488302</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AC18" s="3">
         <v>8.6149459052795301</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AD18" s="3">
         <v>7.1033212445593703</v>
       </c>
-      <c r="AE18" s="18">
+      <c r="AE18" s="3">
         <v>7.1092222260764899</v>
       </c>
-      <c r="AF18" s="18">
+      <c r="AF18" s="3">
         <v>6.9459477609072398</v>
       </c>
-      <c r="AG18" s="18">
+      <c r="AG18" s="3">
         <v>6.8024025126001897</v>
       </c>
-      <c r="AH18" s="18">
+      <c r="AH18" s="3">
         <v>5.8586908626118896</v>
       </c>
-      <c r="AI18" s="18">
+      <c r="AI18" s="3">
         <v>5.9347190523408901</v>
       </c>
-      <c r="AJ18" s="18">
+      <c r="AJ18" s="3">
         <v>4.5168481133020997</v>
       </c>
-      <c r="AK18" s="18">
+      <c r="AK18" s="3">
         <v>6.1941874211211898</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="3">
         <v>4.2585819132067604</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="3">
         <v>5.8586103314739102</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="3">
         <v>5.9358470189915904</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="3">
         <v>5.9568710261095097</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="3">
         <v>6.8125822738707296</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="3">
         <v>6.7739892389381602</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="3">
         <v>9.5612310607841202</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="3">
         <v>8.8559459243305696</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="3">
         <v>6.9754377225908204</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="3">
         <v>4.4169827498020497</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="3">
         <v>4.2319506249858598</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="3">
         <v>8.0776055657358903</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="3">
         <v>2.9895353182325399</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="3">
         <v>2.5093058595725499</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="3">
         <v>6.16127941508344</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="3">
         <v>4.7441903200454396</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="3">
         <v>4.7441903200454396</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="3">
         <v>6.4065848937378096</v>
       </c>
-      <c r="W19" s="18">
+      <c r="W19" s="3">
         <v>6.4065848937378096</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="3">
         <v>5.2328810907997498</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="Y19" s="3">
         <v>5.3350459995899397</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="Z19" s="3">
         <v>6.6484299612732602</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AA19" s="3">
         <v>5.3497248062263996</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AB19" s="3">
         <v>6.2921195390447204</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AC19" s="3">
         <v>8.3769313926470605</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AD19" s="3">
         <v>6.6385334628533803</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AE19" s="3">
         <v>6.2465536733104896</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AF19" s="3">
         <v>6.9496680226145697</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AG19" s="3">
         <v>6.0279002491296199</v>
       </c>
-      <c r="AH19" s="18">
+      <c r="AH19" s="3">
         <v>6.2892565544316499</v>
       </c>
-      <c r="AI19" s="18">
+      <c r="AI19" s="3">
         <v>4.93028348562878</v>
       </c>
-      <c r="AJ19" s="18">
+      <c r="AJ19" s="3">
         <v>2.5027507303811301</v>
       </c>
-      <c r="AK19" s="18">
+      <c r="AK19" s="3">
         <v>4.4098191282487296</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="3">
         <v>1.23380382901639</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="3">
         <v>1.02163426682555</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="3">
         <v>1.2020320702751599</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="3">
         <v>2.1425113803759102</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="3">
         <v>1.8668865891692401</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="3">
         <v>1.7792234993816001</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="3">
         <v>5.5068020402285303</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="3">
         <v>3.9265742280401499</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="3">
         <v>2.1440839152475402</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="3">
         <v>3.3566415543984398</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="3">
         <v>3.5556978250331799</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20" s="3">
         <v>5.6037693541685396</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="3">
         <v>3.7203558656062499</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="3">
         <v>4.5711176175873902</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="3">
         <v>3.9866976356597799</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="3">
         <v>4.0001764469746401</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="3">
         <v>4.0001764469746401</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="3">
         <v>4.6131235115145701</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="3">
         <v>4.6131235115145701</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="3">
         <v>5.2405113901600204</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="3">
         <v>6.6404616284461797</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="3">
         <v>4.0349479216345996</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AA20" s="3">
         <v>3.3784423980621301</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AB20" s="3">
         <v>3.62013829938696</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AC20" s="3">
         <v>4.1959520394030196</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AD20" s="3">
         <v>3.0376461160756998</v>
       </c>
-      <c r="AE20" s="18">
+      <c r="AE20" s="3">
         <v>2.3689277489190501</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AF20" s="3">
         <v>3.60529033499874</v>
       </c>
-      <c r="AG20" s="18">
+      <c r="AG20" s="3">
         <v>2.6124769945603701</v>
       </c>
-      <c r="AH20" s="18">
+      <c r="AH20" s="3">
         <v>4.0880747266250896</v>
       </c>
-      <c r="AI20" s="18">
+      <c r="AI20" s="3">
         <v>1.9093883778531699</v>
       </c>
-      <c r="AJ20" s="18">
+      <c r="AJ20" s="3">
         <v>4.9933853172031899</v>
       </c>
-      <c r="AK20" s="18">
+      <c r="AK20" s="3">
         <v>5.8952755240900698</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="3">
         <v>0.747740987401463</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="3">
         <v>1.1537776102970101</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="3">
         <v>1.38044823811418</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="3">
         <v>1.98347078042702</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="3">
         <v>2.1323953972070901</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="3">
         <v>2.1319561726704199</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="3">
         <v>5.5528863977647296</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="3">
         <v>4.1936513283307102</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="3">
         <v>2.4070202828705098</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="3">
         <v>2.93350281377819</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="3">
         <v>3.0934081269764002</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="3">
         <v>5.3910350576862998</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="3">
         <v>3.2504945575481501</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="3">
         <v>4.1240292458668701</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="3">
         <v>4.05515840687137</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21" s="3">
         <v>3.8785403344619498</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="3">
         <v>3.8785403344619498</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="3">
         <v>4.6526488432970696</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="3">
         <v>4.6526488432970696</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="3">
         <v>5.0070597971124204</v>
       </c>
-      <c r="Y21" s="18">
+      <c r="Y21" s="3">
         <v>6.3853320808530398</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="Z21" s="3">
         <v>3.7623921279575501</v>
       </c>
-      <c r="AA21" s="18">
+      <c r="AA21" s="3">
         <v>3.0010716923517098</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AB21" s="3">
         <v>3.3392647003813698</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AC21" s="3">
         <v>4.5371053750634101</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="3">
         <v>3.4857861831469399</v>
       </c>
-      <c r="AE21" s="18">
+      <c r="AE21" s="3">
         <v>2.8271893764690401</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AF21" s="3">
         <v>3.9730770038557699</v>
       </c>
-      <c r="AG21" s="18">
+      <c r="AG21" s="3">
         <v>3.0256683311068402</v>
       </c>
-      <c r="AH21" s="18">
+      <c r="AH21" s="3">
         <v>4.3346785164290802</v>
       </c>
-      <c r="AI21" s="18">
+      <c r="AI21" s="3">
         <v>2.18713493050151</v>
       </c>
-      <c r="AJ21" s="18">
+      <c r="AJ21" s="3">
         <v>4.7589688976551203</v>
       </c>
-      <c r="AK21" s="18">
+      <c r="AK21" s="3">
         <v>5.7742782009546501</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="3">
         <v>0.580343931142147</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="3">
         <v>1.9740149355149399</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="3">
         <v>1.88452375065485</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="3">
         <v>1.77081605244596</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="3">
         <v>2.75905576584627</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="3">
         <v>2.8299972363718</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="3">
         <v>6.1927152757411497</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="3">
         <v>5.0167656621520402</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="3">
         <v>3.4338883431302398</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="3">
         <v>2.9367295430143399</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="3">
         <v>2.8759101205113802</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22" s="3">
         <v>5.6735252532412002</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="3">
         <v>2.9318701040687398</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="3">
         <v>3.8011158015384998</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22" s="3">
         <v>5.0839654550637396</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="3">
         <v>4.58906226062006</v>
       </c>
-      <c r="U22" s="18">
+      <c r="U22" s="3">
         <v>4.58906226062006</v>
       </c>
-      <c r="V22" s="18">
+      <c r="V22" s="3">
         <v>5.6329590724580898</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22" s="3">
         <v>5.6329590724580898</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="3">
         <v>5.48224616750701</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="Y22" s="3">
         <v>6.7262328559178304</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="Z22" s="3">
         <v>3.91711345313812</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AA22" s="3">
         <v>3.0366990426221498</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AB22" s="3">
         <v>3.5247162342257399</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AC22" s="3">
         <v>5.7594199467280101</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="3">
         <v>4.5161435124289202</v>
       </c>
-      <c r="AE22" s="18">
+      <c r="AE22" s="3">
         <v>3.7223971598806802</v>
       </c>
-      <c r="AF22" s="18">
+      <c r="AF22" s="3">
         <v>5.1634612413808201</v>
       </c>
-      <c r="AG22" s="18">
+      <c r="AG22" s="3">
         <v>3.8592093278720401</v>
       </c>
-      <c r="AH22" s="18">
+      <c r="AH22" s="3">
         <v>5.4081178915635899</v>
       </c>
-      <c r="AI22" s="18">
+      <c r="AI22" s="3">
         <v>2.8797661414075399</v>
       </c>
-      <c r="AJ22" s="18">
+      <c r="AJ22" s="3">
         <v>4.1127532986553996</v>
       </c>
-      <c r="AK22" s="18">
+      <c r="AK22" s="3">
         <v>5.1437042633412897</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="3">
         <v>0.97720514363942801</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="3">
         <v>2.3847133567911398</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="3">
         <v>2.2048927044451498</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="3">
         <v>2.0440263777176599</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="3">
         <v>3.0966776362640802</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="3">
         <v>3.14273380796089</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="3">
         <v>6.6125512755604996</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="3">
         <v>5.4174773186207803</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="3">
         <v>3.8623226324835098</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="3">
         <v>3.1913102728072702</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="3">
         <v>3.0729688254925902</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="3">
         <v>6.03059291511852</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="3">
         <v>3.0024493160736099</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="3">
         <v>3.8091726699764301</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23" s="3">
         <v>5.4293807097363898</v>
       </c>
-      <c r="T23" s="18">
+      <c r="T23" s="3">
         <v>4.8534737873302198</v>
       </c>
-      <c r="U23" s="18">
+      <c r="U23" s="3">
         <v>4.8534737873302198</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23" s="3">
         <v>5.9699363926461997</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="3">
         <v>5.9699363926461997</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23" s="3">
         <v>5.7339078351514399</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="Y23" s="3">
         <v>6.9010249134067099</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="Z23" s="3">
         <v>4.2650267818881504</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AA23" s="3">
         <v>3.3501641504120601</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AB23" s="3">
         <v>3.8827176913238102</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AC23" s="3">
         <v>6.1690876670823398</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AD23" s="3">
         <v>4.7379027204840698</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AE23" s="3">
         <v>3.9106396086855701</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AF23" s="3">
         <v>5.4696446061090898</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AG23" s="3">
         <v>4.00931728428972</v>
       </c>
-      <c r="AH23" s="18">
+      <c r="AH23" s="3">
         <v>5.6674005430678003</v>
       </c>
-      <c r="AI23" s="18">
+      <c r="AI23" s="3">
         <v>2.9960466594957902</v>
       </c>
-      <c r="AJ23" s="18">
+      <c r="AJ23" s="3">
         <v>3.7599744849601899</v>
       </c>
-      <c r="AK23" s="18">
+      <c r="AK23" s="3">
         <v>4.76655455584382</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="3">
         <v>0.91148258522558001</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="3">
         <v>2.0911438875204</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="3">
         <v>1.87062280793976</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="3">
         <v>1.6898415487477401</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="3">
         <v>2.74977740785986</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="3">
         <v>2.8136622166646799</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="3">
         <v>6.3407030607010499</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="3">
         <v>5.0863179254757203</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="3">
         <v>3.5906428465264</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="3">
         <v>3.2515441642074201</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="3">
         <v>3.1618111342489801</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="3">
         <v>5.8904556797615504</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="3">
         <v>3.22386950653424</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="3">
         <v>4.0772778151363998</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24" s="3">
         <v>5.4174786287531704</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="3">
         <v>4.9470881638330599</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="3">
         <v>4.9470881638330599</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="3">
         <v>5.9753234997738804</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="3">
         <v>5.9753234997738804</v>
       </c>
-      <c r="X24" s="18">
+      <c r="X24" s="3">
         <v>5.8439132268577101</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="Y24" s="3">
         <v>7.0779033799306603</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="Z24" s="3">
         <v>4.1227616895422896</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AA24" s="3">
         <v>3.2989442185569402</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AB24" s="3">
         <v>3.7454347700340498</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AC24" s="3">
         <v>5.9761016550988897</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AD24" s="3">
         <v>4.6354431495418602</v>
       </c>
-      <c r="AE24" s="18">
+      <c r="AE24" s="3">
         <v>3.7842507081814101</v>
       </c>
-      <c r="AF24" s="18">
+      <c r="AF24" s="3">
         <v>5.3829086429577799</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AG24" s="3">
         <v>3.9274740503868899</v>
       </c>
-      <c r="AH24" s="18">
+      <c r="AH24" s="3">
         <v>5.6694494475122399</v>
       </c>
-      <c r="AI24" s="18">
+      <c r="AI24" s="3">
         <v>2.9785820448429901</v>
       </c>
-      <c r="AJ24" s="18">
+      <c r="AJ24" s="3">
         <v>4.0874075934425003</v>
       </c>
-      <c r="AK24" s="18">
+      <c r="AK24" s="3">
         <v>5.0077380712648001</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="3">
         <v>2.7721263747457399</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="3">
         <v>2.80173341543105</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="3">
         <v>2.5101358175189499</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="3">
         <v>1.30040806550296</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="3">
         <v>2.8559683125466</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="3">
         <v>3.1553167502692601</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="3">
         <v>5.7289885924860497</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="3">
         <v>4.7255682846854503</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="3">
         <v>4.0069450017351098</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="3">
         <v>4.1886813957433198</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="3">
         <v>4.0277379556642199</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="3">
         <v>5.53363549194545</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="3">
         <v>4.6189366763499802</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25" s="3">
         <v>5.5559189896507002</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25" s="3">
         <v>6.8395969745634702</v>
       </c>
-      <c r="T25" s="18">
+      <c r="T25" s="3">
         <v>6.5797506321044104</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="3">
         <v>6.5797506321044104</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V25" s="3">
         <v>7.3890981437762404</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25" s="3">
         <v>7.3890981437762404</v>
       </c>
-      <c r="X25" s="18">
+      <c r="X25" s="3">
         <v>7.1829561747304904</v>
       </c>
-      <c r="Y25" s="18">
+      <c r="Y25" s="3">
         <v>8.5677403876384002</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z25" s="3">
         <v>3.8926437320095402</v>
       </c>
-      <c r="AA25" s="18">
+      <c r="AA25" s="3">
         <v>3.6801686680034602</v>
       </c>
-      <c r="AB25" s="18">
+      <c r="AB25" s="3">
         <v>3.6892864367908702</v>
       </c>
-      <c r="AC25" s="18">
+      <c r="AC25" s="3">
         <v>6.7472348193240101</v>
       </c>
-      <c r="AD25" s="18">
+      <c r="AD25" s="3">
         <v>6.1095304331539104</v>
       </c>
-      <c r="AE25" s="18">
+      <c r="AE25" s="3">
         <v>5.2054664696056996</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AF25" s="3">
         <v>6.8327679560524404</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AG25" s="3">
         <v>5.4966027576904297</v>
       </c>
-      <c r="AH25" s="18">
+      <c r="AH25" s="3">
         <v>7.3926778057877298</v>
       </c>
-      <c r="AI25" s="18">
+      <c r="AI25" s="3">
         <v>4.8133684431168904</v>
       </c>
-      <c r="AJ25" s="18">
+      <c r="AJ25" s="3">
         <v>5.9163690774136999</v>
       </c>
-      <c r="AK25" s="18">
+      <c r="AK25" s="3">
         <v>6.5478549375351296</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="3">
         <v>5.4557202588531997</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="3">
         <v>5.3953322301719302</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="3">
         <v>5.4998583741226001</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="3">
         <v>4.1934238295345097</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="3">
         <v>5.54965723766857</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="3">
         <v>5.99812281220321</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="3">
         <v>5.54508468951982</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="3">
         <v>6.1663789879034701</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="3">
         <v>6.0073654445862799</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="3">
         <v>5.0746485912406296</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="3">
         <v>4.82918798290686</v>
       </c>
-      <c r="P26" s="18">
+      <c r="P26" s="3">
         <v>4.5135925713941596</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="3">
         <v>5.8541739753225004</v>
       </c>
-      <c r="R26" s="18">
+      <c r="R26" s="3">
         <v>6.6664261054201299</v>
       </c>
-      <c r="S26" s="18">
+      <c r="S26" s="3">
         <v>8.4531803297597907</v>
       </c>
-      <c r="T26" s="18">
+      <c r="T26" s="3">
         <v>8.1038576075272601</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="3">
         <v>8.1038576075272601</v>
       </c>
-      <c r="V26" s="18">
+      <c r="V26" s="3">
         <v>8.8339844782512102</v>
       </c>
-      <c r="W26" s="18">
+      <c r="W26" s="3">
         <v>8.8339844782512102</v>
       </c>
-      <c r="X26" s="18">
+      <c r="X26" s="3">
         <v>7.9574462476561401</v>
       </c>
-      <c r="Y26" s="18">
+      <c r="Y26" s="3">
         <v>9.2873194538853507</v>
       </c>
-      <c r="Z26" s="18">
+      <c r="Z26" s="3">
         <v>3.7296225949570401</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="AA26" s="3">
         <v>4.2361097974314399</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AB26" s="3">
         <v>3.9108038993435401</v>
       </c>
-      <c r="AC26" s="18">
+      <c r="AC26" s="3">
         <v>8.5155535319823201</v>
       </c>
-      <c r="AD26" s="18">
+      <c r="AD26" s="3">
         <v>9.0295810145576496</v>
       </c>
-      <c r="AE26" s="18">
+      <c r="AE26" s="3">
         <v>8.2933393837988607</v>
       </c>
-      <c r="AF26" s="18">
+      <c r="AF26" s="3">
         <v>9.2724745770765509</v>
       </c>
-      <c r="AG26" s="18">
+      <c r="AG26" s="3">
         <v>8.6184945535183903</v>
       </c>
-      <c r="AH26" s="18">
+      <c r="AH26" s="3">
         <v>9.7601515241917305</v>
       </c>
-      <c r="AI26" s="18">
+      <c r="AI26" s="3">
         <v>7.8996034334655896</v>
       </c>
-      <c r="AJ26" s="18">
+      <c r="AJ26" s="3">
         <v>8.5869065557343607</v>
       </c>
-      <c r="AK26" s="18">
+      <c r="AK26" s="3">
         <v>9.5187881025378704</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="3">
         <v>4.9987762771899904</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="3">
         <v>5.32356945478403</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="3">
         <v>5.3491474940736499</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="3">
         <v>4.0135740469808301</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="3">
         <v>5.6116811414710996</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="3">
         <v>6.0091454186758098</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="3">
         <v>6.4285346708865196</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="3">
         <v>6.7282510766663401</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="3">
         <v>6.2249633121093897</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="3">
         <v>4.7549701805629798</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="3">
         <v>4.4014188268262302</v>
       </c>
-      <c r="P27" s="18">
+      <c r="P27" s="3">
         <v>5.1413672498244196</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="3">
         <v>5.2167856161063204</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="3">
         <v>5.9549039500428398</v>
       </c>
-      <c r="S27" s="18">
+      <c r="S27" s="3">
         <v>8.4330209633099997</v>
       </c>
-      <c r="T27" s="18">
+      <c r="T27" s="3">
         <v>7.8668840465411796</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="3">
         <v>7.8668840465411796</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="3">
         <v>8.8248435151076503</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="3">
         <v>8.8248435151076503</v>
       </c>
-      <c r="X27" s="18">
+      <c r="X27" s="3">
         <v>7.7619155941032298</v>
       </c>
-      <c r="Y27" s="18">
+      <c r="Y27" s="3">
         <v>8.9586327423680103</v>
       </c>
-      <c r="Z27" s="18">
+      <c r="Z27" s="3">
         <v>4.0428525934531301</v>
       </c>
-      <c r="AA27" s="18">
+      <c r="AA27" s="3">
         <v>4.1347564977801703</v>
       </c>
-      <c r="AB27" s="18">
+      <c r="AB27" s="3">
         <v>4.1149879090779198</v>
       </c>
-      <c r="AC27" s="18">
+      <c r="AC27" s="3">
         <v>8.8262836826078601</v>
       </c>
-      <c r="AD27" s="18">
+      <c r="AD27" s="3">
         <v>8.8713091560955508</v>
       </c>
-      <c r="AE27" s="18">
+      <c r="AE27" s="3">
         <v>8.0760854603464001</v>
       </c>
-      <c r="AF27" s="18">
+      <c r="AF27" s="3">
         <v>9.2387571176824501</v>
       </c>
-      <c r="AG27" s="18">
+      <c r="AG27" s="3">
         <v>8.3401300884101506</v>
       </c>
-      <c r="AH27" s="18">
+      <c r="AH27" s="3">
         <v>9.6024020244858797</v>
       </c>
-      <c r="AI27" s="18">
+      <c r="AI27" s="3">
         <v>7.5048125389142202</v>
       </c>
-      <c r="AJ27" s="18">
+      <c r="AJ27" s="3">
         <v>7.58698281663332</v>
       </c>
-      <c r="AK27" s="18">
+      <c r="AK27" s="3">
         <v>8.5217766314928696</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="3">
         <v>1.6658148515804601</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="3">
         <v>2.1951887153897198</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="3">
         <v>2.7714736446791299</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="3">
         <v>2.9633565786597602</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="3">
         <v>3.2907762542596899</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="3">
         <v>3.3995364104085399</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="3">
         <v>5.2714963371537404</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="3">
         <v>4.66280867081539</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="3">
         <v>2.80289039576475</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="3">
         <v>1.6698830596223599</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="3">
         <v>2.01234633915112</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P28" s="3">
         <v>4.4877529156783096</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="3">
         <v>2.2429926423215898</v>
       </c>
-      <c r="R28" s="18">
+      <c r="R28" s="3">
         <v>3.0879271026900099</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S28" s="3">
         <v>3.0891734193324698</v>
       </c>
-      <c r="T28" s="18">
+      <c r="T28" s="3">
         <v>2.59839022079227</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="3">
         <v>2.59839022079227</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="3">
         <v>3.5723428081323698</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="3">
         <v>3.5723428081323698</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="3">
         <v>3.4708425536157899</v>
       </c>
-      <c r="Y28" s="18">
+      <c r="Y28" s="3">
         <v>4.9146255441362703</v>
       </c>
-      <c r="Z28" s="18">
+      <c r="Z28" s="3">
         <v>3.0370682268472899</v>
       </c>
-      <c r="AA28" s="18">
+      <c r="AA28" s="3">
         <v>2.0470935829758599</v>
       </c>
-      <c r="AB28" s="18">
+      <c r="AB28" s="3">
         <v>2.6061001212826498</v>
       </c>
-      <c r="AC28" s="18">
+      <c r="AC28" s="3">
         <v>4.4485204360272403</v>
       </c>
-      <c r="AD28" s="18">
+      <c r="AD28" s="3">
         <v>4.22498789278003</v>
       </c>
-      <c r="AE28" s="18">
+      <c r="AE28" s="3">
         <v>3.90033648079923</v>
       </c>
-      <c r="AF28" s="18">
+      <c r="AF28" s="3">
         <v>4.0694020608923198</v>
       </c>
-      <c r="AG28" s="18">
+      <c r="AG28" s="3">
         <v>4.0325821437155103</v>
       </c>
-      <c r="AH28" s="18">
+      <c r="AH28" s="3">
         <v>4.1047820166831999</v>
       </c>
-      <c r="AI28" s="18">
+      <c r="AI28" s="3">
         <v>3.18428610608255</v>
       </c>
-      <c r="AJ28" s="18">
+      <c r="AJ28" s="3">
         <v>5.2274431855601602</v>
       </c>
-      <c r="AK28" s="18">
+      <c r="AK28" s="3">
         <v>6.6201931890573702</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="3">
         <v>3.50628117603708</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="3">
         <v>4.4456503089454502</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="3">
         <v>4.6975410972228104</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="3">
         <v>5.3503529023188499</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="3">
         <v>5.3644411590377699</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="3">
         <v>5.2077943464562599</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="3">
         <v>8.0166243194038493</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="3">
         <v>6.97909296398569</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="3">
         <v>5.0340193407615104</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="3">
         <v>4.05924347415813</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="3">
         <v>4.2646756019926899</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="3">
         <v>7.2883559596243597</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="3">
         <v>3.4491804244228099</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29" s="3">
         <v>3.5046578065953198</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="3">
         <v>3.4402311443475302</v>
       </c>
-      <c r="T29" s="18">
+      <c r="T29" s="3">
         <v>2.53224488184448</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="3">
         <v>2.53224488184448</v>
       </c>
-      <c r="V29" s="18">
+      <c r="V29" s="3">
         <v>3.7665588718271099</v>
       </c>
-      <c r="W29" s="18">
+      <c r="W29" s="3">
         <v>3.7665588718271099</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="3">
         <v>3.9832338528414599</v>
       </c>
-      <c r="Y29" s="18">
+      <c r="Y29" s="3">
         <v>4.57645940476693</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="Z29" s="3">
         <v>6.0018917808885499</v>
       </c>
-      <c r="AA29" s="18">
+      <c r="AA29" s="3">
         <v>4.8832099527409403</v>
       </c>
-      <c r="AB29" s="18">
+      <c r="AB29" s="3">
         <v>5.58522897448929</v>
       </c>
-      <c r="AC29" s="18">
+      <c r="AC29" s="3">
         <v>5.6051160717427297</v>
       </c>
-      <c r="AD29" s="18">
+      <c r="AD29" s="3">
         <v>3.9237422372508401</v>
       </c>
-      <c r="AE29" s="18">
+      <c r="AE29" s="3">
         <v>3.94959331080651</v>
       </c>
-      <c r="AF29" s="18">
+      <c r="AF29" s="3">
         <v>3.86473061295592</v>
       </c>
-      <c r="AG29" s="18">
+      <c r="AG29" s="3">
         <v>3.6966442538189699</v>
       </c>
-      <c r="AH29" s="18">
+      <c r="AH29" s="3">
         <v>3.0590478464893498</v>
       </c>
-      <c r="AI29" s="18">
+      <c r="AI29" s="3">
         <v>2.88886496275645</v>
       </c>
-      <c r="AJ29" s="18">
+      <c r="AJ29" s="3">
         <v>4.0478907293711099</v>
       </c>
-      <c r="AK29" s="18">
+      <c r="AK29" s="3">
         <v>5.4875418004133696</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="3">
         <v>7.4174261276044602</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="3">
         <v>7.4661189707375497</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="3">
         <v>8.07873869181463</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="3">
         <v>8.7311542681607008</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="3">
         <v>8.2537422721667095</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="3">
         <v>8.1937473915866708</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="3">
         <v>8.3154472911715498</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="3">
         <v>8.3074793778011404</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="3">
         <v>6.9286334983625499</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="3">
         <v>6.4994787214609797</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="3">
         <v>6.9513755324788304</v>
       </c>
-      <c r="P30" s="18">
+      <c r="P30" s="3">
         <v>7.7607010107048202</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="3">
         <v>6.7310533799191496</v>
       </c>
-      <c r="R30" s="18">
+      <c r="R30" s="3">
         <v>6.6666452847745399</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S30" s="3">
         <v>3.1579652657475901</v>
       </c>
-      <c r="T30" s="18">
+      <c r="T30" s="3">
         <v>3.5095446282291198</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30" s="3">
         <v>3.5095446282291198</v>
       </c>
-      <c r="V30" s="18">
+      <c r="V30" s="3">
         <v>2.57952302872933</v>
       </c>
-      <c r="W30" s="18">
+      <c r="W30" s="3">
         <v>2.57952302872933</v>
       </c>
-      <c r="X30" s="18">
+      <c r="X30" s="3">
         <v>3.8632867328234299</v>
       </c>
-      <c r="Y30" s="18">
+      <c r="Y30" s="3">
         <v>3.9838093463623498</v>
       </c>
-      <c r="Z30" s="18">
+      <c r="Z30" s="3">
         <v>7.5933105533032998</v>
       </c>
-      <c r="AA30" s="18">
+      <c r="AA30" s="3">
         <v>7.0621671339843699</v>
       </c>
-      <c r="AB30" s="18">
+      <c r="AB30" s="3">
         <v>7.3568429128130601</v>
       </c>
-      <c r="AC30" s="18">
+      <c r="AC30" s="3">
         <v>5.5000428853076304</v>
       </c>
-      <c r="AD30" s="18">
+      <c r="AD30" s="3">
         <v>6.4885825377685196</v>
       </c>
-      <c r="AE30" s="18">
+      <c r="AE30" s="3">
         <v>7.1921021762516597</v>
       </c>
-      <c r="AF30" s="18">
+      <c r="AF30" s="3">
         <v>4.9244729941124499</v>
       </c>
-      <c r="AG30" s="18">
+      <c r="AG30" s="3">
         <v>7.1053760825416896</v>
       </c>
-      <c r="AH30" s="18">
+      <c r="AH30" s="3">
         <v>3.9672782484442402</v>
       </c>
-      <c r="AI30" s="18">
+      <c r="AI30" s="3">
         <v>6.94308151062154</v>
       </c>
-      <c r="AJ30" s="18">
+      <c r="AJ30" s="3">
         <v>9.1550726610749997</v>
       </c>
-      <c r="AK30" s="18">
+      <c r="AK30" s="3">
         <v>10.612881509382399</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="3">
         <v>3.40179697439455</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="3">
         <v>4.3566510408744898</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="3">
         <v>4.8729779328645799</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="3">
         <v>4.9282642747472698</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="3">
         <v>5.4558103476311599</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="3">
         <v>5.5402426183910798</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="3">
         <v>6.7566189276786703</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="3">
         <v>6.6712916862722302</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="3">
         <v>4.8473196871181301</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="3">
         <v>1.96107194731752</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="3">
         <v>2.1888389322977502</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P31" s="3">
         <v>5.1879089555829996</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="3">
         <v>1.5917820182286699</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="3">
         <v>1.67042132882734</v>
       </c>
-      <c r="S31" s="18">
+      <c r="S31" s="3">
         <v>3.3049750471039299</v>
       </c>
-      <c r="T31" s="18">
+      <c r="T31" s="3">
         <v>1.8218913722922701</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="3">
         <v>1.8218913722922701</v>
       </c>
-      <c r="V31" s="18">
+      <c r="V31" s="3">
         <v>3.4492079324226901</v>
       </c>
-      <c r="W31" s="18">
+      <c r="W31" s="3">
         <v>3.4492079324226901</v>
       </c>
-      <c r="X31" s="18">
+      <c r="X31" s="3">
         <v>1.98989028052539</v>
       </c>
-      <c r="Y31" s="18">
+      <c r="Y31" s="3">
         <v>2.9646895197240402</v>
       </c>
-      <c r="Z31" s="18">
+      <c r="Z31" s="3">
         <v>4.13612907804667</v>
       </c>
-      <c r="AA31" s="18">
+      <c r="AA31" s="3">
         <v>2.9744933826897002</v>
       </c>
-      <c r="AB31" s="18">
+      <c r="AB31" s="3">
         <v>3.80612602412715</v>
       </c>
-      <c r="AC31" s="18">
+      <c r="AC31" s="3">
         <v>5.8310026117186498</v>
       </c>
-      <c r="AD31" s="18">
+      <c r="AD31" s="3">
         <v>5.6182555277180004</v>
       </c>
-      <c r="AE31" s="18">
+      <c r="AE31" s="3">
         <v>5.5042299321339598</v>
       </c>
-      <c r="AF31" s="18">
+      <c r="AF31" s="3">
         <v>5.14283714577269</v>
       </c>
-      <c r="AG31" s="18">
+      <c r="AG31" s="3">
         <v>5.4760899874857198</v>
       </c>
-      <c r="AH31" s="18">
+      <c r="AH31" s="3">
         <v>4.5835682198483099</v>
       </c>
-      <c r="AI31" s="18">
+      <c r="AI31" s="3">
         <v>4.5478478268765699</v>
       </c>
-      <c r="AJ31" s="18">
+      <c r="AJ31" s="3">
         <v>5.2596573530875999</v>
       </c>
-      <c r="AK31" s="18">
+      <c r="AK31" s="3">
         <v>7.01634865041407</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="3">
         <v>6.20310646412086</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="3">
         <v>7.2449284184686196</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="3">
         <v>7.6570270275718997</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="3">
         <v>7.99268370351811</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="3">
         <v>8.2885939364021493</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="3">
         <v>8.2366333680756902</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="3">
         <v>9.7689330273130306</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="3">
         <v>9.5288006622396502</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M32" s="3">
         <v>7.6415754411429599</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="3">
         <v>5.3035413279020398</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="3">
         <v>5.4560215717537801</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="3">
         <v>8.2524598710191999</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="3">
         <v>4.4867931797345699</v>
       </c>
-      <c r="R32" s="18">
+      <c r="R32" s="3">
         <v>3.8160273718455202</v>
       </c>
-      <c r="S32" s="18">
+      <c r="S32" s="3">
         <v>4.7784582031689897</v>
       </c>
-      <c r="T32" s="18">
+      <c r="T32" s="3">
         <v>3.36891567635206</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32" s="3">
         <v>3.36891567635206</v>
       </c>
-      <c r="V32" s="18">
+      <c r="V32" s="3">
         <v>4.6092823225283901</v>
       </c>
-      <c r="W32" s="18">
+      <c r="W32" s="3">
         <v>4.6092823225283901</v>
       </c>
-      <c r="X32" s="18">
+      <c r="X32" s="3">
         <v>3.4864619221451698</v>
       </c>
-      <c r="Y32" s="18">
+      <c r="Y32" s="3">
         <v>2.60795181122799</v>
       </c>
-      <c r="Z32" s="18">
+      <c r="Z32" s="3">
         <v>7.44473552115209</v>
       </c>
-      <c r="AA32" s="18">
+      <c r="AA32" s="3">
         <v>6.3263929095295</v>
       </c>
-      <c r="AB32" s="18">
+      <c r="AB32" s="3">
         <v>7.1321286225165901</v>
       </c>
-      <c r="AC32" s="18">
+      <c r="AC32" s="3">
         <v>7.7842811892121997</v>
       </c>
-      <c r="AD32" s="18">
+      <c r="AD32" s="3">
         <v>7.0286300528540302</v>
       </c>
-      <c r="AE32" s="18">
+      <c r="AE32" s="3">
         <v>7.2306557047331204</v>
       </c>
-      <c r="AF32" s="18">
+      <c r="AF32" s="3">
         <v>6.39946148373354</v>
       </c>
-      <c r="AG32" s="18">
+      <c r="AG32" s="3">
         <v>6.9897651520941002</v>
       </c>
-      <c r="AH32" s="18">
+      <c r="AH32" s="3">
         <v>5.22076380069882</v>
       </c>
-      <c r="AI32" s="18">
+      <c r="AI32" s="3">
         <v>6.2330347557844297</v>
       </c>
-      <c r="AJ32" s="18">
+      <c r="AJ32" s="3">
         <v>5.9924173761205903</v>
       </c>
-      <c r="AK32" s="18">
+      <c r="AK32" s="3">
         <v>7.7204937710530102</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="3">
         <v>2.56085081820031</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="3">
         <v>3.0780267839457598</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="3">
         <v>2.73241041760912</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="3">
         <v>1.7265392971152</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="3">
         <v>3.3034753665532</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="3">
         <v>3.5147325449964599</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="3">
         <v>6.4657663235591798</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="3">
         <v>5.4201463204304501</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="3">
         <v>4.4591943288936502</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="3">
         <v>4.1398821269807797</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="3">
         <v>3.9126944717860699</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33" s="3">
         <v>6.0262710803544897</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="3">
         <v>4.2776722352408303</v>
       </c>
-      <c r="R33" s="18">
+      <c r="R33" s="3">
         <v>5.1407076437945296</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="3">
         <v>6.9291366560941396</v>
       </c>
-      <c r="T33" s="18">
+      <c r="T33" s="3">
         <v>6.49397340899867</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="3">
         <v>6.49397340899867</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="3">
         <v>7.4725686189204996</v>
       </c>
-      <c r="W33" s="18">
+      <c r="W33" s="3">
         <v>7.4725686189204996</v>
       </c>
-      <c r="X33" s="18">
+      <c r="X33" s="3">
         <v>7.1241640532401904</v>
       </c>
-      <c r="Y33" s="18">
+      <c r="Y33" s="3">
         <v>8.3897378295900999</v>
       </c>
-      <c r="Z33" s="18">
+      <c r="Z33" s="3">
         <v>4.3126015549856298</v>
       </c>
-      <c r="AA33" s="18">
+      <c r="AA33" s="3">
         <v>3.8419382682128602</v>
       </c>
-      <c r="AB33" s="18">
+      <c r="AB33" s="3">
         <v>4.0663691144550604</v>
       </c>
-      <c r="AC33" s="18">
+      <c r="AC33" s="3">
         <v>7.13607932525011</v>
       </c>
-      <c r="AD33" s="18">
+      <c r="AD33" s="3">
         <v>6.1235732225897701</v>
       </c>
-      <c r="AE33" s="18">
+      <c r="AE33" s="3">
         <v>5.1871120966967004</v>
       </c>
-      <c r="AF33" s="18">
+      <c r="AF33" s="3">
         <v>6.9331327987063496</v>
       </c>
-      <c r="AG33" s="18">
+      <c r="AG33" s="3">
         <v>5.40538521042917</v>
       </c>
-      <c r="AH33" s="18">
+      <c r="AH33" s="3">
         <v>7.3645553540742004</v>
       </c>
-      <c r="AI33" s="18">
+      <c r="AI33" s="3">
         <v>4.6050583093388697</v>
       </c>
-      <c r="AJ33" s="18">
+      <c r="AJ33" s="3">
         <v>5.1278901585561103</v>
       </c>
-      <c r="AK33" s="18">
+      <c r="AK33" s="3">
         <v>5.7649753877795504</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="3">
         <v>8.2190065609488503</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="3">
         <v>6.8272284706934103</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="3">
         <v>6.8530734069124302</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="3">
         <v>7.9373864970375996</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="3">
         <v>6.2088401412316898</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="3">
         <v>5.95573744429411</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="3">
         <v>7.3793310495259101</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="3">
         <v>5.1852225797544698</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="3">
         <v>5.80850322973044</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="3">
         <v>9.6243302510632596</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="3">
         <v>10.011978868546899</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="3">
         <v>9.7161872009260293</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="3">
         <v>10.4110978106188</v>
       </c>
-      <c r="R34" s="18">
+      <c r="R34" s="3">
         <v>11.178585675158899</v>
       </c>
-      <c r="S34" s="18">
+      <c r="S34" s="3">
         <v>7.3589855821286401</v>
       </c>
-      <c r="T34" s="18">
+      <c r="T34" s="3">
         <v>8.7732381357276399</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="3">
         <v>8.7732381357276399</v>
       </c>
-      <c r="V34" s="18">
+      <c r="V34" s="3">
         <v>7.7991526998900698</v>
       </c>
-      <c r="W34" s="18">
+      <c r="W34" s="3">
         <v>7.7991526998900698</v>
       </c>
-      <c r="X34" s="18">
+      <c r="X34" s="3">
         <v>10.1510933862666</v>
       </c>
-      <c r="Y34" s="18">
+      <c r="Y34" s="3">
         <v>11.5726426776042</v>
       </c>
-      <c r="Z34" s="18">
+      <c r="Z34" s="3">
         <v>9.1297435087610292</v>
       </c>
-      <c r="AA34" s="18">
+      <c r="AA34" s="3">
         <v>9.3117783149191702</v>
       </c>
-      <c r="AB34" s="18">
+      <c r="AB34" s="3">
         <v>8.9151762756922199</v>
       </c>
-      <c r="AC34" s="18">
+      <c r="AC34" s="3">
         <v>4.5116694614565702</v>
       </c>
-      <c r="AD34" s="18">
+      <c r="AD34" s="3">
         <v>5.180835125362</v>
       </c>
-      <c r="AE34" s="18">
+      <c r="AE34" s="3">
         <v>5.5962782162111298</v>
       </c>
-      <c r="AF34" s="18">
+      <c r="AF34" s="3">
         <v>5.2307885339240103</v>
       </c>
-      <c r="AG34" s="18">
+      <c r="AG34" s="3">
         <v>5.9001838183944697</v>
       </c>
-      <c r="AH34" s="18">
+      <c r="AH34" s="3">
         <v>6.4996605650496999</v>
       </c>
-      <c r="AI34" s="18">
+      <c r="AI34" s="3">
         <v>6.8821906461144504</v>
       </c>
-      <c r="AJ34" s="18">
+      <c r="AJ34" s="3">
         <v>11.150655387135901</v>
       </c>
-      <c r="AK34" s="18">
+      <c r="AK34" s="3">
         <v>11.3248384460714</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="3">
         <v>4.4989391159802397</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="3">
         <v>5.1688238524205801</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="3">
         <v>4.99145597145914</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="3">
         <v>5.97621270781611</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="3">
         <v>5.6270041484336</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="3">
         <v>5.2660712957030498</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="3">
         <v>9.4667099266549695</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="3">
         <v>7.5903985467995199</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="3">
         <v>5.9126773495176304</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="3">
         <v>6.3527028436168402</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="3">
         <v>6.4815537183088896</v>
       </c>
-      <c r="P35" s="18">
+      <c r="P35" s="3">
         <v>9.4261177468281101</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="3">
         <v>5.7679902602385402</v>
       </c>
-      <c r="R35" s="18">
+      <c r="R35" s="3">
         <v>5.9828887353443196</v>
       </c>
-      <c r="S35" s="18">
+      <c r="S35" s="3">
         <v>5.5926867495730104</v>
       </c>
-      <c r="T35" s="18">
+      <c r="T35" s="3">
         <v>5.31221861709985</v>
       </c>
-      <c r="U35" s="18">
+      <c r="U35" s="3">
         <v>5.31221861709985</v>
       </c>
-      <c r="V35" s="18">
+      <c r="V35" s="3">
         <v>6.0603597854884699</v>
       </c>
-      <c r="W35" s="18">
+      <c r="W35" s="3">
         <v>6.0603597854884699</v>
       </c>
-      <c r="X35" s="18">
+      <c r="X35" s="3">
         <v>6.9253317474031002</v>
       </c>
-      <c r="Y35" s="18">
+      <c r="Y35" s="3">
         <v>7.5558372641232801</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="Z35" s="3">
         <v>7.9235646201264496</v>
       </c>
-      <c r="AA35" s="18">
+      <c r="AA35" s="3">
         <v>6.9309858025508504</v>
       </c>
-      <c r="AB35" s="18">
+      <c r="AB35" s="3">
         <v>7.4854973185620199</v>
       </c>
-      <c r="AC35" s="18">
+      <c r="AC35" s="3">
         <v>6.5175803779333803</v>
       </c>
-      <c r="AD35" s="18">
+      <c r="AD35" s="3">
         <v>3.2684540322937301</v>
       </c>
-      <c r="AE35" s="18">
+      <c r="AE35" s="3">
         <v>3.1225944042321201</v>
       </c>
-      <c r="AF35" s="18">
+      <c r="AF35" s="3">
         <v>4.3323262087268199</v>
       </c>
-      <c r="AG35" s="18">
+      <c r="AG35" s="3">
         <v>2.6394689322017402</v>
       </c>
-      <c r="AH35" s="18">
+      <c r="AH35" s="3">
         <v>4.00688657550511</v>
       </c>
-      <c r="AI35" s="18">
+      <c r="AI35" s="3">
         <v>2.3727520748302799</v>
       </c>
-      <c r="AJ35" s="18">
+      <c r="AJ35" s="3">
         <v>3.7140176962607301</v>
       </c>
-      <c r="AK35" s="18">
+      <c r="AK35" s="3">
         <v>4.04069157852273</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="3">
         <v>5.8599872249875498</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="3">
         <v>5.2760803939908101</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="3">
         <v>4.8840661054332104</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="3">
         <v>6.1421733573722896</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="3">
         <v>4.8642146098162504</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="3">
         <v>4.3830555038704597</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="3">
         <v>8.7377134051048007</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="3">
         <v>6.07686174068089</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="3">
         <v>5.4219850215103698</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="3">
         <v>8.1869559119673703</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="3">
         <v>8.4052089278627697</v>
       </c>
-      <c r="P36" s="18">
+      <c r="P36" s="3">
         <v>9.9991810847528999</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="3">
         <v>8.3107677678028207</v>
       </c>
-      <c r="R36" s="18">
+      <c r="R36" s="3">
         <v>8.9463945925367696</v>
       </c>
-      <c r="S36" s="18">
+      <c r="S36" s="3">
         <v>6.9419503116408796</v>
       </c>
-      <c r="T36" s="18">
+      <c r="T36" s="3">
         <v>7.5835098976118402</v>
       </c>
-      <c r="U36" s="18">
+      <c r="U36" s="3">
         <v>7.5835098976118402</v>
       </c>
-      <c r="V36" s="18">
+      <c r="V36" s="3">
         <v>7.5392446546882601</v>
       </c>
-      <c r="W36" s="18">
+      <c r="W36" s="3">
         <v>7.5392446546882601</v>
       </c>
-      <c r="X36" s="18">
+      <c r="X36" s="3">
         <v>9.2703164208171493</v>
       </c>
-      <c r="Y36" s="18">
+      <c r="Y36" s="3">
         <v>10.4392264997275</v>
       </c>
-      <c r="Z36" s="18">
+      <c r="Z36" s="3">
         <v>8.6537251875212906</v>
       </c>
-      <c r="AA36" s="18">
+      <c r="AA36" s="3">
         <v>8.2223636425292401</v>
       </c>
-      <c r="AB36" s="18">
+      <c r="AB36" s="3">
         <v>8.2850738742008296</v>
       </c>
-      <c r="AC36" s="18">
+      <c r="AC36" s="3">
         <v>5.7157372471960803</v>
       </c>
-      <c r="AD36" s="18">
+      <c r="AD36" s="3">
         <v>2.8654836455139598</v>
       </c>
-      <c r="AE36" s="18">
+      <c r="AE36" s="3">
         <v>2.69500838172012</v>
       </c>
-      <c r="AF36" s="18">
+      <c r="AF36" s="3">
         <v>4.4539467818121503</v>
       </c>
-      <c r="AG36" s="18">
+      <c r="AG36" s="3">
         <v>2.7016381114324699</v>
       </c>
-      <c r="AH36" s="18">
+      <c r="AH36" s="3">
         <v>5.3033427124338104</v>
       </c>
-      <c r="AI36" s="18">
+      <c r="AI36" s="3">
         <v>3.7207982133522801</v>
       </c>
-      <c r="AJ36" s="18">
+      <c r="AJ36" s="3">
         <v>7.1398390211806104</v>
       </c>
-      <c r="AK36" s="18">
+      <c r="AK36" s="3">
         <v>6.8120455373489399</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="3">
         <v>2.7769666903968102</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="3">
         <v>1.59790102551126</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="3">
         <v>2.1947571412565101</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="3">
         <v>3.0590838950624599</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="3">
         <v>2.0555656421042099</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="3">
         <v>2.0541711340459101</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="3">
         <v>4.2671677699193697</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="3">
         <v>2.7404841153970998</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="3">
         <v>0.86141752566708996</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="3">
         <v>3.7548325043648401</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="3">
         <v>4.1340054585779002</v>
       </c>
-      <c r="P37" s="18">
+      <c r="P37" s="3">
         <v>4.9360349123659804</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="3">
         <v>4.5926300415308603</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="3">
         <v>5.4346324284693397</v>
       </c>
-      <c r="S37" s="18">
+      <c r="S37" s="3">
         <v>3.1106001061460198</v>
       </c>
-      <c r="T37" s="18">
+      <c r="T37" s="3">
         <v>3.7997331020927598</v>
       </c>
-      <c r="U37" s="18">
+      <c r="U37" s="3">
         <v>3.7997331020927598</v>
       </c>
-      <c r="V37" s="18">
+      <c r="V37" s="3">
         <v>3.7362619225923699</v>
       </c>
-      <c r="W37" s="18">
+      <c r="W37" s="3">
         <v>3.7362619225923699</v>
       </c>
-      <c r="X37" s="18">
+      <c r="X37" s="3">
         <v>4.9946874488242603</v>
       </c>
-      <c r="Y37" s="18">
+      <c r="Y37" s="3">
         <v>6.5772514282622803</v>
       </c>
-      <c r="Z37" s="18">
+      <c r="Z37" s="3">
         <v>3.7835926945278699</v>
       </c>
-      <c r="AA37" s="18">
+      <c r="AA37" s="3">
         <v>3.5539887013335401</v>
       </c>
-      <c r="AB37" s="18">
+      <c r="AB37" s="3">
         <v>3.4374542296345898</v>
       </c>
-      <c r="AC37" s="18">
+      <c r="AC37" s="3">
         <v>2.5132208659563702</v>
       </c>
-      <c r="AD37" s="18">
+      <c r="AD37" s="3">
         <v>2.9627129960488299</v>
       </c>
-      <c r="AE37" s="18">
+      <c r="AE37" s="3">
         <v>2.7877912144237298</v>
       </c>
-      <c r="AF37" s="18">
+      <c r="AF37" s="3">
         <v>2.79577168584655</v>
       </c>
-      <c r="AG37" s="18">
+      <c r="AG37" s="3">
         <v>3.1494227543573401</v>
       </c>
-      <c r="AH37" s="18">
+      <c r="AH37" s="3">
         <v>3.6037655621475602</v>
       </c>
-      <c r="AI37" s="18">
+      <c r="AI37" s="3">
         <v>2.9867169182184599</v>
       </c>
-      <c r="AJ37" s="18">
+      <c r="AJ37" s="3">
         <v>6.6476490580608596</v>
       </c>
-      <c r="AK37" s="18">
+      <c r="AK37" s="3">
         <v>7.59003417112537</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="3">
         <v>7.4903594170292003</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="3">
         <v>6.7059695189991899</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="3">
         <v>6.5769170123802496</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="3">
         <v>7.9055200880959502</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="3">
         <v>6.3852862701214104</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="3">
         <v>5.9487478177500002</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="3">
         <v>9.2099065805504203</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="3">
         <v>6.75678959277798</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="3">
         <v>6.2979636485284596</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="3">
         <v>9.33181907968814</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="3">
         <v>9.6675628153063808</v>
       </c>
-      <c r="P38" s="18">
+      <c r="P38" s="3">
         <v>10.748853882882599</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="Q38" s="3">
         <v>9.6084674737102702</v>
       </c>
-      <c r="R38" s="18">
+      <c r="R38" s="3">
         <v>10.175480031071499</v>
       </c>
-      <c r="S38" s="18">
+      <c r="S38" s="3">
         <v>6.9145489864049301</v>
       </c>
-      <c r="T38" s="18">
+      <c r="T38" s="3">
         <v>7.9549589307780302</v>
       </c>
-      <c r="U38" s="18">
+      <c r="U38" s="3">
         <v>7.9549589307780302</v>
       </c>
-      <c r="V38" s="18">
+      <c r="V38" s="3">
         <v>7.3864392512450996</v>
       </c>
-      <c r="W38" s="18">
+      <c r="W38" s="3">
         <v>7.3864392512450996</v>
       </c>
-      <c r="X38" s="18">
+      <c r="X38" s="3">
         <v>9.6574031741527406</v>
       </c>
-      <c r="Y38" s="18">
+      <c r="Y38" s="3">
         <v>10.7555873029893</v>
       </c>
-      <c r="Z38" s="18">
+      <c r="Z38" s="3">
         <v>9.7170075117766803</v>
       </c>
-      <c r="AA38" s="18">
+      <c r="AA38" s="3">
         <v>9.3929858823882704</v>
       </c>
-      <c r="AB38" s="18">
+      <c r="AB38" s="3">
         <v>9.3719410004773902</v>
       </c>
-      <c r="AC38" s="18">
+      <c r="AC38" s="3">
         <v>5.3290961940162997</v>
       </c>
-      <c r="AD38" s="18">
+      <c r="AD38" s="3">
         <v>3.5064694574161299</v>
       </c>
-      <c r="AE38" s="18">
+      <c r="AE38" s="3">
         <v>4.0985484686890796</v>
       </c>
-      <c r="AF38" s="18">
+      <c r="AF38" s="3">
         <v>4.2057004428220699</v>
       </c>
-      <c r="AG38" s="18">
+      <c r="AG38" s="3">
         <v>4.0851716723690803</v>
       </c>
-      <c r="AH38" s="18">
+      <c r="AH38" s="3">
         <v>5.0492766896936896</v>
       </c>
-      <c r="AI38" s="18">
+      <c r="AI38" s="3">
         <v>5.2361440508872699</v>
       </c>
-      <c r="AJ38" s="18">
+      <c r="AJ38" s="3">
         <v>9.0429235900595106</v>
       </c>
-      <c r="AK38" s="18">
+      <c r="AK38" s="3">
         <v>8.9678944177767494</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="3">
         <v>2.93417989787251</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="3">
         <v>2.3344324945323001</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="3">
         <v>2.2560802740220098</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="3">
         <v>3.57571834454538</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="3">
         <v>2.45924098919442</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="3">
         <v>2.0576653525666502</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="3">
         <v>6.2404378826462903</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="3">
         <v>4.08276184381943</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="3">
         <v>2.6238951596942699</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N39" s="3">
         <v>4.9760645754453101</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O39" s="3">
         <v>5.2395446927656897</v>
       </c>
-      <c r="P39" s="18">
+      <c r="P39" s="3">
         <v>6.9391368640919202</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="Q39" s="3">
         <v>5.2656854262205703</v>
       </c>
-      <c r="R39" s="18">
+      <c r="R39" s="3">
         <v>5.9880890174077699</v>
       </c>
-      <c r="S39" s="18">
+      <c r="S39" s="3">
         <v>4.1723484511062496</v>
       </c>
-      <c r="T39" s="18">
+      <c r="T39" s="3">
         <v>4.6439828431863903</v>
       </c>
-      <c r="U39" s="18">
+      <c r="U39" s="3">
         <v>4.6439828431863903</v>
       </c>
-      <c r="V39" s="18">
+      <c r="V39" s="3">
         <v>4.8242493523193701</v>
       </c>
-      <c r="W39" s="18">
+      <c r="W39" s="3">
         <v>4.8242493523193701</v>
       </c>
-      <c r="X39" s="18">
+      <c r="X39" s="3">
         <v>6.20172522684806</v>
       </c>
-      <c r="Y39" s="18">
+      <c r="Y39" s="3">
         <v>7.5235571990584198</v>
       </c>
-      <c r="Z39" s="18">
+      <c r="Z39" s="3">
         <v>5.5564395761225196</v>
       </c>
-      <c r="AA39" s="18">
+      <c r="AA39" s="3">
         <v>5.0344643426510904</v>
       </c>
-      <c r="AB39" s="18">
+      <c r="AB39" s="3">
         <v>5.1625809596426304</v>
       </c>
-      <c r="AC39" s="18">
+      <c r="AC39" s="3">
         <v>3.6695045265626298</v>
       </c>
-      <c r="AD39" s="18">
+      <c r="AD39" s="3">
         <v>1.39410647009318</v>
       </c>
-      <c r="AE39" s="18">
+      <c r="AE39" s="3">
         <v>0.68648662472559796</v>
       </c>
-      <c r="AF39" s="18">
+      <c r="AF39" s="3">
         <v>2.5618138739978402</v>
       </c>
-      <c r="AG39" s="18">
+      <c r="AG39" s="3">
         <v>1.10361964487972</v>
       </c>
-      <c r="AH39" s="18">
+      <c r="AH39" s="3">
         <v>3.3646606767871901</v>
       </c>
-      <c r="AI39" s="18">
+      <c r="AI39" s="3">
         <v>1.37076156987583</v>
       </c>
-      <c r="AJ39" s="18">
+      <c r="AJ39" s="3">
         <v>5.6175848226636003</v>
       </c>
-      <c r="AK39" s="18">
+      <c r="AK39" s="3">
         <v>6.1529134945656097</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="3">
         <v>6.2899593774188096</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="3">
         <v>5.7532724865462201</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="3">
         <v>5.2221483772637898</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="3">
         <v>6.3457499802362802</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="3">
         <v>5.2088149716143199</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="3">
         <v>4.7494251602550097</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="3">
         <v>9.3012930938200693</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40" s="3">
         <v>6.5687190858084401</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="3">
         <v>6.0770490128831502</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="3">
         <v>8.7890200967607903</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O40" s="3">
         <v>8.9475114614794595</v>
       </c>
-      <c r="P40" s="18">
+      <c r="P40" s="3">
         <v>10.5940230081364</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="Q40" s="3">
         <v>8.8714250167137401</v>
       </c>
-      <c r="R40" s="18">
+      <c r="R40" s="3">
         <v>9.5367246347973094</v>
       </c>
-      <c r="S40" s="18">
+      <c r="S40" s="3">
         <v>8.0058478030416804</v>
       </c>
-      <c r="T40" s="18">
+      <c r="T40" s="3">
         <v>8.5432199619131701</v>
       </c>
-      <c r="U40" s="18">
+      <c r="U40" s="3">
         <v>8.5432199619131701</v>
       </c>
-      <c r="V40" s="18">
+      <c r="V40" s="3">
         <v>8.62482602091589</v>
       </c>
-      <c r="W40" s="18">
+      <c r="W40" s="3">
         <v>8.62482602091589</v>
       </c>
-      <c r="X40" s="18">
+      <c r="X40" s="3">
         <v>10.1841284284731</v>
       </c>
-      <c r="Y40" s="18">
+      <c r="Y40" s="3">
         <v>11.3728021513533</v>
       </c>
-      <c r="Z40" s="18">
+      <c r="Z40" s="3">
         <v>9.1724452501055502</v>
       </c>
-      <c r="AA40" s="18">
+      <c r="AA40" s="3">
         <v>8.7663591487022394</v>
       </c>
-      <c r="AB40" s="18">
+      <c r="AB40" s="3">
         <v>8.8162437931554596</v>
       </c>
-      <c r="AC40" s="18">
+      <c r="AC40" s="3">
         <v>6.7374780766235904</v>
       </c>
-      <c r="AD40" s="18">
+      <c r="AD40" s="3">
         <v>3.9752215557805002</v>
       </c>
-      <c r="AE40" s="18">
+      <c r="AE40" s="3">
         <v>3.5514552838671798</v>
       </c>
-      <c r="AF40" s="18">
+      <c r="AF40" s="3">
         <v>5.6320720705123897</v>
       </c>
-      <c r="AG40" s="18">
+      <c r="AG40" s="3">
         <v>3.5883130526674099</v>
       </c>
-      <c r="AH40" s="18">
+      <c r="AH40" s="3">
         <v>6.4797385150659101</v>
       </c>
-      <c r="AI40" s="18">
+      <c r="AI40" s="3">
         <v>4.4160652420608999</v>
       </c>
-      <c r="AJ40" s="18">
+      <c r="AJ40" s="3">
         <v>7.3211508660720002</v>
       </c>
-      <c r="AK40" s="18">
+      <c r="AK40" s="3">
         <v>6.7053762605418497</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="3">
         <v>4.2890711045384604</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="3">
         <v>3.2429788363153298</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="3">
         <v>2.9283894107696602</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="3">
         <v>4.1786481089193899</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="3">
         <v>2.6572595583815599</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="3">
         <v>2.2037413932067298</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="3">
         <v>6.4450345132861004</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="3">
         <v>3.7837610332026799</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="3">
         <v>3.2185193770692799</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N41" s="3">
         <v>6.4485819087258802</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="3">
         <v>6.6904640089710004</v>
       </c>
-      <c r="P41" s="18">
+      <c r="P41" s="3">
         <v>7.7996785167633798</v>
       </c>
-      <c r="Q41" s="18">
+      <c r="Q41" s="3">
         <v>6.8905575388858402</v>
       </c>
-      <c r="R41" s="18">
+      <c r="R41" s="3">
         <v>7.6901455690645601</v>
       </c>
-      <c r="S41" s="18">
+      <c r="S41" s="3">
         <v>5.6484284240150204</v>
       </c>
-      <c r="T41" s="18">
+      <c r="T41" s="3">
         <v>6.3692531975363096</v>
       </c>
-      <c r="U41" s="18">
+      <c r="U41" s="3">
         <v>6.3692531975363096</v>
       </c>
-      <c r="V41" s="18">
+      <c r="V41" s="3">
         <v>6.2918403720810101</v>
       </c>
-      <c r="W41" s="18">
+      <c r="W41" s="3">
         <v>6.2918403720810101</v>
       </c>
-      <c r="X41" s="18">
+      <c r="X41" s="3">
         <v>7.8717863167623596</v>
       </c>
-      <c r="Y41" s="18">
+      <c r="Y41" s="3">
         <v>9.2783276455026602</v>
       </c>
-      <c r="Z41" s="18">
+      <c r="Z41" s="3">
         <v>6.5140110853674802</v>
       </c>
-      <c r="AA41" s="18">
+      <c r="AA41" s="3">
         <v>6.2758419810847501</v>
       </c>
-      <c r="AB41" s="18">
+      <c r="AB41" s="3">
         <v>6.1809044271857401</v>
       </c>
-      <c r="AC41" s="18">
+      <c r="AC41" s="3">
         <v>4.1112100842538402</v>
       </c>
-      <c r="AD41" s="18">
+      <c r="AD41" s="3">
         <v>2.3366062677693802</v>
       </c>
-      <c r="AE41" s="18">
+      <c r="AE41" s="3">
         <v>1.8169920278624001</v>
       </c>
-      <c r="AF41" s="18">
+      <c r="AF41" s="3">
         <v>3.6238321113267702</v>
       </c>
-      <c r="AG41" s="18">
+      <c r="AG41" s="3">
         <v>2.2484624377671101</v>
       </c>
-      <c r="AH41" s="18">
+      <c r="AH41" s="3">
         <v>4.7515333295062101</v>
       </c>
-      <c r="AI41" s="18">
+      <c r="AI41" s="3">
         <v>2.9774839044392301</v>
       </c>
-      <c r="AJ41" s="18">
+      <c r="AJ41" s="3">
         <v>6.9381130602559598</v>
       </c>
-      <c r="AK41" s="18">
+      <c r="AK41" s="3">
         <v>7.0687224037360696</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="3">
         <v>2.38359678541216</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="3">
         <v>2.3833441907670601</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="3">
         <v>3.0690332663457598</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="3">
         <v>3.4326038381372701</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="3">
         <v>3.38658638125571</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="3">
         <v>3.4825324088667902</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="3">
         <v>4.8488436169847704</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="3">
         <v>4.3176772214265604</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="3">
         <v>2.4750932640417398</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="3">
         <v>2.1246818139571002</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="3">
         <v>2.58240569163135</v>
       </c>
-      <c r="P42" s="18">
+      <c r="P42" s="3">
         <v>4.2928650433698499</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="Q42" s="3">
         <v>2.9140636709898402</v>
       </c>
-      <c r="R42" s="18">
+      <c r="R42" s="3">
         <v>3.6637028207619902</v>
       </c>
-      <c r="S42" s="18">
+      <c r="S42" s="3">
         <v>2.3336350416558802</v>
       </c>
-      <c r="T42" s="18">
+      <c r="T42" s="3">
         <v>2.2229037023082499</v>
       </c>
-      <c r="U42" s="18">
+      <c r="U42" s="3">
         <v>2.2229037023082499</v>
       </c>
-      <c r="V42" s="18">
+      <c r="V42" s="3">
         <v>2.8382717551453802</v>
       </c>
-      <c r="W42" s="18">
+      <c r="W42" s="3">
         <v>2.8382717551453802</v>
       </c>
-      <c r="X42" s="18">
+      <c r="X42" s="3">
         <v>3.2001789855214802</v>
       </c>
-      <c r="Y42" s="18">
+      <c r="Y42" s="3">
         <v>4.76618424380941</v>
       </c>
-      <c r="Z42" s="18">
+      <c r="Z42" s="3">
         <v>3.0895510031098601</v>
       </c>
-      <c r="AA42" s="18">
+      <c r="AA42" s="3">
         <v>2.3586011262387299</v>
       </c>
-      <c r="AB42" s="18">
+      <c r="AB42" s="3">
         <v>2.6909760311219202</v>
       </c>
-      <c r="AC42" s="18">
+      <c r="AC42" s="3">
         <v>3.69442300517616</v>
       </c>
-      <c r="AD42" s="18">
+      <c r="AD42" s="3">
         <v>4.0043507522300201</v>
       </c>
-      <c r="AE42" s="18">
+      <c r="AE42" s="3">
         <v>3.8730694118504001</v>
       </c>
-      <c r="AF42" s="18">
+      <c r="AF42" s="3">
         <v>3.5268298918321701</v>
       </c>
-      <c r="AG42" s="18">
+      <c r="AG42" s="3">
         <v>4.0351663827704698</v>
       </c>
-      <c r="AH42" s="18">
+      <c r="AH42" s="3">
         <v>3.6132630122011999</v>
       </c>
-      <c r="AI42" s="18">
+      <c r="AI42" s="3">
         <v>3.3834172829484599</v>
       </c>
-      <c r="AJ42" s="18">
+      <c r="AJ42" s="3">
         <v>5.9405198474827303</v>
       </c>
-      <c r="AK42" s="18">
+      <c r="AK42" s="3">
         <v>7.3000042232548399</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="3">
         <v>2.8332551964437802</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="3">
         <v>2.14623730874826</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="3">
         <v>2.7938026843278201</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="3">
         <v>3.5580179688501801</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="3">
         <v>2.8578687304136401</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="3">
         <v>2.85174605861509</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="3">
         <v>4.6005993565485603</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="3">
         <v>3.5068543024203001</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="3">
         <v>1.6709646413973001</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="3">
         <v>3.3605870103970399</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="3">
         <v>3.79600384402156</v>
       </c>
-      <c r="P43" s="18">
+      <c r="P43" s="3">
         <v>4.85703091054559</v>
       </c>
-      <c r="Q43" s="18">
+      <c r="Q43" s="3">
         <v>4.1368163419010697</v>
       </c>
-      <c r="R43" s="18">
+      <c r="R43" s="3">
         <v>4.8868074195993696</v>
       </c>
-      <c r="S43" s="18">
+      <c r="S43" s="3">
         <v>2.2527537671314999</v>
       </c>
-      <c r="T43" s="18">
+      <c r="T43" s="3">
         <v>2.9116875103715198</v>
       </c>
-      <c r="U43" s="18">
+      <c r="U43" s="3">
         <v>2.9116875103715198</v>
       </c>
-      <c r="V43" s="18">
+      <c r="V43" s="3">
         <v>2.8823619801359399</v>
       </c>
-      <c r="W43" s="18">
+      <c r="W43" s="3">
         <v>2.8823619801359399</v>
       </c>
-      <c r="X43" s="18">
+      <c r="X43" s="3">
         <v>4.1659282818516301</v>
       </c>
-      <c r="Y43" s="18">
+      <c r="Y43" s="3">
         <v>5.7189235899019204</v>
       </c>
-      <c r="Z43" s="18">
+      <c r="Z43" s="3">
         <v>3.77622781009135</v>
       </c>
-      <c r="AA43" s="18">
+      <c r="AA43" s="3">
         <v>3.36744097333903</v>
       </c>
-      <c r="AB43" s="18">
+      <c r="AB43" s="3">
         <v>3.4105033191643299</v>
       </c>
-      <c r="AC43" s="18">
+      <c r="AC43" s="3">
         <v>2.5429855131505099</v>
       </c>
-      <c r="AD43" s="18">
+      <c r="AD43" s="3">
         <v>3.0534675309233301</v>
       </c>
-      <c r="AE43" s="18">
+      <c r="AE43" s="3">
         <v>3.0596562378140302</v>
       </c>
-      <c r="AF43" s="18">
+      <c r="AF43" s="3">
         <v>2.5162872241588099</v>
       </c>
-      <c r="AG43" s="18">
+      <c r="AG43" s="3">
         <v>3.30691105251808</v>
       </c>
-      <c r="AH43" s="18">
+      <c r="AH43" s="3">
         <v>3.0278309260284302</v>
       </c>
-      <c r="AI43" s="18">
+      <c r="AI43" s="3">
         <v>3.0125046761532999</v>
       </c>
-      <c r="AJ43" s="18">
+      <c r="AJ43" s="3">
         <v>6.4648816950754</v>
       </c>
-      <c r="AK43" s="18">
+      <c r="AK43" s="3">
         <v>7.5788643707775796</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="3">
         <v>2.76175976617106</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="3">
         <v>2.2558321397688399</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="3">
         <v>2.9450224474103299</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="3">
         <v>3.5737394860741301</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="3">
         <v>3.0735810313396001</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="3">
         <v>3.1120069622926101</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="3">
         <v>4.5796057363704996</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="3">
         <v>3.7355909649568</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="3">
         <v>1.90302834120464</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="3">
         <v>2.9856623172813501</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O44" s="3">
         <v>3.4395315541504399</v>
       </c>
-      <c r="P44" s="18">
+      <c r="P44" s="3">
         <v>4.5848650993766</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="Q44" s="3">
         <v>3.7962482830520101</v>
       </c>
-      <c r="R44" s="18">
+      <c r="R44" s="3">
         <v>4.5367268184574501</v>
       </c>
-      <c r="S44" s="18">
+      <c r="S44" s="3">
         <v>2.09817650908801</v>
       </c>
-      <c r="T44" s="18">
+      <c r="T44" s="3">
         <v>2.60022495736643</v>
       </c>
-      <c r="U44" s="18">
+      <c r="U44" s="3">
         <v>2.60022495736643</v>
       </c>
-      <c r="V44" s="18">
+      <c r="V44" s="3">
         <v>2.6982913575423999</v>
       </c>
-      <c r="W44" s="18">
+      <c r="W44" s="3">
         <v>2.6982913575423999</v>
       </c>
-      <c r="X44" s="18">
+      <c r="X44" s="3">
         <v>3.7714239122365898</v>
       </c>
-      <c r="Y44" s="18">
+      <c r="Y44" s="3">
         <v>5.3464921423020098</v>
       </c>
-      <c r="Z44" s="18">
+      <c r="Z44" s="3">
         <v>3.5083103528471802</v>
       </c>
-      <c r="AA44" s="18">
+      <c r="AA44" s="3">
         <v>3.03899811013367</v>
       </c>
-      <c r="AB44" s="18">
+      <c r="AB44" s="3">
         <v>3.1381759948630599</v>
       </c>
-      <c r="AC44" s="18">
+      <c r="AC44" s="3">
         <v>2.8216373426286498</v>
       </c>
-      <c r="AD44" s="18">
+      <c r="AD44" s="3">
         <v>3.4043235852536</v>
       </c>
-      <c r="AE44" s="18">
+      <c r="AE44" s="3">
         <v>3.39216620460454</v>
       </c>
-      <c r="AF44" s="18">
+      <c r="AF44" s="3">
         <v>2.8113987950867099</v>
       </c>
-      <c r="AG44" s="18">
+      <c r="AG44" s="3">
         <v>3.6104475140330599</v>
       </c>
-      <c r="AH44" s="18">
+      <c r="AH44" s="3">
         <v>3.1603974056216302</v>
       </c>
-      <c r="AI44" s="18">
+      <c r="AI44" s="3">
         <v>3.2047256571418301</v>
       </c>
-      <c r="AJ44" s="18">
+      <c r="AJ44" s="3">
         <v>6.3974911499285296</v>
       </c>
-      <c r="AK44" s="18">
+      <c r="AK44" s="3">
         <v>7.6026105946599998</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="3">
         <v>3.7539620805318901</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="3">
         <v>3.2789963259960002</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="3">
         <v>2.9632577731129</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="3">
         <v>4.2701472276084198</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="3">
         <v>3.1432496632219298</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="3">
         <v>2.66936903299464</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="3">
         <v>7.2139067439321201</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45" s="3">
         <v>4.8118134589591097</v>
       </c>
-      <c r="M45" s="18">
+      <c r="M45" s="3">
         <v>3.6524183991060899</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="3">
         <v>6.0420497737022698</v>
       </c>
-      <c r="O45" s="18">
+      <c r="O45" s="3">
         <v>6.2585692654551401</v>
       </c>
-      <c r="P45" s="18">
+      <c r="P45" s="3">
         <v>8.06701511749141</v>
       </c>
-      <c r="Q45" s="18">
+      <c r="Q45" s="3">
         <v>6.1867725662049402</v>
       </c>
-      <c r="R45" s="18">
+      <c r="R45" s="3">
         <v>6.8629064724482998</v>
       </c>
-      <c r="S45" s="18">
+      <c r="S45" s="3">
         <v>5.2201983347027303</v>
       </c>
-      <c r="T45" s="18">
+      <c r="T45" s="3">
         <v>5.6736647044861597</v>
       </c>
-      <c r="U45" s="18">
+      <c r="U45" s="3">
         <v>5.6736647044861597</v>
       </c>
-      <c r="V45" s="18">
+      <c r="V45" s="3">
         <v>5.8560308542186696</v>
       </c>
-      <c r="W45" s="18">
+      <c r="W45" s="3">
         <v>5.8560308542186696</v>
       </c>
-      <c r="X45" s="18">
+      <c r="X45" s="3">
         <v>7.2906616151238097</v>
       </c>
-      <c r="Y45" s="18">
+      <c r="Y45" s="3">
         <v>8.5230201296806207</v>
       </c>
-      <c r="Z45" s="18">
+      <c r="Z45" s="3">
         <v>6.6432518961864799</v>
       </c>
-      <c r="AA45" s="18">
+      <c r="AA45" s="3">
         <v>6.1147846229014098</v>
       </c>
-      <c r="AB45" s="18">
+      <c r="AB45" s="3">
         <v>6.2531089628089003</v>
       </c>
-      <c r="AC45" s="18">
+      <c r="AC45" s="3">
         <v>4.5169533332385097</v>
       </c>
-      <c r="AD45" s="18">
+      <c r="AD45" s="3">
         <v>1.5250296396091201</v>
       </c>
-      <c r="AE45" s="18">
+      <c r="AE45" s="3">
         <v>0.68116995774071698</v>
       </c>
-      <c r="AF45" s="18">
+      <c r="AF45" s="3">
         <v>3.2093934760362099</v>
       </c>
-      <c r="AG45" s="18">
+      <c r="AG45" s="3">
         <v>0.89086453745128702</v>
       </c>
-      <c r="AH45" s="18">
+      <c r="AH45" s="3">
         <v>3.99775150643468</v>
       </c>
-      <c r="AI45" s="18">
+      <c r="AI45" s="3">
         <v>1.7258286680875199</v>
       </c>
-      <c r="AJ45" s="18">
+      <c r="AJ45" s="3">
         <v>5.6829166776733802</v>
       </c>
-      <c r="AK45" s="18">
+      <c r="AK45" s="3">
         <v>5.8469270145839998</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="3">
         <v>5.4398584515774804</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="3">
         <v>5.1494323326969402</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="3">
         <v>4.8831940174419604</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="3">
         <v>6.1810093313506096</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="3">
         <v>5.0550105641045802</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="3">
         <v>4.5792712364205199</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="3">
         <v>8.8540654109582793</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46" s="3">
         <v>6.4260453389198</v>
       </c>
-      <c r="M46" s="18">
+      <c r="M46" s="3">
         <v>5.3559814584633996</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N46" s="3">
         <v>7.59324795012928</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O46" s="3">
         <v>7.83096460590306</v>
       </c>
-      <c r="P46" s="18">
+      <c r="P46" s="3">
         <v>9.7658413266019704</v>
       </c>
-      <c r="Q46" s="18">
+      <c r="Q46" s="3">
         <v>7.5619181181059396</v>
       </c>
-      <c r="R46" s="18">
+      <c r="R46" s="3">
         <v>8.0744038543901606</v>
       </c>
-      <c r="S46" s="18">
+      <c r="S46" s="3">
         <v>6.0488137412319496</v>
       </c>
-      <c r="T46" s="18">
+      <c r="T46" s="3">
         <v>6.5695960361322197</v>
       </c>
-      <c r="U46" s="18">
+      <c r="U46" s="3">
         <v>6.5695960361322197</v>
       </c>
-      <c r="V46" s="18">
+      <c r="V46" s="3">
         <v>6.6051175693022497</v>
       </c>
-      <c r="W46" s="18">
+      <c r="W46" s="3">
         <v>6.6051175693022497</v>
       </c>
-      <c r="X46" s="18">
+      <c r="X46" s="3">
         <v>8.3146794053296098</v>
       </c>
-      <c r="Y46" s="18">
+      <c r="Y46" s="3">
         <v>9.3291271645517</v>
       </c>
-      <c r="Z46" s="18">
+      <c r="Z46" s="3">
         <v>8.4127273881620805</v>
       </c>
-      <c r="AA46" s="18">
+      <c r="AA46" s="3">
         <v>7.8101047019818299</v>
       </c>
-      <c r="AB46" s="18">
+      <c r="AB46" s="3">
         <v>8.0122384542638905</v>
       </c>
-      <c r="AC46" s="18">
+      <c r="AC46" s="3">
         <v>5.4326920041174898</v>
       </c>
-      <c r="AD46" s="18">
+      <c r="AD46" s="3">
         <v>2.0625416565096999</v>
       </c>
-      <c r="AE46" s="18">
+      <c r="AE46" s="3">
         <v>2.1894061551719499</v>
       </c>
-      <c r="AF46" s="18">
+      <c r="AF46" s="3">
         <v>3.6187493070896499</v>
       </c>
-      <c r="AG46" s="18">
+      <c r="AG46" s="3">
         <v>1.93267427565603</v>
       </c>
-      <c r="AH46" s="18">
+      <c r="AH46" s="3">
         <v>4.1606326205936499</v>
       </c>
-      <c r="AI46" s="18">
+      <c r="AI46" s="3">
         <v>2.9451620359820101</v>
       </c>
-      <c r="AJ46" s="18">
+      <c r="AJ46" s="3">
         <v>6.3253669227486098</v>
       </c>
-      <c r="AK46" s="18">
+      <c r="AK46" s="3">
         <v>6.2140789605074103</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="3">
         <v>2.0718764090411699</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="3">
         <v>1.82212753411678</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="3">
         <v>1.9578747991651599</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="3">
         <v>3.1006242734468001</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="3">
         <v>2.4109731381197701</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="3">
         <v>2.1610858088283398</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="3">
         <v>5.9456339994632303</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="3">
         <v>4.1819168333308196</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="3">
         <v>2.3909047471598899</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="3">
         <v>3.9698389366671001</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O47" s="3">
         <v>4.2330872242823396</v>
       </c>
-      <c r="P47" s="18">
+      <c r="P47" s="3">
         <v>6.2258130658411002</v>
       </c>
-      <c r="Q47" s="18">
+      <c r="Q47" s="3">
         <v>4.2312090458820997</v>
       </c>
-      <c r="R47" s="18">
+      <c r="R47" s="3">
         <v>4.9609771274836998</v>
       </c>
-      <c r="S47" s="18">
+      <c r="S47" s="3">
         <v>3.5914843054907202</v>
       </c>
-      <c r="T47" s="18">
+      <c r="T47" s="3">
         <v>3.80130816010151</v>
       </c>
-      <c r="U47" s="18">
+      <c r="U47" s="3">
         <v>3.80130816010151</v>
       </c>
-      <c r="V47" s="18">
+      <c r="V47" s="3">
         <v>4.23774864133562</v>
       </c>
-      <c r="W47" s="18">
+      <c r="W47" s="3">
         <v>4.23774864133562</v>
       </c>
-      <c r="X47" s="18">
+      <c r="X47" s="3">
         <v>5.2857468816198496</v>
       </c>
-      <c r="Y47" s="18">
+      <c r="Y47" s="3">
         <v>6.6141352427708897</v>
       </c>
-      <c r="Z47" s="18">
+      <c r="Z47" s="3">
         <v>4.7836647860255903</v>
       </c>
-      <c r="AA47" s="18">
+      <c r="AA47" s="3">
         <v>4.1206847743406803</v>
       </c>
-      <c r="AB47" s="18">
+      <c r="AB47" s="3">
         <v>4.3672165488557697</v>
       </c>
-      <c r="AC47" s="18">
+      <c r="AC47" s="3">
         <v>3.7659600538135298</v>
       </c>
-      <c r="AD47" s="18">
+      <c r="AD47" s="3">
         <v>2.0850919261332002</v>
       </c>
-      <c r="AE47" s="18">
+      <c r="AE47" s="3">
         <v>1.5731428439997299</v>
       </c>
-      <c r="AF47" s="18">
+      <c r="AF47" s="3">
         <v>2.7276235000600599</v>
       </c>
-      <c r="AG47" s="18">
+      <c r="AG47" s="3">
         <v>1.7663167471649801</v>
       </c>
-      <c r="AH47" s="18">
+      <c r="AH47" s="3">
         <v>3.2288026426828602</v>
       </c>
-      <c r="AI47" s="18">
+      <c r="AI47" s="3">
         <v>1.2415187797015199</v>
       </c>
-      <c r="AJ47" s="18">
+      <c r="AJ47" s="3">
         <v>5.0965868563987096</v>
       </c>
-      <c r="AK47" s="18">
+      <c r="AK47" s="3">
         <v>5.92771988931944</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="3">
         <v>3.58894881174714</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="3">
         <v>2.65613628280851</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="3">
         <v>2.993193012266</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="3">
         <v>4.14894989078336</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="3">
         <v>2.88584815491518</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="3">
         <v>2.65402091025289</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="3">
         <v>5.3272881520238897</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="3">
         <v>3.4778787908289899</v>
       </c>
-      <c r="M48" s="18">
+      <c r="M48" s="3">
         <v>2.0477346159587499</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="3">
         <v>4.8237612232843503</v>
       </c>
-      <c r="O48" s="18">
+      <c r="O48" s="3">
         <v>5.2151120570111802</v>
       </c>
-      <c r="P48" s="18">
+      <c r="P48" s="3">
         <v>6.2084699606790101</v>
       </c>
-      <c r="Q48" s="18">
+      <c r="Q48" s="3">
         <v>5.4213386996419999</v>
       </c>
-      <c r="R48" s="18">
+      <c r="R48" s="3">
         <v>6.1351543764888303</v>
       </c>
-      <c r="S48" s="18">
+      <c r="S48" s="3">
         <v>3.0389433424204699</v>
       </c>
-      <c r="T48" s="18">
+      <c r="T48" s="3">
         <v>3.9988355000494802</v>
       </c>
-      <c r="U48" s="18">
+      <c r="U48" s="3">
         <v>3.9988355000494802</v>
       </c>
-      <c r="V48" s="18">
+      <c r="V48" s="3">
         <v>3.6726320596501099</v>
       </c>
-      <c r="W48" s="18">
+      <c r="W48" s="3">
         <v>3.6726320596501099</v>
       </c>
-      <c r="X48" s="18">
+      <c r="X48" s="3">
         <v>5.4949060014670197</v>
       </c>
-      <c r="Y48" s="18">
+      <c r="Y48" s="3">
         <v>6.9240614354612102</v>
       </c>
-      <c r="Z48" s="18">
+      <c r="Z48" s="3">
         <v>5.1447934448077897</v>
       </c>
-      <c r="AA48" s="18">
+      <c r="AA48" s="3">
         <v>4.8141023844323501</v>
       </c>
-      <c r="AB48" s="18">
+      <c r="AB48" s="3">
         <v>4.79143520335069</v>
       </c>
-      <c r="AC48" s="18">
+      <c r="AC48" s="3">
         <v>2.1066691861808602</v>
       </c>
-      <c r="AD48" s="18">
+      <c r="AD48" s="3">
         <v>1.7765189152676399</v>
       </c>
-      <c r="AE48" s="18">
+      <c r="AE48" s="3">
         <v>2.0322224550864201</v>
       </c>
-      <c r="AF48" s="18">
+      <c r="AF48" s="3">
         <v>1.5510391664198599</v>
       </c>
-      <c r="AG48" s="18">
+      <c r="AG48" s="3">
         <v>2.3386690693801602</v>
       </c>
-      <c r="AH48" s="18">
+      <c r="AH48" s="3">
         <v>2.6448072156068299</v>
       </c>
-      <c r="AI48" s="18">
+      <c r="AI48" s="3">
         <v>2.6218394153795601</v>
       </c>
-      <c r="AJ48" s="18">
+      <c r="AJ48" s="3">
         <v>6.7721053977158903</v>
       </c>
-      <c r="AK48" s="18">
+      <c r="AK48" s="3">
         <v>7.55857566849091</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="3">
         <v>3.67421535002787</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="3">
         <v>2.9172302506335801</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="3">
         <v>2.85218756390957</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="3">
         <v>4.1883027924661604</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="3">
         <v>2.8646553322254298</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="3">
         <v>2.4403462542742602</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="3">
         <v>6.4031743025789201</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="3">
         <v>4.1051830411515704</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="3">
         <v>2.8871762308414701</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="3">
         <v>5.6093760254238401</v>
       </c>
-      <c r="O49" s="18">
+      <c r="O49" s="3">
         <v>5.9037520049936001</v>
       </c>
-      <c r="P49" s="18">
+      <c r="P49" s="3">
         <v>7.3537112183717301</v>
       </c>
-      <c r="Q49" s="18">
+      <c r="Q49" s="3">
         <v>5.9508824133856901</v>
       </c>
-      <c r="R49" s="18">
+      <c r="R49" s="3">
         <v>6.6542140427233001</v>
       </c>
-      <c r="S49" s="18">
+      <c r="S49" s="3">
         <v>4.3334548735430696</v>
       </c>
-      <c r="T49" s="18">
+      <c r="T49" s="3">
         <v>5.0181012379771603</v>
       </c>
-      <c r="U49" s="18">
+      <c r="U49" s="3">
         <v>5.0181012379771603</v>
       </c>
-      <c r="V49" s="18">
+      <c r="V49" s="3">
         <v>4.9703986208898501</v>
       </c>
-      <c r="W49" s="18">
+      <c r="W49" s="3">
         <v>4.9703986208898501</v>
       </c>
-      <c r="X49" s="18">
+      <c r="X49" s="3">
         <v>6.6217791530454102</v>
       </c>
-      <c r="Y49" s="18">
+      <c r="Y49" s="3">
         <v>7.93916819626366</v>
       </c>
-      <c r="Z49" s="18">
+      <c r="Z49" s="3">
         <v>6.0735200280388701</v>
       </c>
-      <c r="AA49" s="18">
+      <c r="AA49" s="3">
         <v>5.6381546889920902</v>
       </c>
-      <c r="AB49" s="18">
+      <c r="AB49" s="3">
         <v>5.6961962674324003</v>
       </c>
-      <c r="AC49" s="18">
+      <c r="AC49" s="3">
         <v>3.42011167871657</v>
       </c>
-      <c r="AD49" s="18">
+      <c r="AD49" s="3">
         <v>0.97244655411316305</v>
       </c>
-      <c r="AE49" s="18">
+      <c r="AE49" s="3">
         <v>0.73027743722802496</v>
       </c>
-      <c r="AF49" s="18">
+      <c r="AF49" s="3">
         <v>2.2840553167259499</v>
       </c>
-      <c r="AG49" s="18">
+      <c r="AG49" s="3">
         <v>1.1551379561297099</v>
       </c>
-      <c r="AH49" s="18">
+      <c r="AH49" s="3">
         <v>3.2815857995667002</v>
       </c>
-      <c r="AI49" s="18">
+      <c r="AI49" s="3">
         <v>1.92542689660016</v>
       </c>
-      <c r="AJ49" s="18">
+      <c r="AJ49" s="3">
         <v>6.2248872616393696</v>
       </c>
-      <c r="AK49" s="18">
+      <c r="AK49" s="3">
         <v>6.65639133899833</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="3">
         <v>3.3636826557191002</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="3">
         <v>3.01703609032247</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="3">
         <v>3.0761774900576602</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="3">
         <v>4.3372300354771598</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="3">
         <v>3.32496941970218</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="3">
         <v>2.9621505841472402</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="3">
         <v>6.68662889276996</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="3">
         <v>4.7034703702800202</v>
       </c>
-      <c r="M50" s="18">
+      <c r="M50" s="3">
         <v>3.1467162411138898</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N50" s="3">
         <v>5.1190642475140704</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O50" s="3">
         <v>5.4232243465516303</v>
       </c>
-      <c r="P50" s="18">
+      <c r="P50" s="3">
         <v>7.2505138133563598</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="Q50" s="3">
         <v>5.3025133235866004</v>
       </c>
-      <c r="R50" s="18">
+      <c r="R50" s="3">
         <v>5.9061368120556601</v>
       </c>
-      <c r="S50" s="18">
+      <c r="S50" s="3">
         <v>3.6761192601047501</v>
       </c>
-      <c r="T50" s="18">
+      <c r="T50" s="3">
         <v>4.1839547843543698</v>
       </c>
-      <c r="U50" s="18">
+      <c r="U50" s="3">
         <v>4.1839547843543698</v>
       </c>
-      <c r="V50" s="18">
+      <c r="V50" s="3">
         <v>4.2966679903090004</v>
       </c>
-      <c r="W50" s="18">
+      <c r="W50" s="3">
         <v>4.2966679903090004</v>
       </c>
-      <c r="X50" s="18">
+      <c r="X50" s="3">
         <v>5.8612136310462501</v>
       </c>
-      <c r="Y50" s="18">
+      <c r="Y50" s="3">
         <v>7.0688010059002799</v>
       </c>
-      <c r="Z50" s="18">
+      <c r="Z50" s="3">
         <v>5.9490703252908599</v>
       </c>
-      <c r="AA50" s="18">
+      <c r="AA50" s="3">
         <v>5.3324555539779901</v>
       </c>
-      <c r="AB50" s="18">
+      <c r="AB50" s="3">
         <v>5.54387696354721</v>
       </c>
-      <c r="AC50" s="18">
+      <c r="AC50" s="3">
         <v>3.5597970989950101</v>
       </c>
-      <c r="AD50" s="18">
+      <c r="AD50" s="3">
         <v>0.80511173625034804</v>
       </c>
-      <c r="AE50" s="18">
+      <c r="AE50" s="3">
         <v>0.92663986138632803</v>
       </c>
-      <c r="AF50" s="18">
+      <c r="AF50" s="3">
         <v>1.86202758269124</v>
       </c>
-      <c r="AG50" s="18">
+      <c r="AG50" s="3">
         <v>0.94606999200550301</v>
       </c>
-      <c r="AH50" s="18">
+      <c r="AH50" s="3">
         <v>2.48792744631263</v>
       </c>
-      <c r="AI50" s="18">
+      <c r="AI50" s="3">
         <v>1.3497642589341201</v>
       </c>
-      <c r="AJ50" s="18">
+      <c r="AJ50" s="3">
         <v>5.6062201130988996</v>
       </c>
-      <c r="AK50" s="18">
+      <c r="AK50" s="3">
         <v>6.2403798407346196</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="3">
         <v>6.4443385860186799</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="3">
         <v>6.0403456994356404</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="3">
         <v>5.64545822122159</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="3">
         <v>6.8954765323949001</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="3">
         <v>5.71768510592646</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="3">
         <v>5.2325766750806597</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="3">
         <v>9.6399489104738301</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="3">
         <v>7.0147180485754204</v>
       </c>
-      <c r="M51" s="18">
+      <c r="M51" s="3">
         <v>6.25778447420387</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N51" s="3">
         <v>8.7781131561088408</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O51" s="3">
         <v>8.9851344822324908</v>
       </c>
-      <c r="P51" s="18">
+      <c r="P51" s="3">
         <v>10.796378934510299</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="Q51" s="3">
         <v>8.7706635137662303</v>
       </c>
-      <c r="R51" s="18">
+      <c r="R51" s="3">
         <v>9.3275044552671709</v>
       </c>
-      <c r="S51" s="18">
+      <c r="S51" s="3">
         <v>7.42401075892107</v>
       </c>
-      <c r="T51" s="18">
+      <c r="T51" s="3">
         <v>7.99011088077898</v>
       </c>
-      <c r="U51" s="18">
+      <c r="U51" s="3">
         <v>7.99011088077898</v>
       </c>
-      <c r="V51" s="18">
+      <c r="V51" s="3">
         <v>7.9936522129537</v>
       </c>
-      <c r="W51" s="18">
+      <c r="W51" s="3">
         <v>7.9936522129537</v>
       </c>
-      <c r="X51" s="18">
+      <c r="X51" s="3">
         <v>9.7181592303216302</v>
       </c>
-      <c r="Y51" s="18">
+      <c r="Y51" s="3">
         <v>10.7714796394232</v>
       </c>
-      <c r="Z51" s="18">
+      <c r="Z51" s="3">
         <v>9.4216581075571497</v>
       </c>
-      <c r="AA51" s="18">
+      <c r="AA51" s="3">
         <v>8.90319677309021</v>
       </c>
-      <c r="AB51" s="18">
+      <c r="AB51" s="3">
         <v>9.0377919485463405</v>
       </c>
-      <c r="AC51" s="18">
+      <c r="AC51" s="3">
         <v>6.4276668967645199</v>
       </c>
-      <c r="AD51" s="18">
+      <c r="AD51" s="3">
         <v>3.3491621648003802</v>
       </c>
-      <c r="AE51" s="18">
+      <c r="AE51" s="3">
         <v>3.2862091895821202</v>
       </c>
-      <c r="AF51" s="18">
+      <c r="AF51" s="3">
         <v>4.90927703943946</v>
       </c>
-      <c r="AG51" s="18">
+      <c r="AG51" s="3">
         <v>3.1533672010654499</v>
       </c>
-      <c r="AH51" s="18">
+      <c r="AH51" s="3">
         <v>5.5783087463491796</v>
       </c>
-      <c r="AI51" s="18">
+      <c r="AI51" s="3">
         <v>4.12738220682854</v>
       </c>
-      <c r="AJ51" s="18">
+      <c r="AJ51" s="3">
         <v>7.1654838119151396</v>
       </c>
-      <c r="AK51" s="18">
+      <c r="AK51" s="3">
         <v>6.69141965850703</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="3">
         <v>3.9461422085365299</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="3">
         <v>3.2812541449213701</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="3">
         <v>2.83444467683527</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="3">
         <v>4.0868451368000898</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="3">
         <v>2.8780185753801999</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="3">
         <v>2.3946874738045301</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="3">
         <v>7.0982177213725697</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L52" s="3">
         <v>4.5487758168719203</v>
       </c>
-      <c r="M52" s="18">
+      <c r="M52" s="3">
         <v>3.6702857198929899</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N52" s="3">
         <v>6.3367560718156</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O52" s="3">
         <v>6.5258786017592003</v>
       </c>
-      <c r="P52" s="18">
+      <c r="P52" s="3">
         <v>8.1349052107763296</v>
       </c>
-      <c r="Q52" s="18">
+      <c r="Q52" s="3">
         <v>6.5655380333833602</v>
       </c>
-      <c r="R52" s="18">
+      <c r="R52" s="3">
         <v>7.3102597689673399</v>
       </c>
-      <c r="S52" s="18">
+      <c r="S52" s="3">
         <v>5.8106768150239603</v>
       </c>
-      <c r="T52" s="18">
+      <c r="T52" s="3">
         <v>6.29690099507933</v>
       </c>
-      <c r="U52" s="18">
+      <c r="U52" s="3">
         <v>6.29690099507933</v>
       </c>
-      <c r="V52" s="18">
+      <c r="V52" s="3">
         <v>6.4597926522065503</v>
       </c>
-      <c r="W52" s="18">
+      <c r="W52" s="3">
         <v>6.4597926522065503</v>
       </c>
-      <c r="X52" s="18">
+      <c r="X52" s="3">
         <v>7.8440686245046596</v>
       </c>
-      <c r="Y52" s="18">
+      <c r="Y52" s="3">
         <v>9.1495399892858096</v>
       </c>
-      <c r="Z52" s="18">
+      <c r="Z52" s="3">
         <v>6.7018569754751196</v>
       </c>
-      <c r="AA52" s="18">
+      <c r="AA52" s="3">
         <v>6.2852404293863202</v>
       </c>
-      <c r="AB52" s="18">
+      <c r="AB52" s="3">
         <v>6.3357869131300903</v>
       </c>
-      <c r="AC52" s="18">
+      <c r="AC52" s="3">
         <v>4.7857366418280796</v>
       </c>
-      <c r="AD52" s="18">
+      <c r="AD52" s="3">
         <v>2.25103833935946</v>
       </c>
-      <c r="AE52" s="18">
+      <c r="AE52" s="3">
         <v>1.4236182985805801</v>
       </c>
-      <c r="AF52" s="18">
+      <c r="AF52" s="3">
         <v>3.8432266956388301</v>
       </c>
-      <c r="AG52" s="18">
+      <c r="AG52" s="3">
         <v>1.7259968235968399</v>
       </c>
-      <c r="AH52" s="18">
+      <c r="AH52" s="3">
         <v>4.7536712231285296</v>
       </c>
-      <c r="AI52" s="18">
+      <c r="AI52" s="3">
         <v>2.36664002880475</v>
       </c>
-      <c r="AJ52" s="18">
+      <c r="AJ52" s="3">
         <v>6.0606611996804904</v>
       </c>
-      <c r="AK52" s="18">
+      <c r="AK52" s="3">
         <v>6.0814452235656598</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="3">
         <v>5.4387279380539102</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="3">
         <v>5.3025382217247703</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="3">
         <v>4.8016721661061803</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="3">
         <v>5.9403067524719297</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="3">
         <v>5.0627462110464698</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="3">
         <v>4.5934405076410796</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="3">
         <v>9.3792783883849609</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L53" s="3">
         <v>6.8362525593990098</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="3">
         <v>5.8724262927556099</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53" s="3">
         <v>7.9337260251354804</v>
       </c>
-      <c r="O53" s="18">
+      <c r="O53" s="3">
         <v>8.0673196920664498</v>
       </c>
-      <c r="P53" s="18">
+      <c r="P53" s="3">
         <v>10.2310400552799</v>
       </c>
-      <c r="Q53" s="18">
+      <c r="Q53" s="3">
         <v>7.7913200704362602</v>
       </c>
-      <c r="R53" s="18">
+      <c r="R53" s="3">
         <v>8.3456778687382798</v>
       </c>
-      <c r="S53" s="18">
+      <c r="S53" s="3">
         <v>7.2497296490613197</v>
       </c>
-      <c r="T53" s="18">
+      <c r="T53" s="3">
         <v>7.5392640146999899</v>
       </c>
-      <c r="U53" s="18">
+      <c r="U53" s="3">
         <v>7.5392640146999899</v>
       </c>
-      <c r="V53" s="18">
+      <c r="V53" s="3">
         <v>7.85065628429847</v>
       </c>
-      <c r="W53" s="18">
+      <c r="W53" s="3">
         <v>7.85065628429847</v>
       </c>
-      <c r="X53" s="18">
+      <c r="X53" s="3">
         <v>9.2018094324794308</v>
       </c>
-      <c r="Y53" s="18">
+      <c r="Y53" s="3">
         <v>10.239161702210801</v>
       </c>
-      <c r="Z53" s="18">
+      <c r="Z53" s="3">
         <v>8.71080022992777</v>
       </c>
-      <c r="AA53" s="18">
+      <c r="AA53" s="3">
         <v>8.0915500581424702</v>
       </c>
-      <c r="AB53" s="18">
+      <c r="AB53" s="3">
         <v>8.3153270736805904</v>
       </c>
-      <c r="AC53" s="18">
+      <c r="AC53" s="3">
         <v>6.63879135288144</v>
       </c>
-      <c r="AD53" s="18">
+      <c r="AD53" s="3">
         <v>3.3219472229290501</v>
       </c>
-      <c r="AE53" s="18">
+      <c r="AE53" s="3">
         <v>2.8363297599963002</v>
       </c>
-      <c r="AF53" s="18">
+      <c r="AF53" s="3">
         <v>5.0684176709650801</v>
       </c>
-      <c r="AG53" s="18">
+      <c r="AG53" s="3">
         <v>2.6664465234605501</v>
       </c>
-      <c r="AH53" s="18">
+      <c r="AH53" s="3">
         <v>5.6232539763344498</v>
       </c>
-      <c r="AI53" s="18">
+      <c r="AI53" s="3">
         <v>3.30848368238204</v>
       </c>
-      <c r="AJ53" s="18">
+      <c r="AJ53" s="3">
         <v>5.8386264319496597</v>
       </c>
-      <c r="AK53" s="18">
+      <c r="AK53" s="3">
         <v>5.2802026534616102</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="3">
         <v>2.9592612993822498</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="3">
         <v>2.5012140225136199</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="3">
         <v>2.0780326697273899</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="3">
         <v>3.3488049948671699</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="3">
         <v>2.38148504344707</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="3">
         <v>1.92859586744209</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="3">
         <v>6.71841112648025</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L54" s="3">
         <v>4.4087723537996997</v>
       </c>
-      <c r="M54" s="18">
+      <c r="M54" s="3">
         <v>3.1687365913143899</v>
       </c>
-      <c r="N54" s="18">
+      <c r="N54" s="3">
         <v>5.38195325240501</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O54" s="3">
         <v>5.5553004100249801</v>
       </c>
-      <c r="P54" s="18">
+      <c r="P54" s="3">
         <v>7.4276599652319604</v>
       </c>
-      <c r="Q54" s="18">
+      <c r="Q54" s="3">
         <v>5.5594983715196697</v>
       </c>
-      <c r="R54" s="18">
+      <c r="R54" s="3">
         <v>6.3059793963183797</v>
       </c>
-      <c r="S54" s="18">
+      <c r="S54" s="3">
         <v>5.1837089553936302</v>
       </c>
-      <c r="T54" s="18">
+      <c r="T54" s="3">
         <v>5.4865331938798398</v>
       </c>
-      <c r="U54" s="18">
+      <c r="U54" s="3">
         <v>5.4865331938798398</v>
       </c>
-      <c r="V54" s="18">
+      <c r="V54" s="3">
         <v>5.8364829889768099</v>
       </c>
-      <c r="W54" s="18">
+      <c r="W54" s="3">
         <v>5.8364829889768099</v>
       </c>
-      <c r="X54" s="18">
+      <c r="X54" s="3">
         <v>6.9851724251302603</v>
       </c>
-      <c r="Y54" s="18">
+      <c r="Y54" s="3">
         <v>8.2800674433643398</v>
       </c>
-      <c r="Z54" s="18">
+      <c r="Z54" s="3">
         <v>5.9196848377198998</v>
       </c>
-      <c r="AA54" s="18">
+      <c r="AA54" s="3">
         <v>5.3919168889057003</v>
       </c>
-      <c r="AB54" s="18">
+      <c r="AB54" s="3">
         <v>5.5324364880044099</v>
       </c>
-      <c r="AC54" s="18">
+      <c r="AC54" s="3">
         <v>4.6182048304130499</v>
       </c>
-      <c r="AD54" s="18">
+      <c r="AD54" s="3">
         <v>2.1540632479876902</v>
       </c>
-      <c r="AE54" s="18">
+      <c r="AE54" s="3">
         <v>1.1024363498016501</v>
       </c>
-      <c r="AF54" s="18">
+      <c r="AF54" s="3">
         <v>3.60264204480869</v>
       </c>
-      <c r="AG54" s="18">
+      <c r="AG54" s="3">
         <v>1.4124770808915701</v>
       </c>
-      <c r="AH54" s="18">
+      <c r="AH54" s="3">
         <v>4.3539275472281398</v>
       </c>
-      <c r="AI54" s="18">
+      <c r="AI54" s="3">
         <v>1.55853315285549</v>
       </c>
-      <c r="AJ54" s="18">
+      <c r="AJ54" s="3">
         <v>5.2965388781106499</v>
       </c>
-      <c r="AK54" s="18">
+      <c r="AK54" s="3">
         <v>5.5626301014186099</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="3">
         <v>5.6301528907381799</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="3">
         <v>5.0287573472667297</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="3">
         <v>4.7279779287440498</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="3">
         <v>6.0351844412770399</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="3">
         <v>4.7083371250332</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J55" s="3">
         <v>4.2286979565776797</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="3">
         <v>8.4130654545545305</v>
       </c>
-      <c r="L55" s="18">
+      <c r="L55" s="3">
         <v>5.8275230167705603</v>
       </c>
-      <c r="M55" s="18">
+      <c r="M55" s="3">
         <v>5.07100969082307</v>
       </c>
-      <c r="N55" s="18">
+      <c r="N55" s="3">
         <v>7.8292999446972296</v>
       </c>
-      <c r="O55" s="18">
+      <c r="O55" s="3">
         <v>8.07997216555842</v>
       </c>
-      <c r="P55" s="18">
+      <c r="P55" s="3">
         <v>9.6365726755860397</v>
       </c>
-      <c r="Q55" s="18">
+      <c r="Q55" s="3">
         <v>7.9798772152371402</v>
       </c>
-      <c r="R55" s="18">
+      <c r="R55" s="3">
         <v>8.5975945760078094</v>
       </c>
-      <c r="S55" s="18">
+      <c r="S55" s="3">
         <v>6.3314568825308601</v>
       </c>
-      <c r="T55" s="18">
+      <c r="T55" s="3">
         <v>7.0309406237751304</v>
       </c>
-      <c r="U55" s="18">
+      <c r="U55" s="3">
         <v>7.0309406237751304</v>
       </c>
-      <c r="V55" s="18">
+      <c r="V55" s="3">
         <v>6.9153441646961804</v>
       </c>
-      <c r="W55" s="18">
+      <c r="W55" s="3">
         <v>6.9153441646961804</v>
       </c>
-      <c r="X55" s="18">
+      <c r="X55" s="3">
         <v>8.7346561781474499</v>
       </c>
-      <c r="Y55" s="18">
+      <c r="Y55" s="3">
         <v>9.8937606033014802</v>
       </c>
-      <c r="Z55" s="18">
+      <c r="Z55" s="3">
         <v>8.3397979563886793</v>
       </c>
-      <c r="AA55" s="18">
+      <c r="AA55" s="3">
         <v>7.8963712839789704</v>
       </c>
-      <c r="AB55" s="18">
+      <c r="AB55" s="3">
         <v>7.9666154248884702</v>
       </c>
-      <c r="AC55" s="18">
+      <c r="AC55" s="3">
         <v>5.1523015382686603</v>
       </c>
-      <c r="AD55" s="18">
+      <c r="AD55" s="3">
         <v>2.2650093240632998</v>
       </c>
-      <c r="AE55" s="18">
+      <c r="AE55" s="3">
         <v>2.2953463136668701</v>
       </c>
-      <c r="AF55" s="18">
+      <c r="AF55" s="3">
         <v>3.7911789510648601</v>
       </c>
-      <c r="AG55" s="18">
+      <c r="AG55" s="3">
         <v>2.2854752802782499</v>
       </c>
-      <c r="AH55" s="18">
+      <c r="AH55" s="3">
         <v>4.6435570922356302</v>
       </c>
-      <c r="AI55" s="18">
+      <c r="AI55" s="3">
         <v>3.3930666682704298</v>
       </c>
-      <c r="AJ55" s="18">
+      <c r="AJ55" s="3">
         <v>7.0636870537231102</v>
       </c>
-      <c r="AK55" s="18">
+      <c r="AK55" s="3">
         <v>6.9092972737239799</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="3">
         <v>3.6632776067715498</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="3">
         <v>2.9890807110475901</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="3">
         <v>2.9159689313086199</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="3">
         <v>4.25133971695276</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="3">
         <v>2.9793319124379298</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="3">
         <v>2.5531042395680301</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="3">
         <v>6.5500752941678098</v>
       </c>
-      <c r="L56" s="18">
+      <c r="L56" s="3">
         <v>4.2773882452633698</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M56" s="3">
         <v>3.01588230316551</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N56" s="3">
         <v>5.6156269294020804</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O56" s="3">
         <v>5.9056312461424803</v>
       </c>
-      <c r="P56" s="18">
+      <c r="P56" s="3">
         <v>7.4451572548177296</v>
       </c>
-      <c r="Q56" s="18">
+      <c r="Q56" s="3">
         <v>5.9131208081541802</v>
       </c>
-      <c r="R56" s="18">
+      <c r="R56" s="3">
         <v>6.59736792410283</v>
       </c>
-      <c r="S56" s="18">
+      <c r="S56" s="3">
         <v>4.3266924401193796</v>
       </c>
-      <c r="T56" s="18">
+      <c r="T56" s="3">
         <v>4.9745377815690901</v>
       </c>
-      <c r="U56" s="18">
+      <c r="U56" s="3">
         <v>4.9745377815690901</v>
       </c>
-      <c r="V56" s="18">
+      <c r="V56" s="3">
         <v>4.9606831503218203</v>
       </c>
-      <c r="W56" s="18">
+      <c r="W56" s="3">
         <v>4.9606831503218203</v>
       </c>
-      <c r="X56" s="18">
+      <c r="X56" s="3">
         <v>6.5978651264481796</v>
       </c>
-      <c r="Y56" s="18">
+      <c r="Y56" s="3">
         <v>7.8878738126731296</v>
       </c>
-      <c r="Z56" s="18">
+      <c r="Z56" s="3">
         <v>6.1493742613856197</v>
       </c>
-      <c r="AA56" s="18">
+      <c r="AA56" s="3">
         <v>5.6777763787670699</v>
       </c>
-      <c r="AB56" s="18">
+      <c r="AB56" s="3">
         <v>5.7658568880817302</v>
       </c>
-      <c r="AC56" s="18">
+      <c r="AC56" s="3">
         <v>3.5305032748737299</v>
       </c>
-      <c r="AD56" s="18">
+      <c r="AD56" s="3">
         <v>0.84303659904717498</v>
       </c>
-      <c r="AE56" s="18">
+      <c r="AE56" s="3">
         <v>0.58747849762720705</v>
       </c>
-      <c r="AF56" s="18">
+      <c r="AF56" s="3">
         <v>2.2628193977545998</v>
       </c>
-      <c r="AG56" s="18">
+      <c r="AG56" s="3">
         <v>0.98022139119644303</v>
       </c>
-      <c r="AH56" s="18">
+      <c r="AH56" s="3">
         <v>3.2036067671344202</v>
       </c>
-      <c r="AI56" s="18">
+      <c r="AI56" s="3">
         <v>1.7955719640201599</v>
       </c>
-      <c r="AJ56" s="18">
+      <c r="AJ56" s="3">
         <v>6.09626415278409</v>
       </c>
-      <c r="AK56" s="18">
+      <c r="AK56" s="3">
         <v>6.5245665406878599</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="3">
         <v>3.0150524229276701</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="3">
         <v>2.8471095639604602</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="3">
         <v>3.5881646223211701</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="3">
         <v>3.8322143258630801</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="3">
         <v>3.7766067348178498</v>
       </c>
-      <c r="J57" s="18">
+      <c r="J57" s="3">
         <v>3.9263877629680901</v>
       </c>
-      <c r="K57" s="18">
+      <c r="K57" s="3">
         <v>4.4274627070378303</v>
       </c>
-      <c r="L57" s="18">
+      <c r="L57" s="3">
         <v>4.2945940000402798</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M57" s="3">
         <v>2.6387533627033801</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N57" s="3">
         <v>2.1553962114701202</v>
       </c>
-      <c r="O57" s="18">
+      <c r="O57" s="3">
         <v>2.6688597991885898</v>
       </c>
-      <c r="P57" s="18">
+      <c r="P57" s="3">
         <v>3.7515703074312601</v>
       </c>
-      <c r="Q57" s="18">
+      <c r="Q57" s="3">
         <v>3.18426025997318</v>
       </c>
-      <c r="R57" s="18">
+      <c r="R57" s="3">
         <v>3.8939615336707099</v>
       </c>
-      <c r="S57" s="18">
+      <c r="S57" s="3">
         <v>2.1912408343204799</v>
       </c>
-      <c r="T57" s="18">
+      <c r="T57" s="3">
         <v>2.22930675412477</v>
       </c>
-      <c r="U57" s="18">
+      <c r="U57" s="3">
         <v>2.22930675412477</v>
       </c>
-      <c r="V57" s="18">
+      <c r="V57" s="3">
         <v>2.5959623446130098</v>
       </c>
-      <c r="W57" s="18">
+      <c r="W57" s="3">
         <v>2.5959623446130098</v>
       </c>
-      <c r="X57" s="18">
+      <c r="X57" s="3">
         <v>2.8899154944281298</v>
       </c>
-      <c r="Y57" s="18">
+      <c r="Y57" s="3">
         <v>4.5587835761442301</v>
       </c>
-      <c r="Z57" s="18">
+      <c r="Z57" s="3">
         <v>2.7953316601796998</v>
       </c>
-      <c r="AA57" s="18">
+      <c r="AA57" s="3">
         <v>2.2618586672364702</v>
       </c>
-      <c r="AB57" s="18">
+      <c r="AB57" s="3">
         <v>2.4544579145811301</v>
       </c>
-      <c r="AC57" s="18">
+      <c r="AC57" s="3">
         <v>3.5981631009733901</v>
       </c>
-      <c r="AD57" s="18">
+      <c r="AD57" s="3">
         <v>4.5215644401277499</v>
       </c>
-      <c r="AE57" s="18">
+      <c r="AE57" s="3">
         <v>4.4744735502959401</v>
       </c>
-      <c r="AF57" s="18">
+      <c r="AF57" s="3">
         <v>3.81322013711622</v>
       </c>
-      <c r="AG57" s="18">
+      <c r="AG57" s="3">
         <v>4.66095433925602</v>
       </c>
-      <c r="AH57" s="18">
+      <c r="AH57" s="3">
         <v>3.90018351504931</v>
       </c>
-      <c r="AI57" s="18">
+      <c r="AI57" s="3">
         <v>4.0857571935483703</v>
       </c>
-      <c r="AJ57" s="18">
+      <c r="AJ57" s="3">
         <v>6.6085737970148104</v>
       </c>
-      <c r="AK57" s="18">
+      <c r="AK57" s="3">
         <v>8.0139384453469997</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="3">
         <v>2.5171700746401902</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="3">
         <v>1.5702514770015801</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="3">
         <v>2.16700264590723</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="3">
         <v>3.0491326719114502</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="3">
         <v>2.1997052751244701</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J58" s="3">
         <v>2.1691427296934802</v>
       </c>
-      <c r="K58" s="18">
+      <c r="K58" s="3">
         <v>4.5782420367966301</v>
       </c>
-      <c r="L58" s="18">
+      <c r="L58" s="3">
         <v>3.1383096642600101</v>
       </c>
-      <c r="M58" s="18">
+      <c r="M58" s="3">
         <v>1.22007604850249</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N58" s="3">
         <v>3.53650832854456</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O58" s="3">
         <v>3.91385730418531</v>
       </c>
-      <c r="P58" s="18">
+      <c r="P58" s="3">
         <v>5.0308213162489697</v>
       </c>
-      <c r="Q58" s="18">
+      <c r="Q58" s="3">
         <v>4.2840267327519799</v>
       </c>
-      <c r="R58" s="18">
+      <c r="R58" s="3">
         <v>5.10181598390409</v>
       </c>
-      <c r="S58" s="18">
+      <c r="S58" s="3">
         <v>2.9189026324701999</v>
       </c>
-      <c r="T58" s="18">
+      <c r="T58" s="3">
         <v>3.4909104159473499</v>
       </c>
-      <c r="U58" s="18">
+      <c r="U58" s="3">
         <v>3.4909104159473499</v>
       </c>
-      <c r="V58" s="18">
+      <c r="V58" s="3">
         <v>3.5573525309081799</v>
       </c>
-      <c r="W58" s="18">
+      <c r="W58" s="3">
         <v>3.5573525309081799</v>
       </c>
-      <c r="X58" s="18">
+      <c r="X58" s="3">
         <v>4.7468319200928404</v>
       </c>
-      <c r="Y58" s="18">
+      <c r="Y58" s="3">
         <v>6.2933310036752301</v>
       </c>
-      <c r="Z58" s="18">
+      <c r="Z58" s="3">
         <v>3.8130425335477298</v>
       </c>
-      <c r="AA58" s="18">
+      <c r="AA58" s="3">
         <v>3.4430354355775501</v>
       </c>
-      <c r="AB58" s="18">
+      <c r="AB58" s="3">
         <v>3.4401350528752399</v>
       </c>
-      <c r="AC58" s="18">
+      <c r="AC58" s="3">
         <v>2.7241765194068401</v>
       </c>
-      <c r="AD58" s="18">
+      <c r="AD58" s="3">
         <v>2.8309370365967501</v>
       </c>
-      <c r="AE58" s="18">
+      <c r="AE58" s="3">
         <v>2.6470329097059002</v>
       </c>
-      <c r="AF58" s="18">
+      <c r="AF58" s="3">
         <v>2.6851588873763701</v>
       </c>
-      <c r="AG58" s="18">
+      <c r="AG58" s="3">
         <v>2.9625607389454198</v>
       </c>
-      <c r="AH58" s="18">
+      <c r="AH58" s="3">
         <v>3.3726479063752599</v>
       </c>
-      <c r="AI58" s="18">
+      <c r="AI58" s="3">
         <v>2.6964049173686302</v>
       </c>
-      <c r="AJ58" s="18">
+      <c r="AJ58" s="3">
         <v>6.2939107577345901</v>
       </c>
-      <c r="AK58" s="18">
+      <c r="AK58" s="3">
         <v>7.2816767629697301</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="3">
         <v>1.30296600455255</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="3">
         <v>0.80509917035268197</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="3">
         <v>0.88367900674653399</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="3">
         <v>1.9001052599677</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="3">
         <v>1.57714824924243</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="3">
         <v>1.50260985340095</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K59" s="3">
         <v>5.4006641852276198</v>
       </c>
-      <c r="L59" s="18">
+      <c r="L59" s="3">
         <v>3.7465247423288801</v>
       </c>
-      <c r="M59" s="18">
+      <c r="M59" s="3">
         <v>2.0539358529495999</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N59" s="3">
         <v>3.4919082204006799</v>
       </c>
-      <c r="O59" s="18">
+      <c r="O59" s="3">
         <v>3.6723019406576198</v>
       </c>
-      <c r="P59" s="18">
+      <c r="P59" s="3">
         <v>5.5919504372284399</v>
       </c>
-      <c r="Q59" s="18">
+      <c r="Q59" s="3">
         <v>3.90445141163559</v>
       </c>
-      <c r="R59" s="18">
+      <c r="R59" s="3">
         <v>4.7825259149617798</v>
       </c>
-      <c r="S59" s="18">
+      <c r="S59" s="3">
         <v>4.2323455065802698</v>
       </c>
-      <c r="T59" s="18">
+      <c r="T59" s="3">
         <v>4.2879532349970901</v>
       </c>
-      <c r="U59" s="18">
+      <c r="U59" s="3">
         <v>4.2879532349970901</v>
       </c>
-      <c r="V59" s="18">
+      <c r="V59" s="3">
         <v>4.86175468241776</v>
       </c>
-      <c r="W59" s="18">
+      <c r="W59" s="3">
         <v>4.86175468241776</v>
       </c>
-      <c r="X59" s="18">
+      <c r="X59" s="3">
         <v>5.4909476357885003</v>
       </c>
-      <c r="Y59" s="18">
+      <c r="Y59" s="3">
         <v>6.9140674158484998</v>
       </c>
-      <c r="Z59" s="18">
+      <c r="Z59" s="3">
         <v>4.0101396799608997</v>
       </c>
-      <c r="AA59" s="18">
+      <c r="AA59" s="3">
         <v>3.4271928279668602</v>
       </c>
-      <c r="AB59" s="18">
+      <c r="AB59" s="3">
         <v>3.6077104309036998</v>
       </c>
-      <c r="AC59" s="18">
+      <c r="AC59" s="3">
         <v>4.2554060700876404</v>
       </c>
-      <c r="AD59" s="18">
+      <c r="AD59" s="3">
         <v>3.1502164138647202</v>
       </c>
-      <c r="AE59" s="18">
+      <c r="AE59" s="3">
         <v>2.4225782772311701</v>
       </c>
-      <c r="AF59" s="18">
+      <c r="AF59" s="3">
         <v>3.78232288485043</v>
       </c>
-      <c r="AG59" s="18">
+      <c r="AG59" s="3">
         <v>2.7069237370291699</v>
       </c>
-      <c r="AH59" s="18">
+      <c r="AH59" s="3">
         <v>4.3398652615693996</v>
       </c>
-      <c r="AI59" s="18">
+      <c r="AI59" s="3">
         <v>2.0746952438405502</v>
       </c>
-      <c r="AJ59" s="18">
+      <c r="AJ59" s="3">
         <v>5.1310785272024502</v>
       </c>
-      <c r="AK59" s="18">
+      <c r="AK59" s="3">
         <v>5.9649085235249002</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="3">
         <v>2.0535306839876202</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="3">
         <v>2.2213419852304299</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="3">
         <v>1.80521098078758</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="3">
         <v>2.85717453447239</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="3">
         <v>2.4989729846261701</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="3">
         <v>2.1845330172893598</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K60" s="3">
         <v>6.8109464757331502</v>
       </c>
-      <c r="L60" s="18">
+      <c r="L60" s="3">
         <v>4.8303093162955602</v>
       </c>
-      <c r="M60" s="18">
+      <c r="M60" s="3">
         <v>3.3190629270282002</v>
       </c>
-      <c r="N60" s="18">
+      <c r="N60" s="3">
         <v>4.6109684915324403</v>
       </c>
-      <c r="O60" s="18">
+      <c r="O60" s="3">
         <v>4.7186244639953996</v>
       </c>
-      <c r="P60" s="18">
+      <c r="P60" s="3">
         <v>7.0679323060506603</v>
       </c>
-      <c r="Q60" s="18">
+      <c r="Q60" s="3">
         <v>4.6081076748374903</v>
       </c>
-      <c r="R60" s="18">
+      <c r="R60" s="3">
         <v>5.3323707003236196</v>
       </c>
-      <c r="S60" s="18">
+      <c r="S60" s="3">
         <v>5.0389253281395403</v>
       </c>
-      <c r="T60" s="18">
+      <c r="T60" s="3">
         <v>5.0071970903636602</v>
       </c>
-      <c r="U60" s="18">
+      <c r="U60" s="3">
         <v>5.0071970903636602</v>
       </c>
-      <c r="V60" s="18">
+      <c r="V60" s="3">
         <v>5.6713567875306499</v>
       </c>
-      <c r="W60" s="18">
+      <c r="W60" s="3">
         <v>5.6713567875306499</v>
       </c>
-      <c r="X60" s="18">
+      <c r="X60" s="3">
         <v>6.4092010343322201</v>
       </c>
-      <c r="Y60" s="18">
+      <c r="Y60" s="3">
         <v>7.6340753977540201</v>
       </c>
-      <c r="Z60" s="18">
+      <c r="Z60" s="3">
         <v>5.4441243218401496</v>
       </c>
-      <c r="AA60" s="18">
+      <c r="AA60" s="3">
         <v>4.7347289054094697</v>
       </c>
-      <c r="AB60" s="18">
+      <c r="AB60" s="3">
         <v>5.0357080367130402</v>
       </c>
-      <c r="AC60" s="18">
+      <c r="AC60" s="3">
         <v>5.08656615048523</v>
       </c>
-      <c r="AD60" s="18">
+      <c r="AD60" s="3">
         <v>2.7618098353129299</v>
       </c>
-      <c r="AE60" s="18">
+      <c r="AE60" s="3">
         <v>1.7851842467096599</v>
       </c>
-      <c r="AF60" s="18">
+      <c r="AF60" s="3">
         <v>3.9873178394372699</v>
       </c>
-      <c r="AG60" s="18">
+      <c r="AG60" s="3">
         <v>1.89675016694528</v>
       </c>
-      <c r="AH60" s="18">
+      <c r="AH60" s="3">
         <v>4.4581023567859104</v>
       </c>
-      <c r="AI60" s="18">
+      <c r="AI60" s="3">
         <v>1.2239860250140899</v>
       </c>
-      <c r="AJ60" s="18">
+      <c r="AJ60" s="3">
         <v>4.3255257141054804</v>
       </c>
-      <c r="AK60" s="18">
+      <c r="AK60" s="3">
         <v>4.8081397299485804</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="3">
         <v>1.8261698415846199</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="3">
         <v>1.8877906276632099</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="3">
         <v>1.31759711280931</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="3">
         <v>2.2558739030258401</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="3">
         <v>2.0791281284514298</v>
       </c>
-      <c r="J61" s="18">
+      <c r="J61" s="3">
         <v>1.83731463378052</v>
       </c>
-      <c r="K61" s="18">
+      <c r="K61" s="3">
         <v>6.4880988368646397</v>
       </c>
-      <c r="L61" s="18">
+      <c r="L61" s="3">
         <v>4.5487101035213602</v>
       </c>
-      <c r="M61" s="18">
+      <c r="M61" s="3">
         <v>3.1508177286599999</v>
       </c>
-      <c r="N61" s="18">
+      <c r="N61" s="3">
         <v>4.4551014359299099</v>
       </c>
-      <c r="O61" s="18">
+      <c r="O61" s="3">
         <v>4.5250149163303002</v>
       </c>
-      <c r="P61" s="18">
+      <c r="P61" s="3">
         <v>6.7500885716800703</v>
       </c>
-      <c r="Q61" s="18">
+      <c r="Q61" s="3">
         <v>4.5505693520432002</v>
       </c>
-      <c r="R61" s="18">
+      <c r="R61" s="3">
         <v>5.3508257750792998</v>
       </c>
-      <c r="S61" s="18">
+      <c r="S61" s="3">
         <v>5.3118876313810999</v>
       </c>
-      <c r="T61" s="18">
+      <c r="T61" s="3">
         <v>5.2650948444394503</v>
       </c>
-      <c r="U61" s="18">
+      <c r="U61" s="3">
         <v>5.2650948444394503</v>
       </c>
-      <c r="V61" s="18">
+      <c r="V61" s="3">
         <v>5.9462521696426904</v>
       </c>
-      <c r="W61" s="18">
+      <c r="W61" s="3">
         <v>5.9462521696426904</v>
       </c>
-      <c r="X61" s="18">
+      <c r="X61" s="3">
         <v>6.5447892103472904</v>
       </c>
-      <c r="Y61" s="18">
+      <c r="Y61" s="3">
         <v>7.8348160296837399</v>
       </c>
-      <c r="Z61" s="18">
+      <c r="Z61" s="3">
         <v>5.0908086635422203</v>
       </c>
-      <c r="AA61" s="18">
+      <c r="AA61" s="3">
         <v>4.4570500458958398</v>
       </c>
-      <c r="AB61" s="18">
+      <c r="AB61" s="3">
         <v>4.7012253784501503</v>
       </c>
-      <c r="AC61" s="18">
+      <c r="AC61" s="3">
         <v>5.2349010008467696</v>
       </c>
-      <c r="AD61" s="18">
+      <c r="AD61" s="3">
         <v>3.2821666869784099</v>
       </c>
-      <c r="AE61" s="18">
+      <c r="AE61" s="3">
         <v>2.2872258185794698</v>
       </c>
-      <c r="AF61" s="18">
+      <c r="AF61" s="3">
         <v>4.4252026368766497</v>
       </c>
-      <c r="AG61" s="18">
+      <c r="AG61" s="3">
         <v>2.4890578612741798</v>
       </c>
-      <c r="AH61" s="18">
+      <c r="AH61" s="3">
         <v>4.9677898100447697</v>
       </c>
-      <c r="AI61" s="18">
+      <c r="AI61" s="3">
         <v>1.87432601867823</v>
       </c>
-      <c r="AJ61" s="18">
+      <c r="AJ61" s="3">
         <v>4.5317795127505001</v>
       </c>
-      <c r="AK61" s="18">
+      <c r="AK61" s="3">
         <v>5.0073431372982604</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="3">
         <v>4.6097129729431101</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="3">
         <v>5.2418562103986499</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="3">
         <v>4.6384191210199903</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="3">
         <v>5.2651358069993401</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I62" s="3">
         <v>5.2888977834569699</v>
       </c>
-      <c r="J62" s="18">
+      <c r="J62" s="3">
         <v>4.9666022594953301</v>
       </c>
-      <c r="K62" s="18">
+      <c r="K62" s="3">
         <v>9.8296456300096295</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L62" s="3">
         <v>7.6896145381940997</v>
       </c>
-      <c r="M62" s="18">
+      <c r="M62" s="3">
         <v>6.4296558351281403</v>
       </c>
-      <c r="N62" s="18">
+      <c r="N62" s="3">
         <v>7.1274867960637298</v>
       </c>
-      <c r="O62" s="18">
+      <c r="O62" s="3">
         <v>7.0712960695160296</v>
       </c>
-      <c r="P62" s="18">
+      <c r="P62" s="3">
         <v>9.9640126331026195</v>
       </c>
-      <c r="Q62" s="18">
+      <c r="Q62" s="3">
         <v>6.6019454105611803</v>
       </c>
-      <c r="R62" s="18">
+      <c r="R62" s="3">
         <v>7.05445248096445</v>
       </c>
-      <c r="S62" s="18">
+      <c r="S62" s="3">
         <v>7.83793734819315</v>
       </c>
-      <c r="T62" s="18">
+      <c r="T62" s="3">
         <v>7.5299619689807997</v>
       </c>
-      <c r="U62" s="18">
+      <c r="U62" s="3">
         <v>7.5299619689807997</v>
       </c>
-      <c r="V62" s="18">
+      <c r="V62" s="3">
         <v>8.4220002296349996</v>
       </c>
-      <c r="W62" s="18">
+      <c r="W62" s="3">
         <v>8.4220002296349996</v>
       </c>
-      <c r="X62" s="18">
+      <c r="X62" s="3">
         <v>8.9216089571277593</v>
       </c>
-      <c r="Y62" s="18">
+      <c r="Y62" s="3">
         <v>9.8001802406928</v>
       </c>
-      <c r="Z62" s="18">
+      <c r="Z62" s="3">
         <v>8.2347091145151392</v>
       </c>
-      <c r="AA62" s="18">
+      <c r="AA62" s="3">
         <v>7.3980344706871204</v>
       </c>
-      <c r="AB62" s="18">
+      <c r="AB62" s="3">
         <v>7.8400400086149196</v>
       </c>
-      <c r="AC62" s="18">
+      <c r="AC62" s="3">
         <v>8.0375413040104497</v>
       </c>
-      <c r="AD62" s="18">
+      <c r="AD62" s="3">
         <v>4.9137180409486696</v>
       </c>
-      <c r="AE62" s="18">
+      <c r="AE62" s="3">
         <v>4.0662968450466996</v>
       </c>
-      <c r="AF62" s="18">
+      <c r="AF62" s="3">
         <v>6.5011709958197299</v>
       </c>
-      <c r="AG62" s="18">
+      <c r="AG62" s="3">
         <v>3.8808313930615301</v>
       </c>
-      <c r="AH62" s="18">
+      <c r="AH62" s="3">
         <v>6.7295272553290104</v>
       </c>
-      <c r="AI62" s="18">
+      <c r="AI62" s="3">
         <v>3.5539696354697501</v>
       </c>
-      <c r="AJ62" s="18">
+      <c r="AJ62" s="3">
         <v>3.5844411498184701</v>
       </c>
-      <c r="AK62" s="18">
+      <c r="AK62" s="3">
         <v>2.6617148063693699</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="3">
         <v>6.7800222859440202</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="3">
         <v>6.6113447467763997</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="3">
         <v>6.1766630829364004</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="3">
         <v>7.3711088724473202</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="3">
         <v>6.3751526249310997</v>
       </c>
-      <c r="J63" s="18">
+      <c r="J63" s="3">
         <v>5.8933228088658103</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K63" s="3">
         <v>10.478873806613301</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L63" s="3">
         <v>7.8948122926267397</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="3">
         <v>7.0022444890844504</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N63" s="3">
         <v>9.1633273129852792</v>
       </c>
-      <c r="O63" s="18">
+      <c r="O63" s="3">
         <v>9.3315456585812697</v>
       </c>
-      <c r="P63" s="18">
+      <c r="P63" s="3">
         <v>11.448711625096101</v>
       </c>
-      <c r="Q63" s="18">
+      <c r="Q63" s="3">
         <v>8.9900588344767893</v>
       </c>
-      <c r="R63" s="18">
+      <c r="R63" s="3">
         <v>9.4700472127140998</v>
       </c>
-      <c r="S63" s="18">
+      <c r="S63" s="3">
         <v>7.9704182752916504</v>
       </c>
-      <c r="T63" s="18">
+      <c r="T63" s="3">
         <v>8.3666873906992301</v>
       </c>
-      <c r="U63" s="18">
+      <c r="U63" s="3">
         <v>8.3666873906992301</v>
       </c>
-      <c r="V63" s="18">
+      <c r="V63" s="3">
         <v>8.5250986959756503</v>
       </c>
-      <c r="W63" s="18">
+      <c r="W63" s="3">
         <v>8.5250986959756503</v>
       </c>
-      <c r="X63" s="18">
+      <c r="X63" s="3">
         <v>10.098042184203701</v>
       </c>
-      <c r="Y63" s="18">
+      <c r="Y63" s="3">
         <v>11.034501630528901</v>
       </c>
-      <c r="Z63" s="18">
+      <c r="Z63" s="3">
         <v>9.9975422705239598</v>
       </c>
-      <c r="AA63" s="18">
+      <c r="AA63" s="3">
         <v>9.3739287486634009</v>
       </c>
-      <c r="AB63" s="18">
+      <c r="AB63" s="3">
         <v>9.59835481704296</v>
       </c>
-      <c r="AC63" s="18">
+      <c r="AC63" s="3">
         <v>7.2911653872178901</v>
       </c>
-      <c r="AD63" s="18">
+      <c r="AD63" s="3">
         <v>3.9856716522815101</v>
       </c>
-      <c r="AE63" s="18">
+      <c r="AE63" s="3">
         <v>3.8595067688137301</v>
       </c>
-      <c r="AF63" s="18">
+      <c r="AF63" s="3">
         <v>5.5693225598947702</v>
       </c>
-      <c r="AG63" s="18">
+      <c r="AG63" s="3">
         <v>3.6229935797124901</v>
       </c>
-      <c r="AH63" s="18">
+      <c r="AH63" s="3">
         <v>6.0417732760117504</v>
       </c>
-      <c r="AI63" s="18">
+      <c r="AI63" s="3">
         <v>4.4261989719728403</v>
       </c>
-      <c r="AJ63" s="18">
+      <c r="AJ63" s="3">
         <v>6.83663659479092</v>
       </c>
-      <c r="AK63" s="18">
+      <c r="AK63" s="3">
         <v>6.1618250734895499</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="3">
         <v>4.5747512996611501</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="3">
         <v>3.7503227657384302</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="3">
         <v>3.45639001576034</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="3">
         <v>4.7613937481903896</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I64" s="3">
         <v>3.3425844603902499</v>
       </c>
-      <c r="J64" s="18">
+      <c r="J64" s="3">
         <v>2.8689821599660901</v>
       </c>
-      <c r="K64" s="18">
+      <c r="K64" s="3">
         <v>7.11626085831724</v>
       </c>
-      <c r="L64" s="18">
+      <c r="L64" s="3">
         <v>4.51680280336819</v>
       </c>
-      <c r="M64" s="18">
+      <c r="M64" s="3">
         <v>3.77315540037986</v>
       </c>
-      <c r="N64" s="18">
+      <c r="N64" s="3">
         <v>6.7612470274113203</v>
       </c>
-      <c r="O64" s="18">
+      <c r="O64" s="3">
         <v>7.0116956730932598</v>
       </c>
-      <c r="P64" s="18">
+      <c r="P64" s="3">
         <v>8.3629123345203702</v>
       </c>
-      <c r="Q64" s="18">
+      <c r="Q64" s="3">
         <v>7.0723167384371903</v>
       </c>
-      <c r="R64" s="18">
+      <c r="R64" s="3">
         <v>7.7955250495608501</v>
       </c>
-      <c r="S64" s="18">
+      <c r="S64" s="3">
         <v>5.6424196783378404</v>
       </c>
-      <c r="T64" s="18">
+      <c r="T64" s="3">
         <v>6.3496522789072802</v>
       </c>
-      <c r="U64" s="18">
+      <c r="U64" s="3">
         <v>6.3496522789072802</v>
       </c>
-      <c r="V64" s="18">
+      <c r="V64" s="3">
         <v>6.2709777340902502</v>
       </c>
-      <c r="W64" s="18">
+      <c r="W64" s="3">
         <v>6.2709777340902502</v>
       </c>
-      <c r="X64" s="18">
+      <c r="X64" s="3">
         <v>7.9539414854905299</v>
       </c>
-      <c r="Y64" s="18">
+      <c r="Y64" s="3">
         <v>9.2626282808497002</v>
       </c>
-      <c r="Z64" s="18">
+      <c r="Z64" s="3">
         <v>7.0620987051593902</v>
       </c>
-      <c r="AA64" s="18">
+      <c r="AA64" s="3">
         <v>6.7103176340880397</v>
       </c>
-      <c r="AB64" s="18">
+      <c r="AB64" s="3">
         <v>6.7047982232815997</v>
       </c>
-      <c r="AC64" s="18">
+      <c r="AC64" s="3">
         <v>4.3059331183423799</v>
       </c>
-      <c r="AD64" s="18">
+      <c r="AD64" s="3">
         <v>1.8619516928531501</v>
       </c>
-      <c r="AE64" s="18">
+      <c r="AE64" s="3">
         <v>1.51040284629341</v>
       </c>
-      <c r="AF64" s="18">
+      <c r="AF64" s="3">
         <v>3.3669078095182798</v>
       </c>
-      <c r="AG64" s="18">
+      <c r="AG64" s="3">
         <v>1.80504835413714</v>
       </c>
-      <c r="AH64" s="18">
+      <c r="AH64" s="3">
         <v>4.4082810476420802</v>
       </c>
-      <c r="AI64" s="18">
+      <c r="AI64" s="3">
         <v>2.7716090115144798</v>
       </c>
-      <c r="AJ64" s="18">
+      <c r="AJ64" s="3">
         <v>6.7626703648280797</v>
       </c>
-      <c r="AK64" s="18">
+      <c r="AK64" s="3">
         <v>6.8263173559327903</v>
       </c>
     </row>

--- a/Supplimentary-data/Supplementary data 1.xlsx
+++ b/Supplimentary-data/Supplementary data 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliacoggon/Github/Euro-Swine-Risk/Supplimentary-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{01955C22-6EF3-374D-857C-95647AA5CB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4C9D5A-2CCA-4945-9AC0-F68516364508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-23500" windowWidth="42540" windowHeight="22640" xr2:uid="{1BCBB8A6-08B1-F941-B25A-ACFDA29D6B13}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{1BCBB8A6-08B1-F941-B25A-ACFDA29D6B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary data 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="116">
   <si>
     <t>A/SWINE/FRANCE/FINISTERE/2899/1982</t>
   </si>
@@ -365,6 +365,20 @@
   </si>
   <si>
     <t>Swine Sera</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplementary data 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Swine antisera and test viruses used in this study including subtype and clade information where available. Antigenic distances as calculated using antigenic cartography between test antigens and antisera raised in swine.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -372,9 +386,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -521,6 +535,19 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -866,15 +893,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,18 +949,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1261,7142 +1279,7144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5077FF7-0E26-344D-BE3E-1CC65F6239B2}">
-  <dimension ref="A1:AK64"/>
+  <dimension ref="A1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="5.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="5.83203125" style="1" customWidth="1"/>
-    <col min="14" max="18" width="6.33203125" style="1" customWidth="1"/>
-    <col min="19" max="25" width="7.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.83203125" style="1" customWidth="1"/>
-    <col min="27" max="28" width="19" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="48" style="1"/>
+    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="13" width="5.83203125" customWidth="1"/>
+    <col min="14" max="18" width="6.33203125" customWidth="1"/>
+    <col min="19" max="25" width="7.83203125" customWidth="1"/>
+    <col min="26" max="26" width="15.83203125" customWidth="1"/>
+    <col min="27" max="28" width="19" customWidth="1"/>
+    <col min="29" max="29" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="6" customFormat="1" ht="243" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:37" ht="75" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="5" customFormat="1" ht="243" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q3" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R3" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S3" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X3" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y3" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC3" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD3" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE3" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF3" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG3" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH3" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ3" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="5" t="s">
+    <row r="4" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q4" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R4" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S4" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T4" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U4" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V4" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W4" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X4" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y4" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z4" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA4" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB4" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC4" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD4" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE4" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF4" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AG4" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AH4" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI4" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AJ4" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AK4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="7" t="s">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="D5" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="2">
         <v>3.1570841341925302</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="2">
         <v>1.9225109081413501</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="2">
         <v>1.4253608304106</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="2">
         <v>2.3584421935152902</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="2">
         <v>0.97618176716418503</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="2">
         <v>0.69822125444827898</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K6" s="2">
         <v>5.3546538335735701</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L6" s="2">
         <v>2.9533834519798701</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M6" s="2">
         <v>2.3923950344386302</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N6" s="2">
         <v>5.2860263286382496</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O6" s="2">
         <v>5.4405681109240298</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P6" s="2">
         <v>6.4492267509004799</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q6" s="2">
         <v>5.8672700530194</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R6" s="2">
         <v>6.7911440336549704</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S6" s="2">
         <v>5.7292830855028303</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T6" s="2">
         <v>6.16804726000362</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U6" s="2">
         <v>6.16804726000362</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V6" s="2">
         <v>6.3772137442842602</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W6" s="2">
         <v>6.3772137442842602</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X6" s="2">
         <v>7.3739464066126299</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y6" s="2">
         <v>8.8868023776561493</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z6" s="2">
         <v>5.0352725737041499</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA6" s="2">
         <v>4.9078911955160596</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB6" s="2">
         <v>4.73716253891501</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC6" s="2">
         <v>4.5432755967227996</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD6" s="2">
         <v>3.60148075365858</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE6" s="2">
         <v>2.7805268811188601</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF6" s="2">
         <v>4.5747135812755202</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AG6" s="2">
         <v>3.2356652349720201</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AH6" s="2">
         <v>5.5607498802616098</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI6" s="2">
         <v>3.2576570860873701</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ6" s="2">
         <v>6.5385150962370604</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK6" s="2">
         <v>6.86680089726819</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="2">
         <v>7.2750335224553702</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="2">
         <v>6.49943850881602</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="2">
         <v>5.8769547043526504</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="2">
         <v>5.80002030324441</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="2">
         <v>5.5623939943517096</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="2">
         <v>5.5628201291244403</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K7" s="2">
         <v>8.4568046688277896</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L7" s="2">
         <v>6.4433870420342503</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M7" s="2">
         <v>7.0180858565710498</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N7" s="2">
         <v>9.3476234932549005</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O7" s="2">
         <v>9.3077338668563403</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P7" s="2">
         <v>9.8430228445755503</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q7" s="2">
         <v>9.8182375798290007</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R7" s="2">
         <v>10.7398595310903</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S7" s="2">
         <v>10.6379501404663</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T7" s="2">
         <v>10.969562849911799</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U7" s="2">
         <v>10.969562849911799</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V7" s="2">
         <v>11.276863115222699</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W7" s="2">
         <v>11.276863115222699</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X7" s="2">
         <v>11.994555801750501</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y7" s="2">
         <v>13.492302601758899</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z7" s="2">
         <v>8.5888662481003006</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA7" s="2">
         <v>8.75894115880571</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB7" s="2">
         <v>8.44957329505052</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC7" s="2">
         <v>9.0705785493739608</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD7" s="2">
         <v>8.0805243851997606</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE7" s="2">
         <v>7.1956779005463298</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF7" s="2">
         <v>9.3382052596136198</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG7" s="2">
         <v>7.5467109289785697</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AH7" s="2">
         <v>10.384890452736199</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI7" s="2">
         <v>7.6453555292397999</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ7" s="2">
         <v>9.4798739695153795</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AK7" s="2">
         <v>9.0100625948410205</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="2">
         <v>2.51636338225194</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="2">
         <v>1.5865594082224801</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="2">
         <v>0.99234975603352904</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="2">
         <v>1.25651110532921</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="2">
         <v>1.01750792198538</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="2">
         <v>1.1818952475714199</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="2">
         <v>5.2405583730502396</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L8" s="2">
         <v>3.33881648561582</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M8" s="2">
         <v>2.6000770311999899</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N8" s="2">
         <v>4.5897313999170999</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O8" s="2">
         <v>4.65374860193677</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P8" s="2">
         <v>5.88197603217127</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q8" s="2">
         <v>5.1480758068400698</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R8" s="2">
         <v>6.105957259208</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S8" s="2">
         <v>5.8844739266181598</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T8" s="2">
         <v>6.0491515763553299</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U8" s="2">
         <v>6.0491515763553299</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V8" s="2">
         <v>6.5090993798249297</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W8" s="2">
         <v>6.5090993798249297</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X8" s="2">
         <v>7.0605515590400598</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y8" s="2">
         <v>8.5560102016435096</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z8" s="2">
         <v>4.3285575978432602</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA8" s="2">
         <v>4.1555067680894497</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB8" s="2">
         <v>4.0396152925875803</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC8" s="2">
         <v>5.1751312819985698</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD8" s="2">
         <v>4.3625021131247097</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE8" s="2">
         <v>3.47479154413824</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF8" s="2">
         <v>5.22502855926321</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG8" s="2">
         <v>3.86143731498038</v>
       </c>
-      <c r="AH7" s="3">
+      <c r="AH8" s="2">
         <v>6.0311972830487299</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI8" s="2">
         <v>3.51788933318432</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ8" s="2">
         <v>6.0826341170169602</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK8" s="2">
         <v>6.5478201184465403</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="2">
         <v>4.00292750608416</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="2">
         <v>3.0252556326968199</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="2">
         <v>2.61129425656291</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="2">
         <v>3.8310765558017699</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="2">
         <v>2.4101528978252502</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J9" s="2">
         <v>1.9450600779912499</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K9" s="2">
         <v>6.4758777210600798</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L9" s="2">
         <v>3.8418494594096</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M9" s="2">
         <v>3.2154219054428599</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N9" s="2">
         <v>6.2749670377705904</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O9" s="2">
         <v>6.4823986831939102</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P9" s="2">
         <v>7.7225376318513002</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q9" s="2">
         <v>6.6763595577141199</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R9" s="2">
         <v>7.4890804312585404</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S9" s="2">
         <v>5.7949033417649902</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T9" s="2">
         <v>6.4001862096048496</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U9" s="2">
         <v>6.4001862096048496</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V9" s="2">
         <v>6.4479166673061297</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W9" s="2">
         <v>6.4479166673061297</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X9" s="2">
         <v>7.8720152388564797</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y9" s="2">
         <v>9.2758027765683995</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z9" s="2">
         <v>6.3632810208807902</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA9" s="2">
         <v>6.0956484478292801</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB9" s="2">
         <v>6.0266193378731101</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC9" s="2">
         <v>4.4286594871052403</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD9" s="2">
         <v>2.5585612254665602</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE9" s="2">
         <v>1.83932144586143</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF9" s="2">
         <v>3.9147076837977401</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG9" s="2">
         <v>2.2651435255655201</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AH9" s="2">
         <v>4.9727219353232401</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI9" s="2">
         <v>2.8417146219656102</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AJ9" s="2">
         <v>6.6203077895132303</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AK9" s="2">
         <v>6.7193583595790898</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="2">
         <v>4.0962909905702798</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="2">
         <v>3.1396384464467402</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="2">
         <v>2.5437858840187499</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="2">
         <v>2.6917017688927798</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="2">
         <v>2.2111517229434701</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="2">
         <v>2.2389941691922699</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="2">
         <v>5.9124087583152001</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="2">
         <v>3.7319478548110898</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="2">
         <v>3.75490506888347</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N10" s="2">
         <v>6.1798362438916499</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O10" s="2">
         <v>6.2203090285936504</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P10" s="2">
         <v>7.0376449940964898</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q10" s="2">
         <v>6.7370421625697601</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R10" s="2">
         <v>7.6884031233802297</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S10" s="2">
         <v>7.3006559881340101</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T10" s="2">
         <v>7.6140918435785201</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U10" s="2">
         <v>7.6140918435785201</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V10" s="2">
         <v>7.9365245662502897</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W10" s="2">
         <v>7.9365245662502897</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X10" s="2">
         <v>8.6625549589596602</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y10" s="2">
         <v>10.177549050078399</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z10" s="2">
         <v>5.6314248558678903</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA10" s="2">
         <v>5.6575719383740797</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB10" s="2">
         <v>5.4112335320905602</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC10" s="2">
         <v>6.0597670477459804</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD10" s="2">
         <v>5.19525766355593</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE10" s="2">
         <v>4.2964935899028802</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF10" s="2">
         <v>6.2602056642585104</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG10" s="2">
         <v>4.7035138024766896</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="AH10" s="2">
         <v>7.2331950131500404</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI10" s="2">
         <v>4.6460581123106701</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ10" s="2">
         <v>7.1465308498912599</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AK10" s="2">
         <v>7.23103702421938</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="2">
         <v>5.5101326821930297</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="2">
         <v>5.1961310004679602</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="2">
         <v>5.0188224993709296</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="2">
         <v>3.8234582227371599</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="2">
         <v>4.9557650944296698</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="2">
         <v>5.3459042960504197</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="2">
         <v>6.0241688443686501</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L11" s="2">
         <v>5.7742165228724396</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M11" s="2">
         <v>5.9072634495188501</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N11" s="2">
         <v>6.1370005797703104</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O11" s="2">
         <v>5.9356647513274998</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P11" s="2">
         <v>5.9722447666407996</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q11" s="2">
         <v>6.8138886104425804</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R11" s="2">
         <v>7.7163961763953104</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S11" s="2">
         <v>9.0503802251165606</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T11" s="2">
         <v>8.8987747200662195</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U11" s="2">
         <v>8.8987747200662195</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V11" s="2">
         <v>9.5441256669052397</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W11" s="2">
         <v>9.5441256669052397</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X11" s="2">
         <v>9.1584273165079306</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y11" s="2">
         <v>10.5870421760785</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z11" s="2">
         <v>4.9165133086772403</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA11" s="2">
         <v>5.3257858927438102</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB11" s="2">
         <v>4.9718818403243601</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC11" s="2">
         <v>8.5598621165034494</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD11" s="2">
         <v>8.6304997016804101</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE11" s="2">
         <v>7.7676153048438596</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF11" s="2">
         <v>9.2235204075002102</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG11" s="2">
         <v>8.1264063567814109</v>
       </c>
-      <c r="AH10" s="3">
+      <c r="AH11" s="2">
         <v>9.9171064836896594</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI11" s="2">
         <v>7.5737984112665302</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ11" s="2">
         <v>8.5225459006267794</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AK11" s="2">
         <v>9.0355595315557906</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="2">
         <v>3.7470527925469499</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="2">
         <v>3.39090587405973</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="2">
         <v>2.90517134870497</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="2">
         <v>4.1136099124368704</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="2">
         <v>3.1575566505389201</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="2">
         <v>2.6898479756774099</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="2">
         <v>7.5194901582681499</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L12" s="2">
         <v>5.0760097590327797</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M12" s="2">
         <v>4.00481999778461</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N12" s="2">
         <v>6.2325637540988303</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O12" s="2">
         <v>6.3876779155934598</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P12" s="2">
         <v>8.3280919560078797</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q12" s="2">
         <v>6.3053325855853402</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R12" s="2">
         <v>6.9976140174023502</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S12" s="2">
         <v>5.8724428648831903</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T12" s="2">
         <v>6.1908484782720796</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U12" s="2">
         <v>6.1908484782720796</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V12" s="2">
         <v>6.5150462718069004</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W12" s="2">
         <v>6.5150462718069004</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X12" s="2">
         <v>7.7536784415816298</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y12" s="2">
         <v>8.9765432229115092</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z12" s="2">
         <v>6.8170927774946799</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA12" s="2">
         <v>6.2767999903950704</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB12" s="2">
         <v>6.4313646437950798</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC12" s="2">
         <v>5.2068791380492101</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD12" s="2">
         <v>2.3266071607954002</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE12" s="2">
         <v>1.39387158291683</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF12" s="2">
         <v>4.0046323443487397</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG12" s="2">
         <v>1.52034781631384</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AH12" s="2">
         <v>4.7381814278928598</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI12" s="2">
         <v>1.9912967456619699</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ12" s="2">
         <v>5.4226916519444304</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AK12" s="2">
         <v>5.3955746448251301</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="2">
         <v>5.6064712164726398</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="2">
         <v>5.6075313186894702</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="2">
         <v>5.0203334839773497</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="2">
         <v>4.3000190936003904</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="2">
         <v>5.2024506470165397</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="2">
         <v>5.3410074343816198</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="2">
         <v>8.2792187464978202</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L13" s="2">
         <v>6.9227208418634101</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M13" s="2">
         <v>6.7249697148366501</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N13" s="2">
         <v>7.3584349052106299</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O13" s="2">
         <v>7.1296578706979998</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P13" s="2">
         <v>8.4905746319987703</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q13" s="2">
         <v>7.5246639651268001</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R13" s="2">
         <v>8.3382860511330197</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S13" s="2">
         <v>9.8690179780318594</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T13" s="2">
         <v>9.6484449464407191</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U13" s="2">
         <v>9.6484449464407191</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V13" s="2">
         <v>10.460155486873401</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W13" s="2">
         <v>10.460155486873401</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X13" s="2">
         <v>10.362772398170501</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y13" s="2">
         <v>11.6602356667285</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z13" s="2">
         <v>7.0043360151909404</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA13" s="2">
         <v>6.8965620491247801</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB13" s="2">
         <v>6.8634736534567198</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC13" s="2">
         <v>9.36076795672267</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD13" s="2">
         <v>8.1612680668223092</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE13" s="2">
         <v>7.1243104427927397</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AF13" s="2">
         <v>9.31855111727047</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AG13" s="2">
         <v>7.3816217806462197</v>
       </c>
-      <c r="AH12" s="3">
+      <c r="AH13" s="2">
         <v>9.9990906709457992</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AI13" s="2">
         <v>6.91517237542792</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AJ13" s="2">
         <v>7.2525582004978197</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AK13" s="2">
         <v>7.0771830584005002</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="2">
         <v>3.7051625551232599</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="2">
         <v>2.0924539552169601</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="2">
         <v>2.4026639677806099</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="2">
         <v>2.6853455434476698</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="2">
         <v>1.61235459256168</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J14" s="2">
         <v>1.9408927127720399</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K14" s="2">
         <v>3.0845215493714599</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L14" s="2">
         <v>1.0880887876080301</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="2">
         <v>1.3083585605953401</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N14" s="2">
         <v>4.6569899654496396</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O14" s="2">
         <v>4.9203481720997901</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P14" s="2">
         <v>4.5873005805393703</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q14" s="2">
         <v>5.7415249831969399</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R14" s="2">
         <v>6.71779004527649</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S14" s="2">
         <v>5.0410063772820903</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T14" s="2">
         <v>5.7091784304987501</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U14" s="2">
         <v>5.7091784304987501</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V14" s="2">
         <v>5.5974630574045898</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W14" s="2">
         <v>5.5974630574045898</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X14" s="2">
         <v>6.5500010624798604</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y14" s="2">
         <v>8.2295785794132197</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z14" s="2">
         <v>3.58837865674248</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA14" s="2">
         <v>3.9732905289595402</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB14" s="2">
         <v>3.41142703265646</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC14" s="2">
         <v>3.5672947634576602</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD14" s="2">
         <v>4.5677885516695502</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AE14" s="2">
         <v>4.1423445640761702</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AF14" s="2">
         <v>4.6932427833892598</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG14" s="2">
         <v>4.6167849781895498</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AH14" s="2">
         <v>5.6990296217794301</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AI14" s="2">
         <v>4.5497213826148597</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AJ14" s="2">
         <v>7.8864246827423399</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AK14" s="2">
         <v>8.6201457085161408</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="2">
         <v>4.4415935620826996</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="2">
         <v>2.9590504282246899</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="2">
         <v>2.7072525074864302</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="2">
         <v>3.4859656224062099</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="2">
         <v>1.92145792902001</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="2">
         <v>1.79175662610159</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K15" s="2">
         <v>5.0352796082977802</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L15" s="2">
         <v>2.3025344511875701</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M15" s="2">
         <v>2.68298113323163</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N15" s="2">
         <v>6.2645450076196498</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O15" s="2">
         <v>6.4794816833727102</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P15" s="2">
         <v>6.7612835721906501</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q15" s="2">
         <v>7.0319192206712398</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R15" s="2">
         <v>7.9714369684393196</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S15" s="2">
         <v>6.1858876418998996</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T15" s="2">
         <v>6.9331501123228403</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U15" s="2">
         <v>6.9331501123228403</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V15" s="2">
         <v>6.8106575341097599</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W15" s="2">
         <v>6.8106575341097599</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X15" s="2">
         <v>8.1249798388119494</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y15" s="2">
         <v>9.7123237658452002</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z15" s="2">
         <v>5.6239781328276797</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA15" s="2">
         <v>5.7636386415660503</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB15" s="2">
         <v>5.3918164867952196</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC15" s="2">
         <v>4.26388269241302</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD15" s="2">
         <v>4.0351533521940599</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE15" s="2">
         <v>3.4776511090373199</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF15" s="2">
         <v>4.8146883917828802</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AG15" s="2">
         <v>3.9753158747356299</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AH15" s="2">
         <v>6.0133047281840497</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI15" s="2">
         <v>4.3105660419109997</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AJ15" s="2">
         <v>7.9141290184434698</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AK15" s="2">
         <v>8.1747591034731695</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="2">
         <v>5.7379972067762699</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="2">
         <v>6.7779834866925697</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="2">
         <v>6.8194935521668603</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="2">
         <v>5.6844136347751899</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="2">
         <v>7.3946127757504598</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="2">
         <v>7.69302877409093</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K16" s="2">
         <v>8.6633047720303402</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L16" s="2">
         <v>8.9503417436275807</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M16" s="2">
         <v>7.9125641948198098</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N16" s="2">
         <v>5.0694038752924504</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O16" s="2">
         <v>4.5532516633435103</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P16" s="2">
         <v>6.6604402981655397</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q16" s="2">
         <v>4.7626102067425196</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R16" s="2">
         <v>5.0310661248922797</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S16" s="2">
         <v>9.0694018393417402</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T16" s="2">
         <v>7.99993911878971</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U16" s="2">
         <v>7.99993911878971</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V16" s="2">
         <v>9.3640045300075805</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W16" s="2">
         <v>9.3640045300075805</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X16" s="2">
         <v>7.6510781491709698</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y16" s="2">
         <v>8.3390453985148607</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z16" s="2">
         <v>5.5528165328369203</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA16" s="2">
         <v>5.0374954771061802</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB16" s="2">
         <v>5.5309688702360003</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC16" s="2">
         <v>10.330449001437</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AD16" s="2">
         <v>9.8606974689061193</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AE16" s="2">
         <v>9.1057394464611097</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AF16" s="2">
         <v>10.206057218603201</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AG16" s="2">
         <v>9.2191085594870401</v>
       </c>
-      <c r="AH15" s="3">
+      <c r="AH16" s="2">
         <v>10.1881900118616</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AI16" s="2">
         <v>8.1622179359856002</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AJ16" s="2">
         <v>6.7114509924600902</v>
       </c>
-      <c r="AK15" s="3">
+      <c r="AK16" s="2">
         <v>7.8768591091514804</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="2">
         <v>7.6955924058547902</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="2">
         <v>8.7483708477367905</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="2">
         <v>8.8365217875656406</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="2">
         <v>7.6947569691980302</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="2">
         <v>9.3930148758829208</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="2">
         <v>9.7054127127291299</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="2">
         <v>10.1868435895634</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="2">
         <v>10.8014412778434</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M17" s="2">
         <v>9.8047089843558197</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N17" s="2">
         <v>6.6596395221998401</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O17" s="2">
         <v>6.1541466560714104</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P17" s="2">
         <v>7.8835998367073703</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q17" s="2">
         <v>6.3007075657365101</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R17" s="2">
         <v>6.3384079648442198</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S17" s="2">
         <v>10.6540619877075</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T17" s="2">
         <v>9.4741217672604794</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U17" s="2">
         <v>9.4741217672604794</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V17" s="2">
         <v>10.8662053696877</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W17" s="2">
         <v>10.8662053696877</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X17" s="2">
         <v>8.8352162886619592</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y17" s="2">
         <v>9.2610541446528192</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z17" s="2">
         <v>7.10347721655579</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA17" s="2">
         <v>6.6773847004855202</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB17" s="2">
         <v>7.1499203101214901</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC17" s="2">
         <v>12.1201448606034</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD17" s="2">
         <v>11.8008844621727</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AE17" s="2">
         <v>11.0866452833033</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AF17" s="2">
         <v>12.0403263772071</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AG17" s="2">
         <v>11.182127295393</v>
       </c>
-      <c r="AH16" s="3">
+      <c r="AH17" s="2">
         <v>11.922181011073301</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AI17" s="2">
         <v>10.0994508852663</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AJ17" s="2">
         <v>8.2793936052966206</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AK17" s="2">
         <v>9.4741226218653694</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="2">
         <v>5.0293737710561004</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="2">
         <v>5.9250984264688498</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="2">
         <v>6.3510357179297401</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="2">
         <v>5.5375351217496398</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="2">
         <v>6.8422173810185702</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J18" s="2">
         <v>7.1482910304026701</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K18" s="2">
         <v>7.0079747091675699</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L18" s="2">
         <v>7.8601979741299299</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M18" s="2">
         <v>6.5911005120891097</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N18" s="2">
         <v>2.8304058648301198</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O18" s="2">
         <v>2.4761696143862202</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P18" s="2">
         <v>4.3915590910271902</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q18" s="2">
         <v>2.8915451234179499</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R18" s="2">
         <v>3.0206587134209002</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S18" s="2">
         <v>6.5346190884698601</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T18" s="2">
         <v>5.3949502160444496</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U18" s="2">
         <v>5.3949502160444496</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V18" s="2">
         <v>6.6427436930366701</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W18" s="2">
         <v>6.6427436930366701</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X18" s="2">
         <v>4.5082226615696399</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y18" s="2">
         <v>5.1758224661668102</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z18" s="2">
         <v>3.71653219337378</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA18" s="2">
         <v>3.0699474164726799</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB18" s="2">
         <v>3.7121258306386302</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC18" s="2">
         <v>8.3579075256590993</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD18" s="2">
         <v>8.6765219468727999</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AE18" s="2">
         <v>8.2511762028856293</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AF18" s="2">
         <v>8.4148171839488306</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AG18" s="2">
         <v>8.3567794557605293</v>
       </c>
-      <c r="AH17" s="3">
+      <c r="AH18" s="2">
         <v>8.1851747899893894</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI18" s="2">
         <v>7.3376321626496797</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AJ18" s="2">
         <v>6.9746255486713498</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AK18" s="2">
         <v>8.6552865087597599</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="2">
         <v>5.9873777725327999</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="2">
         <v>7.3108459012577001</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="2">
         <v>7.5479328050365604</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="2">
         <v>7.8508088371871301</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="2">
         <v>8.3168919352481794</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J19" s="2">
         <v>8.2244144732210493</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K19" s="2">
         <v>10.563610855192501</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L19" s="2">
         <v>9.9929666536166906</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M19" s="2">
         <v>8.0391231486043999</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N19" s="2">
         <v>5.6624114203848901</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O19" s="2">
         <v>5.6758041847685599</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P19" s="2">
         <v>9.0800482536743594</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q19" s="2">
         <v>4.4676540146429398</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R19" s="2">
         <v>3.7330463233821098</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S19" s="2">
         <v>5.8782321015634897</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T19" s="2">
         <v>4.4325983054043299</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U19" s="2">
         <v>4.4325983054043299</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V19" s="2">
         <v>5.8954376103298598</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W19" s="2">
         <v>5.8954376103298598</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X19" s="2">
         <v>4.8484974713511804</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y19" s="2">
         <v>4.2533828109345304</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z19" s="2">
         <v>7.9672996794556497</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA19" s="2">
         <v>6.7144688728530104</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB19" s="2">
         <v>7.6165546669488302</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC19" s="2">
         <v>8.6149459052795301</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD19" s="2">
         <v>7.1033212445593703</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE19" s="2">
         <v>7.1092222260764899</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AF19" s="2">
         <v>6.9459477609072398</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AG19" s="2">
         <v>6.8024025126001897</v>
       </c>
-      <c r="AH18" s="3">
+      <c r="AH19" s="2">
         <v>5.8586908626118896</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI19" s="2">
         <v>5.9347190523408901</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AJ19" s="2">
         <v>4.5168481133020997</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AK19" s="2">
         <v>6.1941874211211898</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="2">
         <v>4.2585819132067604</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="2">
         <v>5.8586103314739102</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="2">
         <v>5.9358470189915904</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="2">
         <v>5.9568710261095097</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="2">
         <v>6.8125822738707296</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="2">
         <v>6.7739892389381602</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="2">
         <v>9.5612310607841202</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="2">
         <v>8.8559459243305696</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="2">
         <v>6.9754377225908204</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="2">
         <v>4.4169827498020497</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O20" s="2">
         <v>4.2319506249858598</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P20" s="2">
         <v>8.0776055657358903</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q20" s="2">
         <v>2.9895353182325399</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R20" s="2">
         <v>2.5093058595725499</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S20" s="2">
         <v>6.16127941508344</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T20" s="2">
         <v>4.7441903200454396</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U20" s="2">
         <v>4.7441903200454396</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V20" s="2">
         <v>6.4065848937378096</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W20" s="2">
         <v>6.4065848937378096</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X20" s="2">
         <v>5.2328810907997498</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y20" s="2">
         <v>5.3350459995899397</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z20" s="2">
         <v>6.6484299612732602</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA20" s="2">
         <v>5.3497248062263996</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB20" s="2">
         <v>6.2921195390447204</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC20" s="2">
         <v>8.3769313926470605</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD20" s="2">
         <v>6.6385334628533803</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE20" s="2">
         <v>6.2465536733104896</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF20" s="2">
         <v>6.9496680226145697</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AG20" s="2">
         <v>6.0279002491296199</v>
       </c>
-      <c r="AH19" s="3">
+      <c r="AH20" s="2">
         <v>6.2892565544316499</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI20" s="2">
         <v>4.93028348562878</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AJ20" s="2">
         <v>2.5027507303811301</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AK20" s="2">
         <v>4.4098191282487296</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="2">
         <v>1.23380382901639</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="2">
         <v>1.02163426682555</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="2">
         <v>1.2020320702751599</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="2">
         <v>2.1425113803759102</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="2">
         <v>1.8668865891692401</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="2">
         <v>1.7792234993816001</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K21" s="2">
         <v>5.5068020402285303</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L21" s="2">
         <v>3.9265742280401499</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M21" s="2">
         <v>2.1440839152475402</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N21" s="2">
         <v>3.3566415543984398</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O21" s="2">
         <v>3.5556978250331799</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P21" s="2">
         <v>5.6037693541685396</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q21" s="2">
         <v>3.7203558656062499</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R21" s="2">
         <v>4.5711176175873902</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S21" s="2">
         <v>3.9866976356597799</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T21" s="2">
         <v>4.0001764469746401</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U21" s="2">
         <v>4.0001764469746401</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V21" s="2">
         <v>4.6131235115145701</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W21" s="2">
         <v>4.6131235115145701</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X21" s="2">
         <v>5.2405113901600204</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y21" s="2">
         <v>6.6404616284461797</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z21" s="2">
         <v>4.0349479216345996</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA21" s="2">
         <v>3.3784423980621301</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB21" s="2">
         <v>3.62013829938696</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC21" s="2">
         <v>4.1959520394030196</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD21" s="2">
         <v>3.0376461160756998</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE21" s="2">
         <v>2.3689277489190501</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF21" s="2">
         <v>3.60529033499874</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AG21" s="2">
         <v>2.6124769945603701</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AH21" s="2">
         <v>4.0880747266250896</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI21" s="2">
         <v>1.9093883778531699</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AJ21" s="2">
         <v>4.9933853172031899</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AK21" s="2">
         <v>5.8952755240900698</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="2">
         <v>0.747740987401463</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="2">
         <v>1.1537776102970101</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="2">
         <v>1.38044823811418</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="2">
         <v>1.98347078042702</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="2">
         <v>2.1323953972070901</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J22" s="2">
         <v>2.1319561726704199</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K22" s="2">
         <v>5.5528863977647296</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L22" s="2">
         <v>4.1936513283307102</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M22" s="2">
         <v>2.4070202828705098</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N22" s="2">
         <v>2.93350281377819</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O22" s="2">
         <v>3.0934081269764002</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P22" s="2">
         <v>5.3910350576862998</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q22" s="2">
         <v>3.2504945575481501</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R22" s="2">
         <v>4.1240292458668701</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S22" s="2">
         <v>4.05515840687137</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T22" s="2">
         <v>3.8785403344619498</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U22" s="2">
         <v>3.8785403344619498</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V22" s="2">
         <v>4.6526488432970696</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W22" s="2">
         <v>4.6526488432970696</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X22" s="2">
         <v>5.0070597971124204</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y22" s="2">
         <v>6.3853320808530398</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z22" s="2">
         <v>3.7623921279575501</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA22" s="2">
         <v>3.0010716923517098</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB22" s="2">
         <v>3.3392647003813698</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC22" s="2">
         <v>4.5371053750634101</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD22" s="2">
         <v>3.4857861831469399</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE22" s="2">
         <v>2.8271893764690401</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF22" s="2">
         <v>3.9730770038557699</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG22" s="2">
         <v>3.0256683311068402</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AH22" s="2">
         <v>4.3346785164290802</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AI22" s="2">
         <v>2.18713493050151</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AJ22" s="2">
         <v>4.7589688976551203</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AK22" s="2">
         <v>5.7742782009546501</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="2">
         <v>0.580343931142147</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="2">
         <v>1.9740149355149399</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="2">
         <v>1.88452375065485</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="2">
         <v>1.77081605244596</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="2">
         <v>2.75905576584627</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J23" s="2">
         <v>2.8299972363718</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K23" s="2">
         <v>6.1927152757411497</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L23" s="2">
         <v>5.0167656621520402</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M23" s="2">
         <v>3.4338883431302398</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N23" s="2">
         <v>2.9367295430143399</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O23" s="2">
         <v>2.8759101205113802</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P23" s="2">
         <v>5.6735252532412002</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q23" s="2">
         <v>2.9318701040687398</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R23" s="2">
         <v>3.8011158015384998</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S23" s="2">
         <v>5.0839654550637396</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T23" s="2">
         <v>4.58906226062006</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U23" s="2">
         <v>4.58906226062006</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V23" s="2">
         <v>5.6329590724580898</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W23" s="2">
         <v>5.6329590724580898</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X23" s="2">
         <v>5.48224616750701</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y23" s="2">
         <v>6.7262328559178304</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z23" s="2">
         <v>3.91711345313812</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA23" s="2">
         <v>3.0366990426221498</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB23" s="2">
         <v>3.5247162342257399</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC23" s="2">
         <v>5.7594199467280101</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD23" s="2">
         <v>4.5161435124289202</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE23" s="2">
         <v>3.7223971598806802</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF23" s="2">
         <v>5.1634612413808201</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AG23" s="2">
         <v>3.8592093278720401</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AH23" s="2">
         <v>5.4081178915635899</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AI23" s="2">
         <v>2.8797661414075399</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AJ23" s="2">
         <v>4.1127532986553996</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AK23" s="2">
         <v>5.1437042633412897</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="2">
         <v>0.97720514363942801</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="2">
         <v>2.3847133567911398</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="2">
         <v>2.2048927044451498</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="2">
         <v>2.0440263777176599</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="2">
         <v>3.0966776362640802</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J24" s="2">
         <v>3.14273380796089</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K24" s="2">
         <v>6.6125512755604996</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L24" s="2">
         <v>5.4174773186207803</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M24" s="2">
         <v>3.8623226324835098</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N24" s="2">
         <v>3.1913102728072702</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O24" s="2">
         <v>3.0729688254925902</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P24" s="2">
         <v>6.03059291511852</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q24" s="2">
         <v>3.0024493160736099</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R24" s="2">
         <v>3.8091726699764301</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S24" s="2">
         <v>5.4293807097363898</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T24" s="2">
         <v>4.8534737873302198</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U24" s="2">
         <v>4.8534737873302198</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V24" s="2">
         <v>5.9699363926461997</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W24" s="2">
         <v>5.9699363926461997</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X24" s="2">
         <v>5.7339078351514399</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y24" s="2">
         <v>6.9010249134067099</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z24" s="2">
         <v>4.2650267818881504</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA24" s="2">
         <v>3.3501641504120601</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AB24" s="2">
         <v>3.8827176913238102</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AC24" s="2">
         <v>6.1690876670823398</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD24" s="2">
         <v>4.7379027204840698</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE24" s="2">
         <v>3.9106396086855701</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AF24" s="2">
         <v>5.4696446061090898</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AG24" s="2">
         <v>4.00931728428972</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AH24" s="2">
         <v>5.6674005430678003</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AI24" s="2">
         <v>2.9960466594957902</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AJ24" s="2">
         <v>3.7599744849601899</v>
       </c>
-      <c r="AK23" s="3">
+      <c r="AK24" s="2">
         <v>4.76655455584382</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="2">
         <v>0.91148258522558001</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="2">
         <v>2.0911438875204</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="2">
         <v>1.87062280793976</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="2">
         <v>1.6898415487477401</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="2">
         <v>2.74977740785986</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J25" s="2">
         <v>2.8136622166646799</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K25" s="2">
         <v>6.3407030607010499</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L25" s="2">
         <v>5.0863179254757203</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M25" s="2">
         <v>3.5906428465264</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N25" s="2">
         <v>3.2515441642074201</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O25" s="2">
         <v>3.1618111342489801</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P25" s="2">
         <v>5.8904556797615504</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q25" s="2">
         <v>3.22386950653424</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R25" s="2">
         <v>4.0772778151363998</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S25" s="2">
         <v>5.4174786287531704</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T25" s="2">
         <v>4.9470881638330599</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U25" s="2">
         <v>4.9470881638330599</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V25" s="2">
         <v>5.9753234997738804</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W25" s="2">
         <v>5.9753234997738804</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X25" s="2">
         <v>5.8439132268577101</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y25" s="2">
         <v>7.0779033799306603</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z25" s="2">
         <v>4.1227616895422896</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA25" s="2">
         <v>3.2989442185569402</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB25" s="2">
         <v>3.7454347700340498</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC25" s="2">
         <v>5.9761016550988897</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD25" s="2">
         <v>4.6354431495418602</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE25" s="2">
         <v>3.7842507081814101</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF25" s="2">
         <v>5.3829086429577799</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AG25" s="2">
         <v>3.9274740503868899</v>
       </c>
-      <c r="AH24" s="3">
+      <c r="AH25" s="2">
         <v>5.6694494475122399</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AI25" s="2">
         <v>2.9785820448429901</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AJ25" s="2">
         <v>4.0874075934425003</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AK25" s="2">
         <v>5.0077380712648001</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="2">
         <v>2.7721263747457399</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="2">
         <v>2.80173341543105</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="2">
         <v>2.5101358175189499</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="2">
         <v>1.30040806550296</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="2">
         <v>2.8559683125466</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J26" s="2">
         <v>3.1553167502692601</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K26" s="2">
         <v>5.7289885924860497</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L26" s="2">
         <v>4.7255682846854503</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M26" s="2">
         <v>4.0069450017351098</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N26" s="2">
         <v>4.1886813957433198</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O26" s="2">
         <v>4.0277379556642199</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P26" s="2">
         <v>5.53363549194545</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q26" s="2">
         <v>4.6189366763499802</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R26" s="2">
         <v>5.5559189896507002</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S26" s="2">
         <v>6.8395969745634702</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T26" s="2">
         <v>6.5797506321044104</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U26" s="2">
         <v>6.5797506321044104</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V26" s="2">
         <v>7.3890981437762404</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W26" s="2">
         <v>7.3890981437762404</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X26" s="2">
         <v>7.1829561747304904</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y26" s="2">
         <v>8.5677403876384002</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z26" s="2">
         <v>3.8926437320095402</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA26" s="2">
         <v>3.6801686680034602</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AB26" s="2">
         <v>3.6892864367908702</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AC26" s="2">
         <v>6.7472348193240101</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD26" s="2">
         <v>6.1095304331539104</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AE26" s="2">
         <v>5.2054664696056996</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AF26" s="2">
         <v>6.8327679560524404</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AG26" s="2">
         <v>5.4966027576904297</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AH26" s="2">
         <v>7.3926778057877298</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AI26" s="2">
         <v>4.8133684431168904</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AJ26" s="2">
         <v>5.9163690774136999</v>
       </c>
-      <c r="AK25" s="3">
+      <c r="AK26" s="2">
         <v>6.5478549375351296</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="2">
         <v>5.4557202588531997</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="2">
         <v>5.3953322301719302</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="2">
         <v>5.4998583741226001</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="2">
         <v>4.1934238295345097</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="2">
         <v>5.54965723766857</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J27" s="2">
         <v>5.99812281220321</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K27" s="2">
         <v>5.54508468951982</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L27" s="2">
         <v>6.1663789879034701</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M27" s="2">
         <v>6.0073654445862799</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N27" s="2">
         <v>5.0746485912406296</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O27" s="2">
         <v>4.82918798290686</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P27" s="2">
         <v>4.5135925713941596</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q27" s="2">
         <v>5.8541739753225004</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R27" s="2">
         <v>6.6664261054201299</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S27" s="2">
         <v>8.4531803297597907</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T27" s="2">
         <v>8.1038576075272601</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U27" s="2">
         <v>8.1038576075272601</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V27" s="2">
         <v>8.8339844782512102</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W27" s="2">
         <v>8.8339844782512102</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X27" s="2">
         <v>7.9574462476561401</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y27" s="2">
         <v>9.2873194538853507</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z27" s="2">
         <v>3.7296225949570401</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA27" s="2">
         <v>4.2361097974314399</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB27" s="2">
         <v>3.9108038993435401</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC27" s="2">
         <v>8.5155535319823201</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD27" s="2">
         <v>9.0295810145576496</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AE27" s="2">
         <v>8.2933393837988607</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AF27" s="2">
         <v>9.2724745770765509</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AG27" s="2">
         <v>8.6184945535183903</v>
       </c>
-      <c r="AH26" s="3">
+      <c r="AH27" s="2">
         <v>9.7601515241917305</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AI27" s="2">
         <v>7.8996034334655896</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AJ27" s="2">
         <v>8.5869065557343607</v>
       </c>
-      <c r="AK26" s="3">
+      <c r="AK27" s="2">
         <v>9.5187881025378704</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="2">
         <v>4.9987762771899904</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="2">
         <v>5.32356945478403</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="2">
         <v>5.3491474940736499</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="2">
         <v>4.0135740469808301</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I28" s="2">
         <v>5.6116811414710996</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J28" s="2">
         <v>6.0091454186758098</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K28" s="2">
         <v>6.4285346708865196</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L28" s="2">
         <v>6.7282510766663401</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M28" s="2">
         <v>6.2249633121093897</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N28" s="2">
         <v>4.7549701805629798</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O28" s="2">
         <v>4.4014188268262302</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P28" s="2">
         <v>5.1413672498244196</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q28" s="2">
         <v>5.2167856161063204</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R28" s="2">
         <v>5.9549039500428398</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S28" s="2">
         <v>8.4330209633099997</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T28" s="2">
         <v>7.8668840465411796</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U28" s="2">
         <v>7.8668840465411796</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V28" s="2">
         <v>8.8248435151076503</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W28" s="2">
         <v>8.8248435151076503</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X28" s="2">
         <v>7.7619155941032298</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y28" s="2">
         <v>8.9586327423680103</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z28" s="2">
         <v>4.0428525934531301</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA28" s="2">
         <v>4.1347564977801703</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB28" s="2">
         <v>4.1149879090779198</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AC28" s="2">
         <v>8.8262836826078601</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD28" s="2">
         <v>8.8713091560955508</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AE28" s="2">
         <v>8.0760854603464001</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AF28" s="2">
         <v>9.2387571176824501</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AG28" s="2">
         <v>8.3401300884101506</v>
       </c>
-      <c r="AH27" s="3">
+      <c r="AH28" s="2">
         <v>9.6024020244858797</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AI28" s="2">
         <v>7.5048125389142202</v>
       </c>
-      <c r="AJ27" s="3">
+      <c r="AJ28" s="2">
         <v>7.58698281663332</v>
       </c>
-      <c r="AK27" s="3">
+      <c r="AK28" s="2">
         <v>8.5217766314928696</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="2">
         <v>1.6658148515804601</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="2">
         <v>2.1951887153897198</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="2">
         <v>2.7714736446791299</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="2">
         <v>2.9633565786597602</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="2">
         <v>3.2907762542596899</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J29" s="2">
         <v>3.3995364104085399</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K29" s="2">
         <v>5.2714963371537404</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L29" s="2">
         <v>4.66280867081539</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M29" s="2">
         <v>2.80289039576475</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N29" s="2">
         <v>1.6698830596223599</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O29" s="2">
         <v>2.01234633915112</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P29" s="2">
         <v>4.4877529156783096</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q29" s="2">
         <v>2.2429926423215898</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R29" s="2">
         <v>3.0879271026900099</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S29" s="2">
         <v>3.0891734193324698</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T29" s="2">
         <v>2.59839022079227</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U29" s="2">
         <v>2.59839022079227</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V29" s="2">
         <v>3.5723428081323698</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W29" s="2">
         <v>3.5723428081323698</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X29" s="2">
         <v>3.4708425536157899</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y29" s="2">
         <v>4.9146255441362703</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z29" s="2">
         <v>3.0370682268472899</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA29" s="2">
         <v>2.0470935829758599</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AB29" s="2">
         <v>2.6061001212826498</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AC29" s="2">
         <v>4.4485204360272403</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AD29" s="2">
         <v>4.22498789278003</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AE29" s="2">
         <v>3.90033648079923</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AF29" s="2">
         <v>4.0694020608923198</v>
       </c>
-      <c r="AG28" s="3">
+      <c r="AG29" s="2">
         <v>4.0325821437155103</v>
       </c>
-      <c r="AH28" s="3">
+      <c r="AH29" s="2">
         <v>4.1047820166831999</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AI29" s="2">
         <v>3.18428610608255</v>
       </c>
-      <c r="AJ28" s="3">
+      <c r="AJ29" s="2">
         <v>5.2274431855601602</v>
       </c>
-      <c r="AK28" s="3">
+      <c r="AK29" s="2">
         <v>6.6201931890573702</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="2">
         <v>3.50628117603708</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="2">
         <v>4.4456503089454502</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="2">
         <v>4.6975410972228104</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="2">
         <v>5.3503529023188499</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I30" s="2">
         <v>5.3644411590377699</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J30" s="2">
         <v>5.2077943464562599</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K30" s="2">
         <v>8.0166243194038493</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L30" s="2">
         <v>6.97909296398569</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M30" s="2">
         <v>5.0340193407615104</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N30" s="2">
         <v>4.05924347415813</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O30" s="2">
         <v>4.2646756019926899</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P30" s="2">
         <v>7.2883559596243597</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q30" s="2">
         <v>3.4491804244228099</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R30" s="2">
         <v>3.5046578065953198</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S30" s="2">
         <v>3.4402311443475302</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T30" s="2">
         <v>2.53224488184448</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U30" s="2">
         <v>2.53224488184448</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V30" s="2">
         <v>3.7665588718271099</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W30" s="2">
         <v>3.7665588718271099</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X30" s="2">
         <v>3.9832338528414599</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y30" s="2">
         <v>4.57645940476693</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z30" s="2">
         <v>6.0018917808885499</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA30" s="2">
         <v>4.8832099527409403</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB30" s="2">
         <v>5.58522897448929</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AC30" s="2">
         <v>5.6051160717427297</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AD30" s="2">
         <v>3.9237422372508401</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AE30" s="2">
         <v>3.94959331080651</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AF30" s="2">
         <v>3.86473061295592</v>
       </c>
-      <c r="AG29" s="3">
+      <c r="AG30" s="2">
         <v>3.6966442538189699</v>
       </c>
-      <c r="AH29" s="3">
+      <c r="AH30" s="2">
         <v>3.0590478464893498</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AI30" s="2">
         <v>2.88886496275645</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AJ30" s="2">
         <v>4.0478907293711099</v>
       </c>
-      <c r="AK29" s="3">
+      <c r="AK30" s="2">
         <v>5.4875418004133696</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="2">
         <v>7.4174261276044602</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="2">
         <v>7.4661189707375497</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="2">
         <v>8.07873869181463</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="2">
         <v>8.7311542681607008</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="2">
         <v>8.2537422721667095</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J31" s="2">
         <v>8.1937473915866708</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K31" s="2">
         <v>8.3154472911715498</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L31" s="2">
         <v>8.3074793778011404</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M31" s="2">
         <v>6.9286334983625499</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N31" s="2">
         <v>6.4994787214609797</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O31" s="2">
         <v>6.9513755324788304</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P31" s="2">
         <v>7.7607010107048202</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q31" s="2">
         <v>6.7310533799191496</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R31" s="2">
         <v>6.6666452847745399</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S31" s="2">
         <v>3.1579652657475901</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T31" s="2">
         <v>3.5095446282291198</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U31" s="2">
         <v>3.5095446282291198</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V31" s="2">
         <v>2.57952302872933</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W31" s="2">
         <v>2.57952302872933</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X31" s="2">
         <v>3.8632867328234299</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y31" s="2">
         <v>3.9838093463623498</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Z31" s="2">
         <v>7.5933105533032998</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AA31" s="2">
         <v>7.0621671339843699</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AB31" s="2">
         <v>7.3568429128130601</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AC31" s="2">
         <v>5.5000428853076304</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AD31" s="2">
         <v>6.4885825377685196</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AE31" s="2">
         <v>7.1921021762516597</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AF31" s="2">
         <v>4.9244729941124499</v>
       </c>
-      <c r="AG30" s="3">
+      <c r="AG31" s="2">
         <v>7.1053760825416896</v>
       </c>
-      <c r="AH30" s="3">
+      <c r="AH31" s="2">
         <v>3.9672782484442402</v>
       </c>
-      <c r="AI30" s="3">
+      <c r="AI31" s="2">
         <v>6.94308151062154</v>
       </c>
-      <c r="AJ30" s="3">
+      <c r="AJ31" s="2">
         <v>9.1550726610749997</v>
       </c>
-      <c r="AK30" s="3">
+      <c r="AK31" s="2">
         <v>10.612881509382399</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="2">
         <v>3.40179697439455</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="2">
         <v>4.3566510408744898</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="2">
         <v>4.8729779328645799</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H32" s="2">
         <v>4.9282642747472698</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I32" s="2">
         <v>5.4558103476311599</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J32" s="2">
         <v>5.5402426183910798</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K32" s="2">
         <v>6.7566189276786703</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L32" s="2">
         <v>6.6712916862722302</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M32" s="2">
         <v>4.8473196871181301</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N32" s="2">
         <v>1.96107194731752</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O32" s="2">
         <v>2.1888389322977502</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P32" s="2">
         <v>5.1879089555829996</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q32" s="2">
         <v>1.5917820182286699</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R32" s="2">
         <v>1.67042132882734</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S32" s="2">
         <v>3.3049750471039299</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T32" s="2">
         <v>1.8218913722922701</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U32" s="2">
         <v>1.8218913722922701</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V32" s="2">
         <v>3.4492079324226901</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W32" s="2">
         <v>3.4492079324226901</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X32" s="2">
         <v>1.98989028052539</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y32" s="2">
         <v>2.9646895197240402</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="Z32" s="2">
         <v>4.13612907804667</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="AA32" s="2">
         <v>2.9744933826897002</v>
       </c>
-      <c r="AB31" s="3">
+      <c r="AB32" s="2">
         <v>3.80612602412715</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AC32" s="2">
         <v>5.8310026117186498</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AD32" s="2">
         <v>5.6182555277180004</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AE32" s="2">
         <v>5.5042299321339598</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AF32" s="2">
         <v>5.14283714577269</v>
       </c>
-      <c r="AG31" s="3">
+      <c r="AG32" s="2">
         <v>5.4760899874857198</v>
       </c>
-      <c r="AH31" s="3">
+      <c r="AH32" s="2">
         <v>4.5835682198483099</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AI32" s="2">
         <v>4.5478478268765699</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AJ32" s="2">
         <v>5.2596573530875999</v>
       </c>
-      <c r="AK31" s="3">
+      <c r="AK32" s="2">
         <v>7.01634865041407</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="2">
         <v>6.20310646412086</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="2">
         <v>7.2449284184686196</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="2">
         <v>7.6570270275718997</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H33" s="2">
         <v>7.99268370351811</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I33" s="2">
         <v>8.2885939364021493</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J33" s="2">
         <v>8.2366333680756902</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K33" s="2">
         <v>9.7689330273130306</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L33" s="2">
         <v>9.5288006622396502</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M33" s="2">
         <v>7.6415754411429599</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N33" s="2">
         <v>5.3035413279020398</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O33" s="2">
         <v>5.4560215717537801</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P33" s="2">
         <v>8.2524598710191999</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q33" s="2">
         <v>4.4867931797345699</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R33" s="2">
         <v>3.8160273718455202</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S33" s="2">
         <v>4.7784582031689897</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T33" s="2">
         <v>3.36891567635206</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U33" s="2">
         <v>3.36891567635206</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V33" s="2">
         <v>4.6092823225283901</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W33" s="2">
         <v>4.6092823225283901</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X33" s="2">
         <v>3.4864619221451698</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y33" s="2">
         <v>2.60795181122799</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Z33" s="2">
         <v>7.44473552115209</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA33" s="2">
         <v>6.3263929095295</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AB33" s="2">
         <v>7.1321286225165901</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AC33" s="2">
         <v>7.7842811892121997</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AD33" s="2">
         <v>7.0286300528540302</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AE33" s="2">
         <v>7.2306557047331204</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AF33" s="2">
         <v>6.39946148373354</v>
       </c>
-      <c r="AG32" s="3">
+      <c r="AG33" s="2">
         <v>6.9897651520941002</v>
       </c>
-      <c r="AH32" s="3">
+      <c r="AH33" s="2">
         <v>5.22076380069882</v>
       </c>
-      <c r="AI32" s="3">
+      <c r="AI33" s="2">
         <v>6.2330347557844297</v>
       </c>
-      <c r="AJ32" s="3">
+      <c r="AJ33" s="2">
         <v>5.9924173761205903</v>
       </c>
-      <c r="AK32" s="3">
+      <c r="AK33" s="2">
         <v>7.7204937710530102</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="2">
         <v>2.56085081820031</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="2">
         <v>3.0780267839457598</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="2">
         <v>2.73241041760912</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H34" s="2">
         <v>1.7265392971152</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I34" s="2">
         <v>3.3034753665532</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J34" s="2">
         <v>3.5147325449964599</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K34" s="2">
         <v>6.4657663235591798</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L34" s="2">
         <v>5.4201463204304501</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M34" s="2">
         <v>4.4591943288936502</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N34" s="2">
         <v>4.1398821269807797</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O34" s="2">
         <v>3.9126944717860699</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P34" s="2">
         <v>6.0262710803544897</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q34" s="2">
         <v>4.2776722352408303</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R34" s="2">
         <v>5.1407076437945296</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S34" s="2">
         <v>6.9291366560941396</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T34" s="2">
         <v>6.49397340899867</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U34" s="2">
         <v>6.49397340899867</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V34" s="2">
         <v>7.4725686189204996</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W34" s="2">
         <v>7.4725686189204996</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X34" s="2">
         <v>7.1241640532401904</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y34" s="2">
         <v>8.3897378295900999</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z34" s="2">
         <v>4.3126015549856298</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA34" s="2">
         <v>3.8419382682128602</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB34" s="2">
         <v>4.0663691144550604</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AC34" s="2">
         <v>7.13607932525011</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AD34" s="2">
         <v>6.1235732225897701</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AE34" s="2">
         <v>5.1871120966967004</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AF34" s="2">
         <v>6.9331327987063496</v>
       </c>
-      <c r="AG33" s="3">
+      <c r="AG34" s="2">
         <v>5.40538521042917</v>
       </c>
-      <c r="AH33" s="3">
+      <c r="AH34" s="2">
         <v>7.3645553540742004</v>
       </c>
-      <c r="AI33" s="3">
+      <c r="AI34" s="2">
         <v>4.6050583093388697</v>
       </c>
-      <c r="AJ33" s="3">
+      <c r="AJ34" s="2">
         <v>5.1278901585561103</v>
       </c>
-      <c r="AK33" s="3">
+      <c r="AK34" s="2">
         <v>5.7649753877795504</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E35" s="2">
         <v>8.2190065609488503</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="2">
         <v>6.8272284706934103</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="2">
         <v>6.8530734069124302</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H35" s="2">
         <v>7.9373864970375996</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I35" s="2">
         <v>6.2088401412316898</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J35" s="2">
         <v>5.95573744429411</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K35" s="2">
         <v>7.3793310495259101</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L35" s="2">
         <v>5.1852225797544698</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M35" s="2">
         <v>5.80850322973044</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N35" s="2">
         <v>9.6243302510632596</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O35" s="2">
         <v>10.011978868546899</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P35" s="2">
         <v>9.7161872009260293</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q35" s="2">
         <v>10.4110978106188</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R35" s="2">
         <v>11.178585675158899</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S35" s="2">
         <v>7.3589855821286401</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T35" s="2">
         <v>8.7732381357276399</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U35" s="2">
         <v>8.7732381357276399</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V35" s="2">
         <v>7.7991526998900698</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W35" s="2">
         <v>7.7991526998900698</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X35" s="2">
         <v>10.1510933862666</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Y35" s="2">
         <v>11.5726426776042</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="Z35" s="2">
         <v>9.1297435087610292</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA35" s="2">
         <v>9.3117783149191702</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AB35" s="2">
         <v>8.9151762756922199</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AC35" s="2">
         <v>4.5116694614565702</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AD35" s="2">
         <v>5.180835125362</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AE35" s="2">
         <v>5.5962782162111298</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AF35" s="2">
         <v>5.2307885339240103</v>
       </c>
-      <c r="AG34" s="3">
+      <c r="AG35" s="2">
         <v>5.9001838183944697</v>
       </c>
-      <c r="AH34" s="3">
+      <c r="AH35" s="2">
         <v>6.4996605650496999</v>
       </c>
-      <c r="AI34" s="3">
+      <c r="AI35" s="2">
         <v>6.8821906461144504</v>
       </c>
-      <c r="AJ34" s="3">
+      <c r="AJ35" s="2">
         <v>11.150655387135901</v>
       </c>
-      <c r="AK34" s="3">
+      <c r="AK35" s="2">
         <v>11.3248384460714</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="2">
         <v>4.4989391159802397</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="2">
         <v>5.1688238524205801</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G36" s="2">
         <v>4.99145597145914</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H36" s="2">
         <v>5.97621270781611</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I36" s="2">
         <v>5.6270041484336</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J36" s="2">
         <v>5.2660712957030498</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K36" s="2">
         <v>9.4667099266549695</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L36" s="2">
         <v>7.5903985467995199</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M36" s="2">
         <v>5.9126773495176304</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N36" s="2">
         <v>6.3527028436168402</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O36" s="2">
         <v>6.4815537183088896</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P36" s="2">
         <v>9.4261177468281101</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q36" s="2">
         <v>5.7679902602385402</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R36" s="2">
         <v>5.9828887353443196</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S36" s="2">
         <v>5.5926867495730104</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T36" s="2">
         <v>5.31221861709985</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U36" s="2">
         <v>5.31221861709985</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V36" s="2">
         <v>6.0603597854884699</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W36" s="2">
         <v>6.0603597854884699</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X36" s="2">
         <v>6.9253317474031002</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y36" s="2">
         <v>7.5558372641232801</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="Z36" s="2">
         <v>7.9235646201264496</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA36" s="2">
         <v>6.9309858025508504</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AB36" s="2">
         <v>7.4854973185620199</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AC36" s="2">
         <v>6.5175803779333803</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AD36" s="2">
         <v>3.2684540322937301</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AE36" s="2">
         <v>3.1225944042321201</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AF36" s="2">
         <v>4.3323262087268199</v>
       </c>
-      <c r="AG35" s="3">
+      <c r="AG36" s="2">
         <v>2.6394689322017402</v>
       </c>
-      <c r="AH35" s="3">
+      <c r="AH36" s="2">
         <v>4.00688657550511</v>
       </c>
-      <c r="AI35" s="3">
+      <c r="AI36" s="2">
         <v>2.3727520748302799</v>
       </c>
-      <c r="AJ35" s="3">
+      <c r="AJ36" s="2">
         <v>3.7140176962607301</v>
       </c>
-      <c r="AK35" s="3">
+      <c r="AK36" s="2">
         <v>4.04069157852273</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E37" s="2">
         <v>5.8599872249875498</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="2">
         <v>5.2760803939908101</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G37" s="2">
         <v>4.8840661054332104</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H37" s="2">
         <v>6.1421733573722896</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I37" s="2">
         <v>4.8642146098162504</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J37" s="2">
         <v>4.3830555038704597</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K37" s="2">
         <v>8.7377134051048007</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L37" s="2">
         <v>6.07686174068089</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M37" s="2">
         <v>5.4219850215103698</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N37" s="2">
         <v>8.1869559119673703</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O37" s="2">
         <v>8.4052089278627697</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P37" s="2">
         <v>9.9991810847528999</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q37" s="2">
         <v>8.3107677678028207</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R37" s="2">
         <v>8.9463945925367696</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S37" s="2">
         <v>6.9419503116408796</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T37" s="2">
         <v>7.5835098976118402</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U37" s="2">
         <v>7.5835098976118402</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V37" s="2">
         <v>7.5392446546882601</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W37" s="2">
         <v>7.5392446546882601</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X37" s="2">
         <v>9.2703164208171493</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Y37" s="2">
         <v>10.4392264997275</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="Z37" s="2">
         <v>8.6537251875212906</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AA37" s="2">
         <v>8.2223636425292401</v>
       </c>
-      <c r="AB36" s="3">
+      <c r="AB37" s="2">
         <v>8.2850738742008296</v>
       </c>
-      <c r="AC36" s="3">
+      <c r="AC37" s="2">
         <v>5.7157372471960803</v>
       </c>
-      <c r="AD36" s="3">
+      <c r="AD37" s="2">
         <v>2.8654836455139598</v>
       </c>
-      <c r="AE36" s="3">
+      <c r="AE37" s="2">
         <v>2.69500838172012</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AF37" s="2">
         <v>4.4539467818121503</v>
       </c>
-      <c r="AG36" s="3">
+      <c r="AG37" s="2">
         <v>2.7016381114324699</v>
       </c>
-      <c r="AH36" s="3">
+      <c r="AH37" s="2">
         <v>5.3033427124338104</v>
       </c>
-      <c r="AI36" s="3">
+      <c r="AI37" s="2">
         <v>3.7207982133522801</v>
       </c>
-      <c r="AJ36" s="3">
+      <c r="AJ37" s="2">
         <v>7.1398390211806104</v>
       </c>
-      <c r="AK36" s="3">
+      <c r="AK37" s="2">
         <v>6.8120455373489399</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="2">
         <v>2.7769666903968102</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="2">
         <v>1.59790102551126</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="2">
         <v>2.1947571412565101</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H38" s="2">
         <v>3.0590838950624599</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I38" s="2">
         <v>2.0555656421042099</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J38" s="2">
         <v>2.0541711340459101</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K38" s="2">
         <v>4.2671677699193697</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L38" s="2">
         <v>2.7404841153970998</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M38" s="2">
         <v>0.86141752566708996</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N38" s="2">
         <v>3.7548325043648401</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O38" s="2">
         <v>4.1340054585779002</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P38" s="2">
         <v>4.9360349123659804</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q38" s="2">
         <v>4.5926300415308603</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R38" s="2">
         <v>5.4346324284693397</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S38" s="2">
         <v>3.1106001061460198</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T38" s="2">
         <v>3.7997331020927598</v>
       </c>
-      <c r="U37" s="3">
+      <c r="U38" s="2">
         <v>3.7997331020927598</v>
       </c>
-      <c r="V37" s="3">
+      <c r="V38" s="2">
         <v>3.7362619225923699</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W38" s="2">
         <v>3.7362619225923699</v>
       </c>
-      <c r="X37" s="3">
+      <c r="X38" s="2">
         <v>4.9946874488242603</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Y38" s="2">
         <v>6.5772514282622803</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="Z38" s="2">
         <v>3.7835926945278699</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AA38" s="2">
         <v>3.5539887013335401</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AB38" s="2">
         <v>3.4374542296345898</v>
       </c>
-      <c r="AC37" s="3">
+      <c r="AC38" s="2">
         <v>2.5132208659563702</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AD38" s="2">
         <v>2.9627129960488299</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AE38" s="2">
         <v>2.7877912144237298</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AF38" s="2">
         <v>2.79577168584655</v>
       </c>
-      <c r="AG37" s="3">
+      <c r="AG38" s="2">
         <v>3.1494227543573401</v>
       </c>
-      <c r="AH37" s="3">
+      <c r="AH38" s="2">
         <v>3.6037655621475602</v>
       </c>
-      <c r="AI37" s="3">
+      <c r="AI38" s="2">
         <v>2.9867169182184599</v>
       </c>
-      <c r="AJ37" s="3">
+      <c r="AJ38" s="2">
         <v>6.6476490580608596</v>
       </c>
-      <c r="AK37" s="3">
+      <c r="AK38" s="2">
         <v>7.59003417112537</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="2">
         <v>7.4903594170292003</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F39" s="2">
         <v>6.7059695189991899</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G39" s="2">
         <v>6.5769170123802496</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H39" s="2">
         <v>7.9055200880959502</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I39" s="2">
         <v>6.3852862701214104</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J39" s="2">
         <v>5.9487478177500002</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K39" s="2">
         <v>9.2099065805504203</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L39" s="2">
         <v>6.75678959277798</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M39" s="2">
         <v>6.2979636485284596</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N39" s="2">
         <v>9.33181907968814</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O39" s="2">
         <v>9.6675628153063808</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P39" s="2">
         <v>10.748853882882599</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q39" s="2">
         <v>9.6084674737102702</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R39" s="2">
         <v>10.175480031071499</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S39" s="2">
         <v>6.9145489864049301</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T39" s="2">
         <v>7.9549589307780302</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U39" s="2">
         <v>7.9549589307780302</v>
       </c>
-      <c r="V38" s="3">
+      <c r="V39" s="2">
         <v>7.3864392512450996</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W39" s="2">
         <v>7.3864392512450996</v>
       </c>
-      <c r="X38" s="3">
+      <c r="X39" s="2">
         <v>9.6574031741527406</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="Y39" s="2">
         <v>10.7555873029893</v>
       </c>
-      <c r="Z38" s="3">
+      <c r="Z39" s="2">
         <v>9.7170075117766803</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AA39" s="2">
         <v>9.3929858823882704</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AB39" s="2">
         <v>9.3719410004773902</v>
       </c>
-      <c r="AC38" s="3">
+      <c r="AC39" s="2">
         <v>5.3290961940162997</v>
       </c>
-      <c r="AD38" s="3">
+      <c r="AD39" s="2">
         <v>3.5064694574161299</v>
       </c>
-      <c r="AE38" s="3">
+      <c r="AE39" s="2">
         <v>4.0985484686890796</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AF39" s="2">
         <v>4.2057004428220699</v>
       </c>
-      <c r="AG38" s="3">
+      <c r="AG39" s="2">
         <v>4.0851716723690803</v>
       </c>
-      <c r="AH38" s="3">
+      <c r="AH39" s="2">
         <v>5.0492766896936896</v>
       </c>
-      <c r="AI38" s="3">
+      <c r="AI39" s="2">
         <v>5.2361440508872699</v>
       </c>
-      <c r="AJ38" s="3">
+      <c r="AJ39" s="2">
         <v>9.0429235900595106</v>
       </c>
-      <c r="AK38" s="3">
+      <c r="AK39" s="2">
         <v>8.9678944177767494</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E40" s="2">
         <v>2.93417989787251</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F40" s="2">
         <v>2.3344324945323001</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G40" s="2">
         <v>2.2560802740220098</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H40" s="2">
         <v>3.57571834454538</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I40" s="2">
         <v>2.45924098919442</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J40" s="2">
         <v>2.0576653525666502</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K40" s="2">
         <v>6.2404378826462903</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L40" s="2">
         <v>4.08276184381943</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M40" s="2">
         <v>2.6238951596942699</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N40" s="2">
         <v>4.9760645754453101</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O40" s="2">
         <v>5.2395446927656897</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P40" s="2">
         <v>6.9391368640919202</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q40" s="2">
         <v>5.2656854262205703</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R40" s="2">
         <v>5.9880890174077699</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S40" s="2">
         <v>4.1723484511062496</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T40" s="2">
         <v>4.6439828431863903</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U40" s="2">
         <v>4.6439828431863903</v>
       </c>
-      <c r="V39" s="3">
+      <c r="V40" s="2">
         <v>4.8242493523193701</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W40" s="2">
         <v>4.8242493523193701</v>
       </c>
-      <c r="X39" s="3">
+      <c r="X40" s="2">
         <v>6.20172522684806</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Y40" s="2">
         <v>7.5235571990584198</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="Z40" s="2">
         <v>5.5564395761225196</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AA40" s="2">
         <v>5.0344643426510904</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AB40" s="2">
         <v>5.1625809596426304</v>
       </c>
-      <c r="AC39" s="3">
+      <c r="AC40" s="2">
         <v>3.6695045265626298</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AD40" s="2">
         <v>1.39410647009318</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AE40" s="2">
         <v>0.68648662472559796</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AF40" s="2">
         <v>2.5618138739978402</v>
       </c>
-      <c r="AG39" s="3">
+      <c r="AG40" s="2">
         <v>1.10361964487972</v>
       </c>
-      <c r="AH39" s="3">
+      <c r="AH40" s="2">
         <v>3.3646606767871901</v>
       </c>
-      <c r="AI39" s="3">
+      <c r="AI40" s="2">
         <v>1.37076156987583</v>
       </c>
-      <c r="AJ39" s="3">
+      <c r="AJ40" s="2">
         <v>5.6175848226636003</v>
       </c>
-      <c r="AK39" s="3">
+      <c r="AK40" s="2">
         <v>6.1529134945656097</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="2">
         <v>6.2899593774188096</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="2">
         <v>5.7532724865462201</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="2">
         <v>5.2221483772637898</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H41" s="2">
         <v>6.3457499802362802</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I41" s="2">
         <v>5.2088149716143199</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J41" s="2">
         <v>4.7494251602550097</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K41" s="2">
         <v>9.3012930938200693</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L41" s="2">
         <v>6.5687190858084401</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M41" s="2">
         <v>6.0770490128831502</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N41" s="2">
         <v>8.7890200967607903</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O41" s="2">
         <v>8.9475114614794595</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P41" s="2">
         <v>10.5940230081364</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q41" s="2">
         <v>8.8714250167137401</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R41" s="2">
         <v>9.5367246347973094</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S41" s="2">
         <v>8.0058478030416804</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T41" s="2">
         <v>8.5432199619131701</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U41" s="2">
         <v>8.5432199619131701</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V41" s="2">
         <v>8.62482602091589</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W41" s="2">
         <v>8.62482602091589</v>
       </c>
-      <c r="X40" s="3">
+      <c r="X41" s="2">
         <v>10.1841284284731</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="Y41" s="2">
         <v>11.3728021513533</v>
       </c>
-      <c r="Z40" s="3">
+      <c r="Z41" s="2">
         <v>9.1724452501055502</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AA41" s="2">
         <v>8.7663591487022394</v>
       </c>
-      <c r="AB40" s="3">
+      <c r="AB41" s="2">
         <v>8.8162437931554596</v>
       </c>
-      <c r="AC40" s="3">
+      <c r="AC41" s="2">
         <v>6.7374780766235904</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AD41" s="2">
         <v>3.9752215557805002</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AE41" s="2">
         <v>3.5514552838671798</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AF41" s="2">
         <v>5.6320720705123897</v>
       </c>
-      <c r="AG40" s="3">
+      <c r="AG41" s="2">
         <v>3.5883130526674099</v>
       </c>
-      <c r="AH40" s="3">
+      <c r="AH41" s="2">
         <v>6.4797385150659101</v>
       </c>
-      <c r="AI40" s="3">
+      <c r="AI41" s="2">
         <v>4.4160652420608999</v>
       </c>
-      <c r="AJ40" s="3">
+      <c r="AJ41" s="2">
         <v>7.3211508660720002</v>
       </c>
-      <c r="AK40" s="3">
+      <c r="AK41" s="2">
         <v>6.7053762605418497</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="2">
         <v>4.2890711045384604</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="2">
         <v>3.2429788363153298</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="2">
         <v>2.9283894107696602</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H42" s="2">
         <v>4.1786481089193899</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I42" s="2">
         <v>2.6572595583815599</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J42" s="2">
         <v>2.2037413932067298</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K42" s="2">
         <v>6.4450345132861004</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L42" s="2">
         <v>3.7837610332026799</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M42" s="2">
         <v>3.2185193770692799</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N42" s="2">
         <v>6.4485819087258802</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O42" s="2">
         <v>6.6904640089710004</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P42" s="2">
         <v>7.7996785167633798</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q42" s="2">
         <v>6.8905575388858402</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R42" s="2">
         <v>7.6901455690645601</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S42" s="2">
         <v>5.6484284240150204</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T42" s="2">
         <v>6.3692531975363096</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U42" s="2">
         <v>6.3692531975363096</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V42" s="2">
         <v>6.2918403720810101</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W42" s="2">
         <v>6.2918403720810101</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X42" s="2">
         <v>7.8717863167623596</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y42" s="2">
         <v>9.2783276455026602</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="Z42" s="2">
         <v>6.5140110853674802</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AA42" s="2">
         <v>6.2758419810847501</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AB42" s="2">
         <v>6.1809044271857401</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AC42" s="2">
         <v>4.1112100842538402</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AD42" s="2">
         <v>2.3366062677693802</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AE42" s="2">
         <v>1.8169920278624001</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AF42" s="2">
         <v>3.6238321113267702</v>
       </c>
-      <c r="AG41" s="3">
+      <c r="AG42" s="2">
         <v>2.2484624377671101</v>
       </c>
-      <c r="AH41" s="3">
+      <c r="AH42" s="2">
         <v>4.7515333295062101</v>
       </c>
-      <c r="AI41" s="3">
+      <c r="AI42" s="2">
         <v>2.9774839044392301</v>
       </c>
-      <c r="AJ41" s="3">
+      <c r="AJ42" s="2">
         <v>6.9381130602559598</v>
       </c>
-      <c r="AK41" s="3">
+      <c r="AK42" s="2">
         <v>7.0687224037360696</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="2">
         <v>2.38359678541216</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="2">
         <v>2.3833441907670601</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="2">
         <v>3.0690332663457598</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H43" s="2">
         <v>3.4326038381372701</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I43" s="2">
         <v>3.38658638125571</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J43" s="2">
         <v>3.4825324088667902</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K43" s="2">
         <v>4.8488436169847704</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L43" s="2">
         <v>4.3176772214265604</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M43" s="2">
         <v>2.4750932640417398</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N43" s="2">
         <v>2.1246818139571002</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O43" s="2">
         <v>2.58240569163135</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P43" s="2">
         <v>4.2928650433698499</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q43" s="2">
         <v>2.9140636709898402</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R43" s="2">
         <v>3.6637028207619902</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S43" s="2">
         <v>2.3336350416558802</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T43" s="2">
         <v>2.2229037023082499</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U43" s="2">
         <v>2.2229037023082499</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V43" s="2">
         <v>2.8382717551453802</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W43" s="2">
         <v>2.8382717551453802</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X43" s="2">
         <v>3.2001789855214802</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y43" s="2">
         <v>4.76618424380941</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z43" s="2">
         <v>3.0895510031098601</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA43" s="2">
         <v>2.3586011262387299</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB43" s="2">
         <v>2.6909760311219202</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC43" s="2">
         <v>3.69442300517616</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AD43" s="2">
         <v>4.0043507522300201</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AE43" s="2">
         <v>3.8730694118504001</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AF43" s="2">
         <v>3.5268298918321701</v>
       </c>
-      <c r="AG42" s="3">
+      <c r="AG43" s="2">
         <v>4.0351663827704698</v>
       </c>
-      <c r="AH42" s="3">
+      <c r="AH43" s="2">
         <v>3.6132630122011999</v>
       </c>
-      <c r="AI42" s="3">
+      <c r="AI43" s="2">
         <v>3.3834172829484599</v>
       </c>
-      <c r="AJ42" s="3">
+      <c r="AJ43" s="2">
         <v>5.9405198474827303</v>
       </c>
-      <c r="AK42" s="3">
+      <c r="AK43" s="2">
         <v>7.3000042232548399</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="2">
         <v>2.8332551964437802</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="2">
         <v>2.14623730874826</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G44" s="2">
         <v>2.7938026843278201</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H44" s="2">
         <v>3.5580179688501801</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I44" s="2">
         <v>2.8578687304136401</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J44" s="2">
         <v>2.85174605861509</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K44" s="2">
         <v>4.6005993565485603</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L44" s="2">
         <v>3.5068543024203001</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M44" s="2">
         <v>1.6709646413973001</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N44" s="2">
         <v>3.3605870103970399</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O44" s="2">
         <v>3.79600384402156</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P44" s="2">
         <v>4.85703091054559</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q44" s="2">
         <v>4.1368163419010697</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R44" s="2">
         <v>4.8868074195993696</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S44" s="2">
         <v>2.2527537671314999</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T44" s="2">
         <v>2.9116875103715198</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U44" s="2">
         <v>2.9116875103715198</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V44" s="2">
         <v>2.8823619801359399</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W44" s="2">
         <v>2.8823619801359399</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X44" s="2">
         <v>4.1659282818516301</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Y44" s="2">
         <v>5.7189235899019204</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Z44" s="2">
         <v>3.77622781009135</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AA44" s="2">
         <v>3.36744097333903</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AB44" s="2">
         <v>3.4105033191643299</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AC44" s="2">
         <v>2.5429855131505099</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AD44" s="2">
         <v>3.0534675309233301</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AE44" s="2">
         <v>3.0596562378140302</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AF44" s="2">
         <v>2.5162872241588099</v>
       </c>
-      <c r="AG43" s="3">
+      <c r="AG44" s="2">
         <v>3.30691105251808</v>
       </c>
-      <c r="AH43" s="3">
+      <c r="AH44" s="2">
         <v>3.0278309260284302</v>
       </c>
-      <c r="AI43" s="3">
+      <c r="AI44" s="2">
         <v>3.0125046761532999</v>
       </c>
-      <c r="AJ43" s="3">
+      <c r="AJ44" s="2">
         <v>6.4648816950754</v>
       </c>
-      <c r="AK43" s="3">
+      <c r="AK44" s="2">
         <v>7.5788643707775796</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="2">
         <v>2.76175976617106</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="2">
         <v>2.2558321397688399</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="2">
         <v>2.9450224474103299</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H45" s="2">
         <v>3.5737394860741301</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I45" s="2">
         <v>3.0735810313396001</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J45" s="2">
         <v>3.1120069622926101</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K45" s="2">
         <v>4.5796057363704996</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L45" s="2">
         <v>3.7355909649568</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M45" s="2">
         <v>1.90302834120464</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N45" s="2">
         <v>2.9856623172813501</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O45" s="2">
         <v>3.4395315541504399</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P45" s="2">
         <v>4.5848650993766</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q45" s="2">
         <v>3.7962482830520101</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R45" s="2">
         <v>4.5367268184574501</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S45" s="2">
         <v>2.09817650908801</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T45" s="2">
         <v>2.60022495736643</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U45" s="2">
         <v>2.60022495736643</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V45" s="2">
         <v>2.6982913575423999</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W45" s="2">
         <v>2.6982913575423999</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X45" s="2">
         <v>3.7714239122365898</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y45" s="2">
         <v>5.3464921423020098</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z45" s="2">
         <v>3.5083103528471802</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA45" s="2">
         <v>3.03899811013367</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AB45" s="2">
         <v>3.1381759948630599</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AC45" s="2">
         <v>2.8216373426286498</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AD45" s="2">
         <v>3.4043235852536</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AE45" s="2">
         <v>3.39216620460454</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AF45" s="2">
         <v>2.8113987950867099</v>
       </c>
-      <c r="AG44" s="3">
+      <c r="AG45" s="2">
         <v>3.6104475140330599</v>
       </c>
-      <c r="AH44" s="3">
+      <c r="AH45" s="2">
         <v>3.1603974056216302</v>
       </c>
-      <c r="AI44" s="3">
+      <c r="AI45" s="2">
         <v>3.2047256571418301</v>
       </c>
-      <c r="AJ44" s="3">
+      <c r="AJ45" s="2">
         <v>6.3974911499285296</v>
       </c>
-      <c r="AK44" s="3">
+      <c r="AK45" s="2">
         <v>7.6026105946599998</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="2">
         <v>3.7539620805318901</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="2">
         <v>3.2789963259960002</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="2">
         <v>2.9632577731129</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H46" s="2">
         <v>4.2701472276084198</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I46" s="2">
         <v>3.1432496632219298</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J46" s="2">
         <v>2.66936903299464</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K46" s="2">
         <v>7.2139067439321201</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L46" s="2">
         <v>4.8118134589591097</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M46" s="2">
         <v>3.6524183991060899</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N46" s="2">
         <v>6.0420497737022698</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O46" s="2">
         <v>6.2585692654551401</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P46" s="2">
         <v>8.06701511749141</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q46" s="2">
         <v>6.1867725662049402</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R46" s="2">
         <v>6.8629064724482998</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S46" s="2">
         <v>5.2201983347027303</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T46" s="2">
         <v>5.6736647044861597</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U46" s="2">
         <v>5.6736647044861597</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V46" s="2">
         <v>5.8560308542186696</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W46" s="2">
         <v>5.8560308542186696</v>
       </c>
-      <c r="X45" s="3">
+      <c r="X46" s="2">
         <v>7.2906616151238097</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Y46" s="2">
         <v>8.5230201296806207</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="Z46" s="2">
         <v>6.6432518961864799</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AA46" s="2">
         <v>6.1147846229014098</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AB46" s="2">
         <v>6.2531089628089003</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AC46" s="2">
         <v>4.5169533332385097</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AD46" s="2">
         <v>1.5250296396091201</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AE46" s="2">
         <v>0.68116995774071698</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AF46" s="2">
         <v>3.2093934760362099</v>
       </c>
-      <c r="AG45" s="3">
+      <c r="AG46" s="2">
         <v>0.89086453745128702</v>
       </c>
-      <c r="AH45" s="3">
+      <c r="AH46" s="2">
         <v>3.99775150643468</v>
       </c>
-      <c r="AI45" s="3">
+      <c r="AI46" s="2">
         <v>1.7258286680875199</v>
       </c>
-      <c r="AJ45" s="3">
+      <c r="AJ46" s="2">
         <v>5.6829166776733802</v>
       </c>
-      <c r="AK45" s="3">
+      <c r="AK46" s="2">
         <v>5.8469270145839998</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E47" s="2">
         <v>5.4398584515774804</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F47" s="2">
         <v>5.1494323326969402</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G47" s="2">
         <v>4.8831940174419604</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H47" s="2">
         <v>6.1810093313506096</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I47" s="2">
         <v>5.0550105641045802</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J47" s="2">
         <v>4.5792712364205199</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K47" s="2">
         <v>8.8540654109582793</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L47" s="2">
         <v>6.4260453389198</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M47" s="2">
         <v>5.3559814584633996</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N47" s="2">
         <v>7.59324795012928</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O47" s="2">
         <v>7.83096460590306</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P47" s="2">
         <v>9.7658413266019704</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q47" s="2">
         <v>7.5619181181059396</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R47" s="2">
         <v>8.0744038543901606</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S47" s="2">
         <v>6.0488137412319496</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T47" s="2">
         <v>6.5695960361322197</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U47" s="2">
         <v>6.5695960361322197</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V47" s="2">
         <v>6.6051175693022497</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W47" s="2">
         <v>6.6051175693022497</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X47" s="2">
         <v>8.3146794053296098</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y47" s="2">
         <v>9.3291271645517</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="Z47" s="2">
         <v>8.4127273881620805</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AA47" s="2">
         <v>7.8101047019818299</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AB47" s="2">
         <v>8.0122384542638905</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AC47" s="2">
         <v>5.4326920041174898</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AD47" s="2">
         <v>2.0625416565096999</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AE47" s="2">
         <v>2.1894061551719499</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AF47" s="2">
         <v>3.6187493070896499</v>
       </c>
-      <c r="AG46" s="3">
+      <c r="AG47" s="2">
         <v>1.93267427565603</v>
       </c>
-      <c r="AH46" s="3">
+      <c r="AH47" s="2">
         <v>4.1606326205936499</v>
       </c>
-      <c r="AI46" s="3">
+      <c r="AI47" s="2">
         <v>2.9451620359820101</v>
       </c>
-      <c r="AJ46" s="3">
+      <c r="AJ47" s="2">
         <v>6.3253669227486098</v>
       </c>
-      <c r="AK46" s="3">
+      <c r="AK47" s="2">
         <v>6.2140789605074103</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="2">
         <v>2.0718764090411699</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="2">
         <v>1.82212753411678</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="2">
         <v>1.9578747991651599</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H48" s="2">
         <v>3.1006242734468001</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I48" s="2">
         <v>2.4109731381197701</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J48" s="2">
         <v>2.1610858088283398</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K48" s="2">
         <v>5.9456339994632303</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L48" s="2">
         <v>4.1819168333308196</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M48" s="2">
         <v>2.3909047471598899</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N48" s="2">
         <v>3.9698389366671001</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O48" s="2">
         <v>4.2330872242823396</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P48" s="2">
         <v>6.2258130658411002</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q48" s="2">
         <v>4.2312090458820997</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R48" s="2">
         <v>4.9609771274836998</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S48" s="2">
         <v>3.5914843054907202</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T48" s="2">
         <v>3.80130816010151</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U48" s="2">
         <v>3.80130816010151</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V48" s="2">
         <v>4.23774864133562</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W48" s="2">
         <v>4.23774864133562</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X48" s="2">
         <v>5.2857468816198496</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y48" s="2">
         <v>6.6141352427708897</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z48" s="2">
         <v>4.7836647860255903</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA48" s="2">
         <v>4.1206847743406803</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AB48" s="2">
         <v>4.3672165488557697</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AC48" s="2">
         <v>3.7659600538135298</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AD48" s="2">
         <v>2.0850919261332002</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AE48" s="2">
         <v>1.5731428439997299</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AF48" s="2">
         <v>2.7276235000600599</v>
       </c>
-      <c r="AG47" s="3">
+      <c r="AG48" s="2">
         <v>1.7663167471649801</v>
       </c>
-      <c r="AH47" s="3">
+      <c r="AH48" s="2">
         <v>3.2288026426828602</v>
       </c>
-      <c r="AI47" s="3">
+      <c r="AI48" s="2">
         <v>1.2415187797015199</v>
       </c>
-      <c r="AJ47" s="3">
+      <c r="AJ48" s="2">
         <v>5.0965868563987096</v>
       </c>
-      <c r="AK47" s="3">
+      <c r="AK48" s="2">
         <v>5.92771988931944</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="2">
         <v>3.58894881174714</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="2">
         <v>2.65613628280851</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="2">
         <v>2.993193012266</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="2">
         <v>4.14894989078336</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I49" s="2">
         <v>2.88584815491518</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J49" s="2">
         <v>2.65402091025289</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K49" s="2">
         <v>5.3272881520238897</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L49" s="2">
         <v>3.4778787908289899</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M49" s="2">
         <v>2.0477346159587499</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N49" s="2">
         <v>4.8237612232843503</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O49" s="2">
         <v>5.2151120570111802</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P49" s="2">
         <v>6.2084699606790101</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q49" s="2">
         <v>5.4213386996419999</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R49" s="2">
         <v>6.1351543764888303</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S49" s="2">
         <v>3.0389433424204699</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T49" s="2">
         <v>3.9988355000494802</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U49" s="2">
         <v>3.9988355000494802</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V49" s="2">
         <v>3.6726320596501099</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W49" s="2">
         <v>3.6726320596501099</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X49" s="2">
         <v>5.4949060014670197</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y49" s="2">
         <v>6.9240614354612102</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z49" s="2">
         <v>5.1447934448077897</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA49" s="2">
         <v>4.8141023844323501</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AB49" s="2">
         <v>4.79143520335069</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AC49" s="2">
         <v>2.1066691861808602</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AD49" s="2">
         <v>1.7765189152676399</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AE49" s="2">
         <v>2.0322224550864201</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AF49" s="2">
         <v>1.5510391664198599</v>
       </c>
-      <c r="AG48" s="3">
+      <c r="AG49" s="2">
         <v>2.3386690693801602</v>
       </c>
-      <c r="AH48" s="3">
+      <c r="AH49" s="2">
         <v>2.6448072156068299</v>
       </c>
-      <c r="AI48" s="3">
+      <c r="AI49" s="2">
         <v>2.6218394153795601</v>
       </c>
-      <c r="AJ48" s="3">
+      <c r="AJ49" s="2">
         <v>6.7721053977158903</v>
       </c>
-      <c r="AK48" s="3">
+      <c r="AK49" s="2">
         <v>7.55857566849091</v>
       </c>
     </row>
-    <row r="49" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E50" s="2">
         <v>3.67421535002787</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="2">
         <v>2.9172302506335801</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="2">
         <v>2.85218756390957</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H50" s="2">
         <v>4.1883027924661604</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I50" s="2">
         <v>2.8646553322254298</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J50" s="2">
         <v>2.4403462542742602</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K50" s="2">
         <v>6.4031743025789201</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L50" s="2">
         <v>4.1051830411515704</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M50" s="2">
         <v>2.8871762308414701</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N50" s="2">
         <v>5.6093760254238401</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O50" s="2">
         <v>5.9037520049936001</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P50" s="2">
         <v>7.3537112183717301</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q50" s="2">
         <v>5.9508824133856901</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R50" s="2">
         <v>6.6542140427233001</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S50" s="2">
         <v>4.3334548735430696</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T50" s="2">
         <v>5.0181012379771603</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U50" s="2">
         <v>5.0181012379771603</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V50" s="2">
         <v>4.9703986208898501</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W50" s="2">
         <v>4.9703986208898501</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X50" s="2">
         <v>6.6217791530454102</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y50" s="2">
         <v>7.93916819626366</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z50" s="2">
         <v>6.0735200280388701</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA50" s="2">
         <v>5.6381546889920902</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AB50" s="2">
         <v>5.6961962674324003</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AC50" s="2">
         <v>3.42011167871657</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AD50" s="2">
         <v>0.97244655411316305</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AE50" s="2">
         <v>0.73027743722802496</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AF50" s="2">
         <v>2.2840553167259499</v>
       </c>
-      <c r="AG49" s="3">
+      <c r="AG50" s="2">
         <v>1.1551379561297099</v>
       </c>
-      <c r="AH49" s="3">
+      <c r="AH50" s="2">
         <v>3.2815857995667002</v>
       </c>
-      <c r="AI49" s="3">
+      <c r="AI50" s="2">
         <v>1.92542689660016</v>
       </c>
-      <c r="AJ49" s="3">
+      <c r="AJ50" s="2">
         <v>6.2248872616393696</v>
       </c>
-      <c r="AK49" s="3">
+      <c r="AK50" s="2">
         <v>6.65639133899833</v>
       </c>
     </row>
-    <row r="50" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E51" s="2">
         <v>3.3636826557191002</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="2">
         <v>3.01703609032247</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G51" s="2">
         <v>3.0761774900576602</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H51" s="2">
         <v>4.3372300354771598</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I51" s="2">
         <v>3.32496941970218</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J51" s="2">
         <v>2.9621505841472402</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K51" s="2">
         <v>6.68662889276996</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L51" s="2">
         <v>4.7034703702800202</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M51" s="2">
         <v>3.1467162411138898</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N51" s="2">
         <v>5.1190642475140704</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O51" s="2">
         <v>5.4232243465516303</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P51" s="2">
         <v>7.2505138133563598</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="Q51" s="2">
         <v>5.3025133235866004</v>
       </c>
-      <c r="R50" s="3">
+      <c r="R51" s="2">
         <v>5.9061368120556601</v>
       </c>
-      <c r="S50" s="3">
+      <c r="S51" s="2">
         <v>3.6761192601047501</v>
       </c>
-      <c r="T50" s="3">
+      <c r="T51" s="2">
         <v>4.1839547843543698</v>
       </c>
-      <c r="U50" s="3">
+      <c r="U51" s="2">
         <v>4.1839547843543698</v>
       </c>
-      <c r="V50" s="3">
+      <c r="V51" s="2">
         <v>4.2966679903090004</v>
       </c>
-      <c r="W50" s="3">
+      <c r="W51" s="2">
         <v>4.2966679903090004</v>
       </c>
-      <c r="X50" s="3">
+      <c r="X51" s="2">
         <v>5.8612136310462501</v>
       </c>
-      <c r="Y50" s="3">
+      <c r="Y51" s="2">
         <v>7.0688010059002799</v>
       </c>
-      <c r="Z50" s="3">
+      <c r="Z51" s="2">
         <v>5.9490703252908599</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AA51" s="2">
         <v>5.3324555539779901</v>
       </c>
-      <c r="AB50" s="3">
+      <c r="AB51" s="2">
         <v>5.54387696354721</v>
       </c>
-      <c r="AC50" s="3">
+      <c r="AC51" s="2">
         <v>3.5597970989950101</v>
       </c>
-      <c r="AD50" s="3">
+      <c r="AD51" s="2">
         <v>0.80511173625034804</v>
       </c>
-      <c r="AE50" s="3">
+      <c r="AE51" s="2">
         <v>0.92663986138632803</v>
       </c>
-      <c r="AF50" s="3">
+      <c r="AF51" s="2">
         <v>1.86202758269124</v>
       </c>
-      <c r="AG50" s="3">
+      <c r="AG51" s="2">
         <v>0.94606999200550301</v>
       </c>
-      <c r="AH50" s="3">
+      <c r="AH51" s="2">
         <v>2.48792744631263</v>
       </c>
-      <c r="AI50" s="3">
+      <c r="AI51" s="2">
         <v>1.3497642589341201</v>
       </c>
-      <c r="AJ50" s="3">
+      <c r="AJ51" s="2">
         <v>5.6062201130988996</v>
       </c>
-      <c r="AK50" s="3">
+      <c r="AK51" s="2">
         <v>6.2403798407346196</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E52" s="2">
         <v>6.4443385860186799</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="2">
         <v>6.0403456994356404</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G52" s="2">
         <v>5.64545822122159</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H52" s="2">
         <v>6.8954765323949001</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I52" s="2">
         <v>5.71768510592646</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J52" s="2">
         <v>5.2325766750806597</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K52" s="2">
         <v>9.6399489104738301</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L52" s="2">
         <v>7.0147180485754204</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M52" s="2">
         <v>6.25778447420387</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N52" s="2">
         <v>8.7781131561088408</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O52" s="2">
         <v>8.9851344822324908</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P52" s="2">
         <v>10.796378934510299</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q52" s="2">
         <v>8.7706635137662303</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R52" s="2">
         <v>9.3275044552671709</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S52" s="2">
         <v>7.42401075892107</v>
       </c>
-      <c r="T51" s="3">
+      <c r="T52" s="2">
         <v>7.99011088077898</v>
       </c>
-      <c r="U51" s="3">
+      <c r="U52" s="2">
         <v>7.99011088077898</v>
       </c>
-      <c r="V51" s="3">
+      <c r="V52" s="2">
         <v>7.9936522129537</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W52" s="2">
         <v>7.9936522129537</v>
       </c>
-      <c r="X51" s="3">
+      <c r="X52" s="2">
         <v>9.7181592303216302</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Y52" s="2">
         <v>10.7714796394232</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="Z52" s="2">
         <v>9.4216581075571497</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AA52" s="2">
         <v>8.90319677309021</v>
       </c>
-      <c r="AB51" s="3">
+      <c r="AB52" s="2">
         <v>9.0377919485463405</v>
       </c>
-      <c r="AC51" s="3">
+      <c r="AC52" s="2">
         <v>6.4276668967645199</v>
       </c>
-      <c r="AD51" s="3">
+      <c r="AD52" s="2">
         <v>3.3491621648003802</v>
       </c>
-      <c r="AE51" s="3">
+      <c r="AE52" s="2">
         <v>3.2862091895821202</v>
       </c>
-      <c r="AF51" s="3">
+      <c r="AF52" s="2">
         <v>4.90927703943946</v>
       </c>
-      <c r="AG51" s="3">
+      <c r="AG52" s="2">
         <v>3.1533672010654499</v>
       </c>
-      <c r="AH51" s="3">
+      <c r="AH52" s="2">
         <v>5.5783087463491796</v>
       </c>
-      <c r="AI51" s="3">
+      <c r="AI52" s="2">
         <v>4.12738220682854</v>
       </c>
-      <c r="AJ51" s="3">
+      <c r="AJ52" s="2">
         <v>7.1654838119151396</v>
       </c>
-      <c r="AK51" s="3">
+      <c r="AK52" s="2">
         <v>6.69141965850703</v>
       </c>
     </row>
-    <row r="52" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="2">
         <v>3.9461422085365299</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="2">
         <v>3.2812541449213701</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G53" s="2">
         <v>2.83444467683527</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="2">
         <v>4.0868451368000898</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I53" s="2">
         <v>2.8780185753801999</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J53" s="2">
         <v>2.3946874738045301</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K53" s="2">
         <v>7.0982177213725697</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L53" s="2">
         <v>4.5487758168719203</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M53" s="2">
         <v>3.6702857198929899</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N53" s="2">
         <v>6.3367560718156</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O53" s="2">
         <v>6.5258786017592003</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P53" s="2">
         <v>8.1349052107763296</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q53" s="2">
         <v>6.5655380333833602</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R53" s="2">
         <v>7.3102597689673399</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S53" s="2">
         <v>5.8106768150239603</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T53" s="2">
         <v>6.29690099507933</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U53" s="2">
         <v>6.29690099507933</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V53" s="2">
         <v>6.4597926522065503</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W53" s="2">
         <v>6.4597926522065503</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X53" s="2">
         <v>7.8440686245046596</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y53" s="2">
         <v>9.1495399892858096</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z53" s="2">
         <v>6.7018569754751196</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA53" s="2">
         <v>6.2852404293863202</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB53" s="2">
         <v>6.3357869131300903</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AC53" s="2">
         <v>4.7857366418280796</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AD53" s="2">
         <v>2.25103833935946</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AE53" s="2">
         <v>1.4236182985805801</v>
       </c>
-      <c r="AF52" s="3">
+      <c r="AF53" s="2">
         <v>3.8432266956388301</v>
       </c>
-      <c r="AG52" s="3">
+      <c r="AG53" s="2">
         <v>1.7259968235968399</v>
       </c>
-      <c r="AH52" s="3">
+      <c r="AH53" s="2">
         <v>4.7536712231285296</v>
       </c>
-      <c r="AI52" s="3">
+      <c r="AI53" s="2">
         <v>2.36664002880475</v>
       </c>
-      <c r="AJ52" s="3">
+      <c r="AJ53" s="2">
         <v>6.0606611996804904</v>
       </c>
-      <c r="AK52" s="3">
+      <c r="AK53" s="2">
         <v>6.0814452235656598</v>
       </c>
     </row>
-    <row r="53" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="2">
         <v>5.4387279380539102</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="2">
         <v>5.3025382217247703</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="2">
         <v>4.8016721661061803</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H54" s="2">
         <v>5.9403067524719297</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I54" s="2">
         <v>5.0627462110464698</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J54" s="2">
         <v>4.5934405076410796</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K54" s="2">
         <v>9.3792783883849609</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L54" s="2">
         <v>6.8362525593990098</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M54" s="2">
         <v>5.8724262927556099</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N54" s="2">
         <v>7.9337260251354804</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O54" s="2">
         <v>8.0673196920664498</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P54" s="2">
         <v>10.2310400552799</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q54" s="2">
         <v>7.7913200704362602</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R54" s="2">
         <v>8.3456778687382798</v>
       </c>
-      <c r="S53" s="3">
+      <c r="S54" s="2">
         <v>7.2497296490613197</v>
       </c>
-      <c r="T53" s="3">
+      <c r="T54" s="2">
         <v>7.5392640146999899</v>
       </c>
-      <c r="U53" s="3">
+      <c r="U54" s="2">
         <v>7.5392640146999899</v>
       </c>
-      <c r="V53" s="3">
+      <c r="V54" s="2">
         <v>7.85065628429847</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W54" s="2">
         <v>7.85065628429847</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X54" s="2">
         <v>9.2018094324794308</v>
       </c>
-      <c r="Y53" s="3">
+      <c r="Y54" s="2">
         <v>10.239161702210801</v>
       </c>
-      <c r="Z53" s="3">
+      <c r="Z54" s="2">
         <v>8.71080022992777</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AA54" s="2">
         <v>8.0915500581424702</v>
       </c>
-      <c r="AB53" s="3">
+      <c r="AB54" s="2">
         <v>8.3153270736805904</v>
       </c>
-      <c r="AC53" s="3">
+      <c r="AC54" s="2">
         <v>6.63879135288144</v>
       </c>
-      <c r="AD53" s="3">
+      <c r="AD54" s="2">
         <v>3.3219472229290501</v>
       </c>
-      <c r="AE53" s="3">
+      <c r="AE54" s="2">
         <v>2.8363297599963002</v>
       </c>
-      <c r="AF53" s="3">
+      <c r="AF54" s="2">
         <v>5.0684176709650801</v>
       </c>
-      <c r="AG53" s="3">
+      <c r="AG54" s="2">
         <v>2.6664465234605501</v>
       </c>
-      <c r="AH53" s="3">
+      <c r="AH54" s="2">
         <v>5.6232539763344498</v>
       </c>
-      <c r="AI53" s="3">
+      <c r="AI54" s="2">
         <v>3.30848368238204</v>
       </c>
-      <c r="AJ53" s="3">
+      <c r="AJ54" s="2">
         <v>5.8386264319496597</v>
       </c>
-      <c r="AK53" s="3">
+      <c r="AK54" s="2">
         <v>5.2802026534616102</v>
       </c>
     </row>
-    <row r="54" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="2">
         <v>2.9592612993822498</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F55" s="2">
         <v>2.5012140225136199</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G55" s="2">
         <v>2.0780326697273899</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H55" s="2">
         <v>3.3488049948671699</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I55" s="2">
         <v>2.38148504344707</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J55" s="2">
         <v>1.92859586744209</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K55" s="2">
         <v>6.71841112648025</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L55" s="2">
         <v>4.4087723537996997</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M55" s="2">
         <v>3.1687365913143899</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N55" s="2">
         <v>5.38195325240501</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O55" s="2">
         <v>5.5553004100249801</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P55" s="2">
         <v>7.4276599652319604</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q55" s="2">
         <v>5.5594983715196697</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R55" s="2">
         <v>6.3059793963183797</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S55" s="2">
         <v>5.1837089553936302</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T55" s="2">
         <v>5.4865331938798398</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U55" s="2">
         <v>5.4865331938798398</v>
       </c>
-      <c r="V54" s="3">
+      <c r="V55" s="2">
         <v>5.8364829889768099</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W55" s="2">
         <v>5.8364829889768099</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X55" s="2">
         <v>6.9851724251302603</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y55" s="2">
         <v>8.2800674433643398</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="Z55" s="2">
         <v>5.9196848377198998</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AA55" s="2">
         <v>5.3919168889057003</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AB55" s="2">
         <v>5.5324364880044099</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AC55" s="2">
         <v>4.6182048304130499</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AD55" s="2">
         <v>2.1540632479876902</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AE55" s="2">
         <v>1.1024363498016501</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AF55" s="2">
         <v>3.60264204480869</v>
       </c>
-      <c r="AG54" s="3">
+      <c r="AG55" s="2">
         <v>1.4124770808915701</v>
       </c>
-      <c r="AH54" s="3">
+      <c r="AH55" s="2">
         <v>4.3539275472281398</v>
       </c>
-      <c r="AI54" s="3">
+      <c r="AI55" s="2">
         <v>1.55853315285549</v>
       </c>
-      <c r="AJ54" s="3">
+      <c r="AJ55" s="2">
         <v>5.2965388781106499</v>
       </c>
-      <c r="AK54" s="3">
+      <c r="AK55" s="2">
         <v>5.5626301014186099</v>
       </c>
     </row>
-    <row r="55" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="2">
         <v>5.6301528907381799</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="2">
         <v>5.0287573472667297</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="2">
         <v>4.7279779287440498</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H56" s="2">
         <v>6.0351844412770399</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I56" s="2">
         <v>4.7083371250332</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J56" s="2">
         <v>4.2286979565776797</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K56" s="2">
         <v>8.4130654545545305</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L56" s="2">
         <v>5.8275230167705603</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M56" s="2">
         <v>5.07100969082307</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N56" s="2">
         <v>7.8292999446972296</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O56" s="2">
         <v>8.07997216555842</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P56" s="2">
         <v>9.6365726755860397</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="Q56" s="2">
         <v>7.9798772152371402</v>
       </c>
-      <c r="R55" s="3">
+      <c r="R56" s="2">
         <v>8.5975945760078094</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S56" s="2">
         <v>6.3314568825308601</v>
       </c>
-      <c r="T55" s="3">
+      <c r="T56" s="2">
         <v>7.0309406237751304</v>
       </c>
-      <c r="U55" s="3">
+      <c r="U56" s="2">
         <v>7.0309406237751304</v>
       </c>
-      <c r="V55" s="3">
+      <c r="V56" s="2">
         <v>6.9153441646961804</v>
       </c>
-      <c r="W55" s="3">
+      <c r="W56" s="2">
         <v>6.9153441646961804</v>
       </c>
-      <c r="X55" s="3">
+      <c r="X56" s="2">
         <v>8.7346561781474499</v>
       </c>
-      <c r="Y55" s="3">
+      <c r="Y56" s="2">
         <v>9.8937606033014802</v>
       </c>
-      <c r="Z55" s="3">
+      <c r="Z56" s="2">
         <v>8.3397979563886793</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AA56" s="2">
         <v>7.8963712839789704</v>
       </c>
-      <c r="AB55" s="3">
+      <c r="AB56" s="2">
         <v>7.9666154248884702</v>
       </c>
-      <c r="AC55" s="3">
+      <c r="AC56" s="2">
         <v>5.1523015382686603</v>
       </c>
-      <c r="AD55" s="3">
+      <c r="AD56" s="2">
         <v>2.2650093240632998</v>
       </c>
-      <c r="AE55" s="3">
+      <c r="AE56" s="2">
         <v>2.2953463136668701</v>
       </c>
-      <c r="AF55" s="3">
+      <c r="AF56" s="2">
         <v>3.7911789510648601</v>
       </c>
-      <c r="AG55" s="3">
+      <c r="AG56" s="2">
         <v>2.2854752802782499</v>
       </c>
-      <c r="AH55" s="3">
+      <c r="AH56" s="2">
         <v>4.6435570922356302</v>
       </c>
-      <c r="AI55" s="3">
+      <c r="AI56" s="2">
         <v>3.3930666682704298</v>
       </c>
-      <c r="AJ55" s="3">
+      <c r="AJ56" s="2">
         <v>7.0636870537231102</v>
       </c>
-      <c r="AK55" s="3">
+      <c r="AK56" s="2">
         <v>6.9092972737239799</v>
       </c>
     </row>
-    <row r="56" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E57" s="2">
         <v>3.6632776067715498</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="2">
         <v>2.9890807110475901</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G57" s="2">
         <v>2.9159689313086199</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H57" s="2">
         <v>4.25133971695276</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I57" s="2">
         <v>2.9793319124379298</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J57" s="2">
         <v>2.5531042395680301</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K57" s="2">
         <v>6.5500752941678098</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L57" s="2">
         <v>4.2773882452633698</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M57" s="2">
         <v>3.01588230316551</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N57" s="2">
         <v>5.6156269294020804</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O57" s="2">
         <v>5.9056312461424803</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P57" s="2">
         <v>7.4451572548177296</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="Q57" s="2">
         <v>5.9131208081541802</v>
       </c>
-      <c r="R56" s="3">
+      <c r="R57" s="2">
         <v>6.59736792410283</v>
       </c>
-      <c r="S56" s="3">
+      <c r="S57" s="2">
         <v>4.3266924401193796</v>
       </c>
-      <c r="T56" s="3">
+      <c r="T57" s="2">
         <v>4.9745377815690901</v>
       </c>
-      <c r="U56" s="3">
+      <c r="U57" s="2">
         <v>4.9745377815690901</v>
       </c>
-      <c r="V56" s="3">
+      <c r="V57" s="2">
         <v>4.9606831503218203</v>
       </c>
-      <c r="W56" s="3">
+      <c r="W57" s="2">
         <v>4.9606831503218203</v>
       </c>
-      <c r="X56" s="3">
+      <c r="X57" s="2">
         <v>6.5978651264481796</v>
       </c>
-      <c r="Y56" s="3">
+      <c r="Y57" s="2">
         <v>7.8878738126731296</v>
       </c>
-      <c r="Z56" s="3">
+      <c r="Z57" s="2">
         <v>6.1493742613856197</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AA57" s="2">
         <v>5.6777763787670699</v>
       </c>
-      <c r="AB56" s="3">
+      <c r="AB57" s="2">
         <v>5.7658568880817302</v>
       </c>
-      <c r="AC56" s="3">
+      <c r="AC57" s="2">
         <v>3.5305032748737299</v>
       </c>
-      <c r="AD56" s="3">
+      <c r="AD57" s="2">
         <v>0.84303659904717498</v>
       </c>
-      <c r="AE56" s="3">
+      <c r="AE57" s="2">
         <v>0.58747849762720705</v>
       </c>
-      <c r="AF56" s="3">
+      <c r="AF57" s="2">
         <v>2.2628193977545998</v>
       </c>
-      <c r="AG56" s="3">
+      <c r="AG57" s="2">
         <v>0.98022139119644303</v>
       </c>
-      <c r="AH56" s="3">
+      <c r="AH57" s="2">
         <v>3.2036067671344202</v>
       </c>
-      <c r="AI56" s="3">
+      <c r="AI57" s="2">
         <v>1.7955719640201599</v>
       </c>
-      <c r="AJ56" s="3">
+      <c r="AJ57" s="2">
         <v>6.09626415278409</v>
       </c>
-      <c r="AK56" s="3">
+      <c r="AK57" s="2">
         <v>6.5245665406878599</v>
       </c>
     </row>
-    <row r="57" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="2">
         <v>3.0150524229276701</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F58" s="2">
         <v>2.8471095639604602</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G58" s="2">
         <v>3.5881646223211701</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H58" s="2">
         <v>3.8322143258630801</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I58" s="2">
         <v>3.7766067348178498</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J58" s="2">
         <v>3.9263877629680901</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K58" s="2">
         <v>4.4274627070378303</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L58" s="2">
         <v>4.2945940000402798</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M58" s="2">
         <v>2.6387533627033801</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N58" s="2">
         <v>2.1553962114701202</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O58" s="2">
         <v>2.6688597991885898</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P58" s="2">
         <v>3.7515703074312601</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q58" s="2">
         <v>3.18426025997318</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R58" s="2">
         <v>3.8939615336707099</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S58" s="2">
         <v>2.1912408343204799</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T58" s="2">
         <v>2.22930675412477</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U58" s="2">
         <v>2.22930675412477</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V58" s="2">
         <v>2.5959623446130098</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W58" s="2">
         <v>2.5959623446130098</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X58" s="2">
         <v>2.8899154944281298</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y58" s="2">
         <v>4.5587835761442301</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="Z58" s="2">
         <v>2.7953316601796998</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA58" s="2">
         <v>2.2618586672364702</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AB58" s="2">
         <v>2.4544579145811301</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AC58" s="2">
         <v>3.5981631009733901</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AD58" s="2">
         <v>4.5215644401277499</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AE58" s="2">
         <v>4.4744735502959401</v>
       </c>
-      <c r="AF57" s="3">
+      <c r="AF58" s="2">
         <v>3.81322013711622</v>
       </c>
-      <c r="AG57" s="3">
+      <c r="AG58" s="2">
         <v>4.66095433925602</v>
       </c>
-      <c r="AH57" s="3">
+      <c r="AH58" s="2">
         <v>3.90018351504931</v>
       </c>
-      <c r="AI57" s="3">
+      <c r="AI58" s="2">
         <v>4.0857571935483703</v>
       </c>
-      <c r="AJ57" s="3">
+      <c r="AJ58" s="2">
         <v>6.6085737970148104</v>
       </c>
-      <c r="AK57" s="3">
+      <c r="AK58" s="2">
         <v>8.0139384453469997</v>
       </c>
     </row>
-    <row r="58" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="2">
         <v>2.5171700746401902</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F59" s="2">
         <v>1.5702514770015801</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G59" s="2">
         <v>2.16700264590723</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H59" s="2">
         <v>3.0491326719114502</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I59" s="2">
         <v>2.1997052751244701</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J59" s="2">
         <v>2.1691427296934802</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K59" s="2">
         <v>4.5782420367966301</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L59" s="2">
         <v>3.1383096642600101</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M59" s="2">
         <v>1.22007604850249</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N59" s="2">
         <v>3.53650832854456</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O59" s="2">
         <v>3.91385730418531</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P59" s="2">
         <v>5.0308213162489697</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q59" s="2">
         <v>4.2840267327519799</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R59" s="2">
         <v>5.10181598390409</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S59" s="2">
         <v>2.9189026324701999</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T59" s="2">
         <v>3.4909104159473499</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U59" s="2">
         <v>3.4909104159473499</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V59" s="2">
         <v>3.5573525309081799</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W59" s="2">
         <v>3.5573525309081799</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X59" s="2">
         <v>4.7468319200928404</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y59" s="2">
         <v>6.2933310036752301</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="Z59" s="2">
         <v>3.8130425335477298</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA59" s="2">
         <v>3.4430354355775501</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AB59" s="2">
         <v>3.4401350528752399</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AC59" s="2">
         <v>2.7241765194068401</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AD59" s="2">
         <v>2.8309370365967501</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AE59" s="2">
         <v>2.6470329097059002</v>
       </c>
-      <c r="AF58" s="3">
+      <c r="AF59" s="2">
         <v>2.6851588873763701</v>
       </c>
-      <c r="AG58" s="3">
+      <c r="AG59" s="2">
         <v>2.9625607389454198</v>
       </c>
-      <c r="AH58" s="3">
+      <c r="AH59" s="2">
         <v>3.3726479063752599</v>
       </c>
-      <c r="AI58" s="3">
+      <c r="AI59" s="2">
         <v>2.6964049173686302</v>
       </c>
-      <c r="AJ58" s="3">
+      <c r="AJ59" s="2">
         <v>6.2939107577345901</v>
       </c>
-      <c r="AK58" s="3">
+      <c r="AK59" s="2">
         <v>7.2816767629697301</v>
       </c>
     </row>
-    <row r="59" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="2">
         <v>1.30296600455255</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="2">
         <v>0.80509917035268197</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G60" s="2">
         <v>0.88367900674653399</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H60" s="2">
         <v>1.9001052599677</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I60" s="2">
         <v>1.57714824924243</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J60" s="2">
         <v>1.50260985340095</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K60" s="2">
         <v>5.4006641852276198</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L60" s="2">
         <v>3.7465247423288801</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M60" s="2">
         <v>2.0539358529495999</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N60" s="2">
         <v>3.4919082204006799</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O60" s="2">
         <v>3.6723019406576198</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P60" s="2">
         <v>5.5919504372284399</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q60" s="2">
         <v>3.90445141163559</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R60" s="2">
         <v>4.7825259149617798</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S60" s="2">
         <v>4.2323455065802698</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T60" s="2">
         <v>4.2879532349970901</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U60" s="2">
         <v>4.2879532349970901</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V60" s="2">
         <v>4.86175468241776</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W60" s="2">
         <v>4.86175468241776</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X60" s="2">
         <v>5.4909476357885003</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y60" s="2">
         <v>6.9140674158484998</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="Z60" s="2">
         <v>4.0101396799608997</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AA60" s="2">
         <v>3.4271928279668602</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AB60" s="2">
         <v>3.6077104309036998</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AC60" s="2">
         <v>4.2554060700876404</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AD60" s="2">
         <v>3.1502164138647202</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AE60" s="2">
         <v>2.4225782772311701</v>
       </c>
-      <c r="AF59" s="3">
+      <c r="AF60" s="2">
         <v>3.78232288485043</v>
       </c>
-      <c r="AG59" s="3">
+      <c r="AG60" s="2">
         <v>2.7069237370291699</v>
       </c>
-      <c r="AH59" s="3">
+      <c r="AH60" s="2">
         <v>4.3398652615693996</v>
       </c>
-      <c r="AI59" s="3">
+      <c r="AI60" s="2">
         <v>2.0746952438405502</v>
       </c>
-      <c r="AJ59" s="3">
+      <c r="AJ60" s="2">
         <v>5.1310785272024502</v>
       </c>
-      <c r="AK59" s="3">
+      <c r="AK60" s="2">
         <v>5.9649085235249002</v>
       </c>
     </row>
-    <row r="60" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E61" s="2">
         <v>2.0535306839876202</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="2">
         <v>2.2213419852304299</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G61" s="2">
         <v>1.80521098078758</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H61" s="2">
         <v>2.85717453447239</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I61" s="2">
         <v>2.4989729846261701</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J61" s="2">
         <v>2.1845330172893598</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K61" s="2">
         <v>6.8109464757331502</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L61" s="2">
         <v>4.8303093162955602</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M61" s="2">
         <v>3.3190629270282002</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N61" s="2">
         <v>4.6109684915324403</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O61" s="2">
         <v>4.7186244639953996</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P61" s="2">
         <v>7.0679323060506603</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q61" s="2">
         <v>4.6081076748374903</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R61" s="2">
         <v>5.3323707003236196</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S61" s="2">
         <v>5.0389253281395403</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T61" s="2">
         <v>5.0071970903636602</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U61" s="2">
         <v>5.0071970903636602</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V61" s="2">
         <v>5.6713567875306499</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W61" s="2">
         <v>5.6713567875306499</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X61" s="2">
         <v>6.4092010343322201</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Y61" s="2">
         <v>7.6340753977540201</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="Z61" s="2">
         <v>5.4441243218401496</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AA61" s="2">
         <v>4.7347289054094697</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AB61" s="2">
         <v>5.0357080367130402</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AC61" s="2">
         <v>5.08656615048523</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AD61" s="2">
         <v>2.7618098353129299</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AE61" s="2">
         <v>1.7851842467096599</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AF61" s="2">
         <v>3.9873178394372699</v>
       </c>
-      <c r="AG60" s="3">
+      <c r="AG61" s="2">
         <v>1.89675016694528</v>
       </c>
-      <c r="AH60" s="3">
+      <c r="AH61" s="2">
         <v>4.4581023567859104</v>
       </c>
-      <c r="AI60" s="3">
+      <c r="AI61" s="2">
         <v>1.2239860250140899</v>
       </c>
-      <c r="AJ60" s="3">
+      <c r="AJ61" s="2">
         <v>4.3255257141054804</v>
       </c>
-      <c r="AK60" s="3">
+      <c r="AK61" s="2">
         <v>4.8081397299485804</v>
       </c>
     </row>
-    <row r="61" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E62" s="2">
         <v>1.8261698415846199</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F62" s="2">
         <v>1.8877906276632099</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G62" s="2">
         <v>1.31759711280931</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H62" s="2">
         <v>2.2558739030258401</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I62" s="2">
         <v>2.0791281284514298</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J62" s="2">
         <v>1.83731463378052</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K62" s="2">
         <v>6.4880988368646397</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L62" s="2">
         <v>4.5487101035213602</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M62" s="2">
         <v>3.1508177286599999</v>
       </c>
-      <c r="N61" s="3">
+      <c r="N62" s="2">
         <v>4.4551014359299099</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O62" s="2">
         <v>4.5250149163303002</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P62" s="2">
         <v>6.7500885716800703</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="Q62" s="2">
         <v>4.5505693520432002</v>
       </c>
-      <c r="R61" s="3">
+      <c r="R62" s="2">
         <v>5.3508257750792998</v>
       </c>
-      <c r="S61" s="3">
+      <c r="S62" s="2">
         <v>5.3118876313810999</v>
       </c>
-      <c r="T61" s="3">
+      <c r="T62" s="2">
         <v>5.2650948444394503</v>
       </c>
-      <c r="U61" s="3">
+      <c r="U62" s="2">
         <v>5.2650948444394503</v>
       </c>
-      <c r="V61" s="3">
+      <c r="V62" s="2">
         <v>5.9462521696426904</v>
       </c>
-      <c r="W61" s="3">
+      <c r="W62" s="2">
         <v>5.9462521696426904</v>
       </c>
-      <c r="X61" s="3">
+      <c r="X62" s="2">
         <v>6.5447892103472904</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Y62" s="2">
         <v>7.8348160296837399</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="Z62" s="2">
         <v>5.0908086635422203</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AA62" s="2">
         <v>4.4570500458958398</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AB62" s="2">
         <v>4.7012253784501503</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AC62" s="2">
         <v>5.2349010008467696</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AD62" s="2">
         <v>3.2821666869784099</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AE62" s="2">
         <v>2.2872258185794698</v>
       </c>
-      <c r="AF61" s="3">
+      <c r="AF62" s="2">
         <v>4.4252026368766497</v>
       </c>
-      <c r="AG61" s="3">
+      <c r="AG62" s="2">
         <v>2.4890578612741798</v>
       </c>
-      <c r="AH61" s="3">
+      <c r="AH62" s="2">
         <v>4.9677898100447697</v>
       </c>
-      <c r="AI61" s="3">
+      <c r="AI62" s="2">
         <v>1.87432601867823</v>
       </c>
-      <c r="AJ61" s="3">
+      <c r="AJ62" s="2">
         <v>4.5317795127505001</v>
       </c>
-      <c r="AK61" s="3">
+      <c r="AK62" s="2">
         <v>5.0073431372982604</v>
       </c>
     </row>
-    <row r="62" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E63" s="2">
         <v>4.6097129729431101</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F63" s="2">
         <v>5.2418562103986499</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G63" s="2">
         <v>4.6384191210199903</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H63" s="2">
         <v>5.2651358069993401</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I63" s="2">
         <v>5.2888977834569699</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J63" s="2">
         <v>4.9666022594953301</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K63" s="2">
         <v>9.8296456300096295</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L63" s="2">
         <v>7.6896145381940997</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M63" s="2">
         <v>6.4296558351281403</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N63" s="2">
         <v>7.1274867960637298</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O63" s="2">
         <v>7.0712960695160296</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P63" s="2">
         <v>9.9640126331026195</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q63" s="2">
         <v>6.6019454105611803</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R63" s="2">
         <v>7.05445248096445</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S63" s="2">
         <v>7.83793734819315</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T63" s="2">
         <v>7.5299619689807997</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U63" s="2">
         <v>7.5299619689807997</v>
       </c>
-      <c r="V62" s="3">
+      <c r="V63" s="2">
         <v>8.4220002296349996</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W63" s="2">
         <v>8.4220002296349996</v>
       </c>
-      <c r="X62" s="3">
+      <c r="X63" s="2">
         <v>8.9216089571277593</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Y63" s="2">
         <v>9.8001802406928</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="Z63" s="2">
         <v>8.2347091145151392</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AA63" s="2">
         <v>7.3980344706871204</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AB63" s="2">
         <v>7.8400400086149196</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AC63" s="2">
         <v>8.0375413040104497</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AD63" s="2">
         <v>4.9137180409486696</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AE63" s="2">
         <v>4.0662968450466996</v>
       </c>
-      <c r="AF62" s="3">
+      <c r="AF63" s="2">
         <v>6.5011709958197299</v>
       </c>
-      <c r="AG62" s="3">
+      <c r="AG63" s="2">
         <v>3.8808313930615301</v>
       </c>
-      <c r="AH62" s="3">
+      <c r="AH63" s="2">
         <v>6.7295272553290104</v>
       </c>
-      <c r="AI62" s="3">
+      <c r="AI63" s="2">
         <v>3.5539696354697501</v>
       </c>
-      <c r="AJ62" s="3">
+      <c r="AJ63" s="2">
         <v>3.5844411498184701</v>
       </c>
-      <c r="AK62" s="3">
+      <c r="AK63" s="2">
         <v>2.6617148063693699</v>
       </c>
     </row>
-    <row r="63" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E64" s="2">
         <v>6.7800222859440202</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F64" s="2">
         <v>6.6113447467763997</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G64" s="2">
         <v>6.1766630829364004</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H64" s="2">
         <v>7.3711088724473202</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I64" s="2">
         <v>6.3751526249310997</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J64" s="2">
         <v>5.8933228088658103</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K64" s="2">
         <v>10.478873806613301</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L64" s="2">
         <v>7.8948122926267397</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M64" s="2">
         <v>7.0022444890844504</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N64" s="2">
         <v>9.1633273129852792</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O64" s="2">
         <v>9.3315456585812697</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P64" s="2">
         <v>11.448711625096101</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="Q64" s="2">
         <v>8.9900588344767893</v>
       </c>
-      <c r="R63" s="3">
+      <c r="R64" s="2">
         <v>9.4700472127140998</v>
       </c>
-      <c r="S63" s="3">
+      <c r="S64" s="2">
         <v>7.9704182752916504</v>
       </c>
-      <c r="T63" s="3">
+      <c r="T64" s="2">
         <v>8.3666873906992301</v>
       </c>
-      <c r="U63" s="3">
+      <c r="U64" s="2">
         <v>8.3666873906992301</v>
       </c>
-      <c r="V63" s="3">
+      <c r="V64" s="2">
         <v>8.5250986959756503</v>
       </c>
-      <c r="W63" s="3">
+      <c r="W64" s="2">
         <v>8.5250986959756503</v>
       </c>
-      <c r="X63" s="3">
+      <c r="X64" s="2">
         <v>10.098042184203701</v>
       </c>
-      <c r="Y63" s="3">
+      <c r="Y64" s="2">
         <v>11.034501630528901</v>
       </c>
-      <c r="Z63" s="3">
+      <c r="Z64" s="2">
         <v>9.9975422705239598</v>
       </c>
-      <c r="AA63" s="3">
+      <c r="AA64" s="2">
         <v>9.3739287486634009</v>
       </c>
-      <c r="AB63" s="3">
+      <c r="AB64" s="2">
         <v>9.59835481704296</v>
       </c>
-      <c r="AC63" s="3">
+      <c r="AC64" s="2">
         <v>7.2911653872178901</v>
       </c>
-      <c r="AD63" s="3">
+      <c r="AD64" s="2">
         <v>3.9856716522815101</v>
       </c>
-      <c r="AE63" s="3">
+      <c r="AE64" s="2">
         <v>3.8595067688137301</v>
       </c>
-      <c r="AF63" s="3">
+      <c r="AF64" s="2">
         <v>5.5693225598947702</v>
       </c>
-      <c r="AG63" s="3">
+      <c r="AG64" s="2">
         <v>3.6229935797124901</v>
       </c>
-      <c r="AH63" s="3">
+      <c r="AH64" s="2">
         <v>6.0417732760117504</v>
       </c>
-      <c r="AI63" s="3">
+      <c r="AI64" s="2">
         <v>4.4261989719728403</v>
       </c>
-      <c r="AJ63" s="3">
+      <c r="AJ64" s="2">
         <v>6.83663659479092</v>
       </c>
-      <c r="AK63" s="3">
+      <c r="AK64" s="2">
         <v>6.1618250734895499</v>
       </c>
     </row>
-    <row r="64" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E65" s="2">
         <v>4.5747512996611501</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F65" s="2">
         <v>3.7503227657384302</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G65" s="2">
         <v>3.45639001576034</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H65" s="2">
         <v>4.7613937481903896</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I65" s="2">
         <v>3.3425844603902499</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J65" s="2">
         <v>2.8689821599660901</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K65" s="2">
         <v>7.11626085831724</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L65" s="2">
         <v>4.51680280336819</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M65" s="2">
         <v>3.77315540037986</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N65" s="2">
         <v>6.7612470274113203</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O65" s="2">
         <v>7.0116956730932598</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P65" s="2">
         <v>8.3629123345203702</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="Q65" s="2">
         <v>7.0723167384371903</v>
       </c>
-      <c r="R64" s="3">
+      <c r="R65" s="2">
         <v>7.7955250495608501</v>
       </c>
-      <c r="S64" s="3">
+      <c r="S65" s="2">
         <v>5.6424196783378404</v>
       </c>
-      <c r="T64" s="3">
+      <c r="T65" s="2">
         <v>6.3496522789072802</v>
       </c>
-      <c r="U64" s="3">
+      <c r="U65" s="2">
         <v>6.3496522789072802</v>
       </c>
-      <c r="V64" s="3">
+      <c r="V65" s="2">
         <v>6.2709777340902502</v>
       </c>
-      <c r="W64" s="3">
+      <c r="W65" s="2">
         <v>6.2709777340902502</v>
       </c>
-      <c r="X64" s="3">
+      <c r="X65" s="2">
         <v>7.9539414854905299</v>
       </c>
-      <c r="Y64" s="3">
+      <c r="Y65" s="2">
         <v>9.2626282808497002</v>
       </c>
-      <c r="Z64" s="3">
+      <c r="Z65" s="2">
         <v>7.0620987051593902</v>
       </c>
-      <c r="AA64" s="3">
+      <c r="AA65" s="2">
         <v>6.7103176340880397</v>
       </c>
-      <c r="AB64" s="3">
+      <c r="AB65" s="2">
         <v>6.7047982232815997</v>
       </c>
-      <c r="AC64" s="3">
+      <c r="AC65" s="2">
         <v>4.3059331183423799</v>
       </c>
-      <c r="AD64" s="3">
+      <c r="AD65" s="2">
         <v>1.8619516928531501</v>
       </c>
-      <c r="AE64" s="3">
+      <c r="AE65" s="2">
         <v>1.51040284629341</v>
       </c>
-      <c r="AF64" s="3">
+      <c r="AF65" s="2">
         <v>3.3669078095182798</v>
       </c>
-      <c r="AG64" s="3">
+      <c r="AG65" s="2">
         <v>1.80504835413714</v>
       </c>
-      <c r="AH64" s="3">
+      <c r="AH65" s="2">
         <v>4.4082810476420802</v>
       </c>
-      <c r="AI64" s="3">
+      <c r="AI65" s="2">
         <v>2.7716090115144798</v>
       </c>
-      <c r="AJ64" s="3">
+      <c r="AJ65" s="2">
         <v>6.7626703648280797</v>
       </c>
-      <c r="AK64" s="3">
+      <c r="AK65" s="2">
         <v>6.8263173559327903</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AQ64">
-    <sortCondition ref="B5:B64"/>
-    <sortCondition ref="C5:C64"/>
-    <sortCondition ref="D5:D64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AQ65">
+    <sortCondition ref="B6:B65"/>
+    <sortCondition ref="C6:C65"/>
+    <sortCondition ref="D6:D65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
